--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Do\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\CodeRepositories\TheRoadToTheFuture\英语\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B57ED35-76AE-4C8F-9D06-FCEB1B81C738}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13560"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Daily Easy English" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,13 +165,157 @@
   </si>
   <si>
     <t>If you don't believe me, let's make a bet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How are you doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How you doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you do for a living</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你工作是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm into sports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My knee went out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's up this weekend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这周末有什么事？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm going to kick back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我打算休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I slept in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oversleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡过头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm gonna stock up on sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要买点东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm counting on you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我相信你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a long week </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这周过得太难了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank god, it's Friday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's pure nosense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这纯属无稽之谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you got out shopping/Did you go shopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (to) do away with sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(to) do sth up </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(to) do up (clothes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zip up 拉链拉上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(to) do it over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>because of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thanks to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多亏，由于</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -551,11 +697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2508,4 +2654,1976 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B3A5FB-BE59-46CB-A140-7F60FDEACE36}">
+  <dimension ref="A1:F366"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="1.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="67.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="41" style="7" customWidth="1"/>
+    <col min="5" max="5" width="74.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="5">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\CodeRepositories\TheRoadToTheFuture\英语\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\CodeRepository\TheRoadToTheFuture\英语\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B57ED35-76AE-4C8F-9D06-FCEB1B81C738}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="158">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,13 +308,361 @@
   </si>
   <si>
     <t>多亏，由于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It makes sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有道理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It doesn't make sense/It makes no sense to read such a boring novel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just between you and me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我只告诉你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It seems like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It seems like nobody knew what had happened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It will do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行，可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It will do, you may leave. 这样就行了，你们可以走了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>just because</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是因为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We didn't stay just because I wanted to learn English.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's supposed to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该，相当于should</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was supposed to be ready last week.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's up to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由…决定/取决于…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's up to us to help those in need.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's worthy of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它是值得…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think the book is worthy of a lot more praise than it's getting. 我认为这本书应该值得更多的推崇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to propose a toast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to propose a toast to all of you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我提议敬一杯酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd strongly recommend that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我强烈推荐…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd strongly recommend that you see it, too.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't blame him for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不会为了……责备他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't blame him for it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a feeling that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有感觉……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a feeling that your mother doesn't like me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm afraid that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm afraid you don't see my point. 恐怕你没明白我的意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll … for a change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想换换口味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's go to the KFC for a change.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm concerned about…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我很担心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm really concerned about my parents' health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm in the middle of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我正忙着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was in the middle of making a pie for dinner when the telephone rang. 我正忙着做正餐吃的馅饼，这时电话响了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm just a little</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我只是有点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm just a little out of mind. 我只是有点疯狂而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm looking forward to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我期待着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm looking forward to your new book.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I really go for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我真喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't go much for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I really go for this car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I've got to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I've got to let you know</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I would if I could</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果我能的话我会的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I would if I could, but I can't go with you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It all depends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看情况而定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you going? That depends./ I'm not sure, It all depends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It can't be helped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这也没办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There's no way to change the plan, it can't be helped. 计划没法改变，只能这样了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a deal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一言为定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a deal, I'll pick you up tomorrow morning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's about time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是该……的时候了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's about time that he learned to look after himself.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's kind of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm feeling kind of tired. 我有点累了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a matter of fact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a matter of fact, we were just talking about you when you came in. 不瞒你说，你来的时候我们正在谈论你呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's my treat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我请客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's my treat, what would you like to drink?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's no use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……是没用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's no use. The car won't start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,11 +1044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -878,183 +1225,444 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
+      <c r="C12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
+      <c r="C14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
+      <c r="C15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2657,10 +3265,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B3A5FB-BE59-46CB-A140-7F60FDEACE36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="270">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,6 +656,454 @@
   </si>
   <si>
     <t>It's no use. The car won't start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's out of the question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是不可能的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's out of the question to leave the country without a passport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号\单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I wouldn't count on it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不会寄予太大希望的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't count on the weather being fine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd appreciate it if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感激你……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd appreciate it if you could turned down the radio.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I didn't catch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我没听清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ididn't catch your name.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can make it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我能做到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give me a chance, I can make it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't afford to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我负担不起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't afford to be absent from school. 我可不能不上学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't figure out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不能弄清楚/搞不懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't follow you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我没听懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't follow you when you speak fast.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't help </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我忍不住……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't help remembering how beautiful she looked.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you mind if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你介意我……吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you mind if I turn on the radio? Of course/Of course not.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go ahead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go ahead, we're all listening.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give/send my regards to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向……问好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please give my sincere regards to all the members of your family.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那又如何？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He doesn't like you, so what?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I have been hoping </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我一直希望……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have be hoping that she would come back to me someday.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There can be no doubt that…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……是毫无疑问的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There can be no doubt that he is so mad about ths issue.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is a pity that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……很遗憾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is a pity that you won't come.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't understand </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What surprise me most is that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最令我惊讶的是……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What surprise me most is that he speaks English so well.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'd better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最好……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'd better change your job.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please don't hesitate to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请随时……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please don't hesitate to ask me if you don't understand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgive me for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请原谅我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forgive me for being rude that day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In my opinion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我看来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In my opinion, you did the right thing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's the last straw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍无可忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's raining again, that's the last straw.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be a good sport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做个有风度的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be a good sport, and help me with the problem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have to do with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与……有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The book has to do with computers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could I have a word with you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以和你谈谈吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你什么时候方便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When will it be convenient for you to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When will it be convenient for you to take back your unbrella?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I suggest that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你觉得……怎么样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you like working in a foreign company?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd hate for you to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不愿意你……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd hate for you to leave our company.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you mean by saying so?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你这样说是什么意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How can you be so stupid?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mind your own business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少管闲事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'd better mind your business.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boy!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a bit (of)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm a bit thirsty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a pleasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不客气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a pleasure/my pleasure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a result, I totally changed my plan.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a waste of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪费……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a waste of time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入；熟悉；习惯于；陷入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He finally gets into the habit of running every morning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep one's head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持冷静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She managed to keep her head in a difficult situation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get into a habit of</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +1111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,8 +1159,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,10 +1181,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -740,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +1234,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,2215 +1528,2546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="1.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="67.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="41" style="7" customWidth="1"/>
-    <col min="5" max="5" width="74.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="41" style="7" customWidth="1"/>
+    <col min="4" max="4" width="74.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="B19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="B21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="B22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="B24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="B25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="B27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="B28" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B29" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="B30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="B31" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B32" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="B33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="B34" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B35" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
         <v>71</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="B72" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
         <v>72</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="B73" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B74" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
         <v>74</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="B75" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B76" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
         <v>76</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="B77" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
         <v>77</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="B78" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B79" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9">
         <v>79</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="B80" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9">
         <v>80</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="B81" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
+    <row r="83" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9">
         <v>82</v>
       </c>
-      <c r="D16" s="7" t="s">
+    </row>
+    <row r="84" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="9">
         <v>83</v>
       </c>
-      <c r="E16" s="7" t="s">
+    </row>
+    <row r="85" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="9">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
+    <row r="86" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="9">
         <v>85</v>
       </c>
-      <c r="D17" s="7" t="s">
+    </row>
+    <row r="87" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9">
         <v>86</v>
       </c>
-      <c r="E17" s="7" t="s">
+    </row>
+    <row r="88" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7" t="s">
+    <row r="89" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9">
         <v>88</v>
       </c>
-      <c r="D18" s="7" t="s">
+    </row>
+    <row r="90" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="9">
         <v>89</v>
       </c>
-      <c r="E18" s="7" t="s">
+    </row>
+    <row r="91" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7" t="s">
+    <row r="92" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="9">
         <v>91</v>
       </c>
-      <c r="D19" s="7" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="9">
         <v>92</v>
       </c>
-      <c r="E19" s="7" t="s">
+    </row>
+    <row r="94" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="9">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    <row r="95" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="9">
         <v>94</v>
       </c>
-      <c r="D20" s="7" t="s">
+    </row>
+    <row r="96" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
         <v>96</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7" t="s">
+    </row>
+    <row r="98" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="9">
         <v>97</v>
       </c>
-      <c r="D21" s="7" t="s">
+    </row>
+    <row r="99" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="9">
         <v>98</v>
       </c>
-      <c r="E21" s="7" t="s">
+    </row>
+    <row r="100" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="9">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="C22" s="7" t="s">
+    <row r="101" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="9">
         <v>100</v>
       </c>
-      <c r="D22" s="7" t="s">
+    </row>
+    <row r="102" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="9">
         <v>101</v>
       </c>
-      <c r="E22" s="7" t="s">
+    </row>
+    <row r="103" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7" t="s">
+    <row r="104" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="9">
         <v>103</v>
       </c>
-      <c r="D23" s="7" t="s">
+    </row>
+    <row r="105" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="9">
         <v>104</v>
       </c>
-      <c r="E23" s="7" t="s">
+    </row>
+    <row r="106" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="9">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="C24" s="7" t="s">
+    <row r="107" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="9">
         <v>106</v>
       </c>
-      <c r="E24" s="7" t="s">
+    </row>
+    <row r="108" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="9">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="C25" s="7" t="s">
+    <row r="109" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="9">
         <v>108</v>
       </c>
-      <c r="D25" s="7" t="s">
+    </row>
+    <row r="110" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="9">
         <v>109</v>
       </c>
-      <c r="E25" s="7" t="s">
+    </row>
+    <row r="111" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="C26" s="7" t="s">
+    <row r="112" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="9">
         <v>111</v>
       </c>
-      <c r="D26" s="7" t="s">
+    </row>
+    <row r="113" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="9">
         <v>112</v>
       </c>
-      <c r="E26" s="7" t="s">
+    </row>
+    <row r="114" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="9">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7" t="s">
+    <row r="115" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="9">
         <v>114</v>
       </c>
-      <c r="D27" s="7" t="s">
+    </row>
+    <row r="116" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="9">
         <v>115</v>
       </c>
-      <c r="E27" s="7" t="s">
+    </row>
+    <row r="117" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="9">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7" t="s">
+    <row r="118" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="9">
         <v>117</v>
       </c>
-      <c r="D28" s="7" t="s">
+    </row>
+    <row r="119" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="9">
         <v>118</v>
       </c>
-      <c r="E28" s="7" t="s">
+    </row>
+    <row r="120" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="9">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="C29" s="7" t="s">
+    <row r="121" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="9">
         <v>120</v>
       </c>
-      <c r="D29" s="7" t="s">
+    </row>
+    <row r="122" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="9">
         <v>121</v>
       </c>
-      <c r="E29" s="7" t="s">
+    </row>
+    <row r="123" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="9">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="C30" s="7" t="s">
+    <row r="124" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="9">
         <v>123</v>
       </c>
-      <c r="D30" s="7" t="s">
+    </row>
+    <row r="125" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="9">
         <v>124</v>
       </c>
-      <c r="E30" s="7" t="s">
+    </row>
+    <row r="126" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="9">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="C32" s="7" t="s">
+    <row r="129" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="9">
         <v>129</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="7" t="s">
+    </row>
+    <row r="131" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="9">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="C33" s="7" t="s">
+    <row r="132" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="9">
         <v>131</v>
       </c>
-      <c r="D33" s="7" t="s">
+    </row>
+    <row r="133" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="9">
         <v>132</v>
       </c>
-      <c r="E33" s="7" t="s">
+    </row>
+    <row r="134" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="9">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="C34" s="7" t="s">
+    <row r="135" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="9">
         <v>134</v>
       </c>
-      <c r="D34" s="7" t="s">
+    </row>
+    <row r="136" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="9">
         <v>135</v>
       </c>
-      <c r="E34" s="7" t="s">
+    </row>
+    <row r="137" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="9">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="C35" s="7" t="s">
+    <row r="138" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="9">
         <v>137</v>
       </c>
-      <c r="D35" s="7" t="s">
+    </row>
+    <row r="139" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="9">
         <v>138</v>
       </c>
-      <c r="E35" s="7" t="s">
+    </row>
+    <row r="140" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="9">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="C36" s="7" t="s">
+    <row r="141" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="9">
         <v>140</v>
       </c>
-      <c r="D36" s="7" t="s">
+    </row>
+    <row r="142" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="9">
         <v>141</v>
       </c>
-      <c r="E36" s="7" t="s">
+    </row>
+    <row r="143" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="9">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7" t="s">
+    <row r="144" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="9">
         <v>143</v>
       </c>
-      <c r="D37" s="7" t="s">
+    </row>
+    <row r="145" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="9">
         <v>144</v>
       </c>
-      <c r="E37" s="7" t="s">
+    </row>
+    <row r="146" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="9">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7" t="s">
+    <row r="147" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="9">
         <v>146</v>
       </c>
-      <c r="D38" s="7" t="s">
+    </row>
+    <row r="148" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="9">
         <v>147</v>
       </c>
-      <c r="E38" s="7" t="s">
+    </row>
+    <row r="149" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="9">
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="C39" s="7" t="s">
+    <row r="150" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="9">
         <v>149</v>
       </c>
-      <c r="D39" s="7" t="s">
+    </row>
+    <row r="151" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="9">
         <v>150</v>
       </c>
-      <c r="E39" s="7" t="s">
+    </row>
+    <row r="152" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="9">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="C40" s="7" t="s">
+    <row r="153" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="9">
         <v>152</v>
       </c>
-      <c r="D40" s="7" t="s">
+    </row>
+    <row r="154" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="9">
         <v>153</v>
       </c>
-      <c r="E40" s="7" t="s">
+    </row>
+    <row r="155" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="9">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="C41" s="7" t="s">
+    <row r="156" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="9">
         <v>155</v>
       </c>
-      <c r="D41" s="7" t="s">
+    </row>
+    <row r="157" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="9">
         <v>156</v>
       </c>
-      <c r="E41" s="7" t="s">
+    </row>
+    <row r="158" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="9">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="5">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5">
-        <v>157</v>
-      </c>
-    </row>
     <row r="159" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5">
+      <c r="A159" s="9">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5">
+      <c r="A160" s="9">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5">
+      <c r="A161" s="9">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5">
+      <c r="A162" s="9">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5">
+      <c r="A163" s="9">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5">
+      <c r="A164" s="9">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5">
+      <c r="A165" s="9">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5">
+      <c r="A166" s="9">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5">
+      <c r="A167" s="9">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5">
+      <c r="A168" s="9">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5">
+      <c r="A169" s="9">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5">
+      <c r="A170" s="9">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="5">
+      <c r="A171" s="9">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5">
+      <c r="A172" s="9">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5">
+      <c r="A173" s="9">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5">
+      <c r="A174" s="9">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="5">
+      <c r="A175" s="9">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="5">
+      <c r="A176" s="9">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5">
+      <c r="A177" s="9">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5">
+      <c r="A178" s="9">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5">
+      <c r="A179" s="9">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5">
+      <c r="A180" s="9">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5">
+      <c r="A181" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5">
+      <c r="A182" s="9">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="5">
+      <c r="A183" s="9">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="5">
+      <c r="A184" s="9">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5">
+      <c r="A185" s="9">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5">
+      <c r="A186" s="9">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5">
+      <c r="A187" s="9">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5">
+      <c r="A188" s="9">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5">
+      <c r="A189" s="9">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="5">
+      <c r="A190" s="9">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="5">
+      <c r="A191" s="9">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="5">
+      <c r="A192" s="9">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="5">
+      <c r="A193" s="9">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5">
+      <c r="A194" s="9">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5">
+      <c r="A195" s="9">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5">
+      <c r="A196" s="9">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="5">
+      <c r="A197" s="9">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5">
+      <c r="A198" s="9">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="5">
+      <c r="A199" s="9">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="5">
+      <c r="A200" s="9">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="5">
+      <c r="A201" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="5">
+      <c r="A202" s="9">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="5">
+      <c r="A203" s="9">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="5">
+      <c r="A204" s="9">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="5">
+      <c r="A205" s="9">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="5">
+      <c r="A206" s="9">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="5">
+      <c r="A207" s="9">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="5">
+      <c r="A208" s="9">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="5">
+      <c r="A209" s="9">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="5">
+      <c r="A210" s="9">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="5">
+      <c r="A211" s="9">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="5">
+      <c r="A212" s="9">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="5">
+      <c r="A213" s="9">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="5">
+      <c r="A214" s="9">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="5">
+      <c r="A215" s="9">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="5">
+      <c r="A216" s="9">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="5">
+      <c r="A217" s="9">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="5">
+      <c r="A218" s="9">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="5">
+      <c r="A219" s="9">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="5">
+      <c r="A220" s="9">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="5">
+      <c r="A221" s="9">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="5">
+      <c r="A222" s="9">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="5">
+      <c r="A223" s="9">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="5">
+      <c r="A224" s="9">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="5">
+      <c r="A225" s="9">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="5">
+      <c r="A226" s="9">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="5">
+      <c r="A227" s="9">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="5">
+      <c r="A228" s="9">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="5">
+      <c r="A229" s="9">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="5">
+      <c r="A230" s="9">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="5">
+      <c r="A231" s="9">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="5">
+      <c r="A232" s="9">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="5">
+      <c r="A233" s="9">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="5">
+      <c r="A234" s="9">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="5">
+      <c r="A235" s="9">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="5">
+      <c r="A236" s="9">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="5">
+      <c r="A237" s="9">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="5">
+      <c r="A238" s="9">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="5">
+      <c r="A239" s="9">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="5">
+      <c r="A240" s="9">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="5">
+      <c r="A241" s="9">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="5">
+      <c r="A242" s="9">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="5">
+      <c r="A243" s="9">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="5">
+      <c r="A244" s="9">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="5">
+      <c r="A245" s="9">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="5">
+      <c r="A246" s="9">
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="5">
+      <c r="A247" s="9">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="5">
+      <c r="A248" s="9">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="5">
+      <c r="A249" s="9">
         <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="5">
+      <c r="A250" s="9">
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="5">
+      <c r="A251" s="9">
         <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="5">
+      <c r="A252" s="9">
         <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="5">
+      <c r="A253" s="9">
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="5">
+      <c r="A254" s="9">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="5">
+      <c r="A255" s="9">
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="5">
+      <c r="A256" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="5">
+      <c r="A257" s="9">
         <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="5">
+      <c r="A258" s="9">
         <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="5">
+      <c r="A259" s="9">
         <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="5">
+      <c r="A260" s="9">
         <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="5">
+      <c r="A261" s="9">
         <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="5">
+      <c r="A262" s="9">
         <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="5">
+      <c r="A263" s="9">
         <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="5">
+      <c r="A264" s="9">
         <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="5">
+      <c r="A265" s="9">
         <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="5">
+      <c r="A266" s="9">
         <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="5">
+      <c r="A267" s="9">
         <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="5">
+      <c r="A268" s="9">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="5">
+      <c r="A269" s="9">
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="5">
+      <c r="A270" s="9">
         <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="5">
+      <c r="A271" s="9">
         <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="5">
+      <c r="A272" s="9">
         <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
+      <c r="A273" s="9">
         <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="5">
+      <c r="A274" s="9">
         <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="5">
+      <c r="A275" s="9">
         <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="5">
+      <c r="A276" s="9">
         <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="5">
+      <c r="A277" s="9">
         <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="5">
+      <c r="A278" s="9">
         <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="5">
+      <c r="A279" s="9">
         <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="5">
+      <c r="A280" s="9">
         <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="5">
+      <c r="A281" s="9">
         <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="5">
+      <c r="A282" s="9">
         <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="5">
+      <c r="A283" s="9">
         <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="5">
+      <c r="A284" s="9">
         <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="5">
+      <c r="A285" s="9">
         <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="5">
+      <c r="A286" s="9">
         <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="5">
+      <c r="A287" s="9">
         <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="5">
+      <c r="A288" s="9">
         <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="5">
+      <c r="A289" s="9">
         <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="5">
+      <c r="A290" s="9">
         <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="5">
+      <c r="A291" s="9">
         <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="5">
+      <c r="A292" s="9">
         <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="5">
+      <c r="A293" s="9">
         <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="5">
+      <c r="A294" s="9">
         <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="5">
+      <c r="A295" s="9">
         <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="5">
+      <c r="A296" s="9">
         <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="5">
+      <c r="A297" s="9">
         <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="5">
+      <c r="A298" s="9">
         <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="5">
+      <c r="A299" s="9">
         <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="5">
+      <c r="A300" s="9">
         <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="5">
+      <c r="A301" s="9">
         <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="5">
+      <c r="A302" s="9">
         <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="5">
+      <c r="A303" s="9">
         <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="5">
+      <c r="A304" s="9">
         <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="5">
+      <c r="A305" s="9">
         <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="5">
+      <c r="A306" s="9">
         <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="5">
+      <c r="A307" s="9">
         <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="5">
+      <c r="A308" s="9">
         <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="5">
+      <c r="A309" s="9">
         <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="5">
+      <c r="A310" s="9">
         <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="5">
+      <c r="A311" s="9">
         <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="5">
+      <c r="A312" s="9">
         <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="5">
+      <c r="A313" s="9">
         <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="5">
+      <c r="A314" s="9">
         <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="5">
+      <c r="A315" s="9">
         <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="5">
+      <c r="A316" s="9">
         <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="5">
+      <c r="A317" s="9">
         <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="5">
+      <c r="A318" s="9">
         <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="5">
+      <c r="A319" s="9">
         <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="5">
+      <c r="A320" s="9">
         <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="5">
+      <c r="A321" s="9">
         <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="5">
+      <c r="A322" s="9">
         <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="5">
+      <c r="A323" s="9">
         <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="5">
+      <c r="A324" s="9">
         <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="5">
+      <c r="A325" s="9">
         <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="5">
+      <c r="A326" s="9">
         <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="5">
+      <c r="A327" s="9">
         <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="5">
+      <c r="A328" s="9">
         <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="5">
+      <c r="A329" s="9">
         <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="5">
+      <c r="A330" s="9">
         <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="5">
+      <c r="A331" s="9">
         <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="5">
+      <c r="A332" s="9">
         <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="5">
+      <c r="A333" s="9">
         <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="5">
+      <c r="A334" s="9">
         <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="5">
+      <c r="A335" s="9">
         <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="5">
+      <c r="A336" s="9">
         <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="5">
+      <c r="A337" s="9">
         <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="5">
+      <c r="A338" s="9">
         <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="5">
+      <c r="A339" s="9">
         <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="5">
+      <c r="A340" s="9">
         <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="5">
+      <c r="A341" s="9">
         <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="5">
+      <c r="A342" s="9">
         <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="5">
+      <c r="A343" s="9">
         <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="5">
+      <c r="A344" s="9">
         <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="5">
+      <c r="A345" s="9">
         <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="5">
+      <c r="A346" s="9">
         <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="5">
+      <c r="A347" s="9">
         <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="5">
+      <c r="A348" s="9">
         <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="5">
+      <c r="A349" s="9">
         <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="5">
+      <c r="A350" s="9">
         <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="5">
+      <c r="A351" s="9">
         <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="5">
+      <c r="A352" s="9">
         <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="5">
+      <c r="A353" s="9">
         <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="5">
+      <c r="A354" s="9">
         <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="5">
+      <c r="A355" s="9">
         <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="5">
+      <c r="A356" s="9">
         <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="5">
+      <c r="A357" s="9">
         <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="5">
+      <c r="A358" s="9">
         <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="5">
+      <c r="A359" s="9">
         <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="5">
+      <c r="A360" s="9">
         <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="5">
+      <c r="A361" s="9">
         <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="5">
+      <c r="A362" s="9">
         <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="5">
+      <c r="A363" s="9">
         <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="5">
+      <c r="A364" s="9">
         <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="5">
+      <c r="A365" s="9">
         <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="5">
+      <c r="A366" s="9">
         <v>365</v>
       </c>
     </row>

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Emily" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Easy English" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="353">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> (to) do away with sth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">(to) do sth up </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,6 +652,790 @@
   </si>
   <si>
     <t>It's no use. The car won't start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's out of the question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是不可能的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's out of the question to leave the country without a passport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号\单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I wouldn't count on it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不会寄予太大希望的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't count on the weather being fine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd appreciate it if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感激你……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd appreciate it if you could turned down the radio.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I didn't catch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我没听清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ididn't catch your name.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can make it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我能做到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give me a chance, I can make it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't afford to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我负担不起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't afford to be absent from school. 我可不能不上学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't figure out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不能弄清楚/搞不懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't follow you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我没听懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't follow you when you speak fast.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't help </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我忍不住……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't help remembering how beautiful she looked.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you mind if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你介意我……吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you mind if I turn on the radio? Of course/Of course not.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go ahead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go ahead, we're all listening.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give/send my regards to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向……问好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please give my sincere regards to all the members of your family.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那又如何？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He doesn't like you, so what?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I have been hoping </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我一直希望……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have be hoping that she would come back to me someday.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There can be no doubt that…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……是毫无疑问的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There can be no doubt that he is so mad about ths issue.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is a pity that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……很遗憾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is a pity that you won't come.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't understand </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What surprise me most is that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最令我惊讶的是……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What surprise me most is that he speaks English so well.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'd better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最好……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'd better change your job.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please don't hesitate to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请随时……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please don't hesitate to ask me if you don't understand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgive me for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请原谅我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forgive me for being rude that day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In my opinion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我看来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In my opinion, you did the right thing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's the last straw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍无可忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's raining again, that's the last straw.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be a good sport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做个有风度的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be a good sport, and help me with the problem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have to do with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与……有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The book has to do with computers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could I have a word with you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以和你谈谈吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你什么时候方便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When will it be convenient for you to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When will it be convenient for you to take back your unbrella?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I suggest that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你觉得……怎么样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you like working in a foreign company?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd hate for you to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不愿意你……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd hate for you to leave our company.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you mean by saying so?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你这样说是什么意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How can you be so stupid?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mind your own business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少管闲事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'd better mind your business.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boy!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a bit (of)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm a bit thirsty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a pleasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不客气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a pleasure/my pleasure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a result, I totally changed my plan.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a waste of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪费……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a waste of time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入；熟悉；习惯于；陷入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He finally gets into the habit of running every morning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep one's head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持冷静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She managed to keep her head in a difficult situation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get into a habit of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(to) do away with sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burst into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然爆发，闯入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burst into tears. 突然哭了 burst into laughter. Burst into song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺便拜访，顺便进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop in on sb/drop in at someplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of breath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气喘吁吁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When I hurried to school, I was almost out of breath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make use of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make full/good use of; make better use of; We should make good use of the chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be tired of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厌倦，厌烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm tired of fried eggs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more or less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大约，几乎，差不多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It took me more or less three hours to finish the work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go on doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't stop, go on reading.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go on to do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转而做另一件事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be good for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对……好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drinking a lot of water is good for your body.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get the hang of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握……的诀窍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm just starting to get the hang of driving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by the way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put up with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't put up with noise when I am working.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at the moment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此时，现在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm not feeling very well at the moment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炫耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All right, there's no need to show off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做家务，处理琐事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You should help your mom do chores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do chores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We were going to go out, but ended up watching TV at home.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be about to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将，将要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The plane is about to take off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neck and neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不分上下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the skills of driving, the are neck and neck.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be rude to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗鲁，无礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We should never be rude to our elders.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take care</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take a risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have to take a risk in my job.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记，办理登记手续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They checked in at that hotel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall in love with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱上……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I went to Shanghai last year and fell in love with it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In debt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In sb's debt.欠……的债; I need to pay off all my debts before I leave the country.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not yet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have not yet found their key.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fell like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉得，想要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can wi take a walk? I feel like eathing anything.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get to somebody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让人厌烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's really getting to me.真烦人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't get me wrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要误会我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't get me wrong, but you look awful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blow hot and cold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三心二意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He tends to blow hot and cold. 他可能拿不定主意.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,15 +1484,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF0070C0"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,10 +1505,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -740,14 +1535,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -759,10 +1551,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,2215 +1846,2795 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="1.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="67.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="41" style="7" customWidth="1"/>
-    <col min="5" max="5" width="74.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="10.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41" style="5" customWidth="1"/>
+    <col min="4" max="4" width="74.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="7" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="C21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B96" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="B98" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="B99" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B100" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="B101" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="B102" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B103" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="B104" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="B105" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B106" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="B107" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B108" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="B109" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="B110" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B111" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="D26" s="7" t="s">
+    </row>
+    <row r="113" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="E26" s="7" t="s">
+    </row>
+    <row r="114" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="7">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7" t="s">
+    <row r="115" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="D27" s="7" t="s">
+    </row>
+    <row r="116" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="E27" s="7" t="s">
+    </row>
+    <row r="117" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7" t="s">
+    <row r="118" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="D28" s="7" t="s">
+    </row>
+    <row r="119" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="E28" s="7" t="s">
+    </row>
+    <row r="120" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="C29" s="7" t="s">
+    <row r="121" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="D29" s="7" t="s">
+    </row>
+    <row r="122" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="E29" s="7" t="s">
+    </row>
+    <row r="123" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="C30" s="7" t="s">
+    <row r="124" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="D30" s="7" t="s">
+    </row>
+    <row r="125" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="E30" s="7" t="s">
+    </row>
+    <row r="126" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="C32" s="7" t="s">
+    <row r="129" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="7" t="s">
+    </row>
+    <row r="131" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="C33" s="7" t="s">
+    <row r="132" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="D33" s="7" t="s">
+    </row>
+    <row r="133" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="E33" s="7" t="s">
+    </row>
+    <row r="134" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="C34" s="7" t="s">
+    <row r="135" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="D34" s="7" t="s">
+    </row>
+    <row r="136" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="E34" s="7" t="s">
+    </row>
+    <row r="137" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="7">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="C35" s="7" t="s">
+    <row r="138" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="D35" s="7" t="s">
+    </row>
+    <row r="139" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="E35" s="7" t="s">
+    </row>
+    <row r="140" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="C36" s="7" t="s">
+    <row r="141" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="D36" s="7" t="s">
+    </row>
+    <row r="142" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="E36" s="7" t="s">
+    </row>
+    <row r="143" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="7">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7" t="s">
+    <row r="144" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="D37" s="7" t="s">
+    </row>
+    <row r="145" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="E37" s="7" t="s">
+    </row>
+    <row r="146" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7" t="s">
+    <row r="147" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="D38" s="7" t="s">
+    </row>
+    <row r="148" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="E38" s="7" t="s">
+    </row>
+    <row r="149" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="C39" s="7" t="s">
+    <row r="150" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="D39" s="7" t="s">
+    </row>
+    <row r="151" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="E39" s="7" t="s">
+    </row>
+    <row r="152" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="C40" s="7" t="s">
+    <row r="153" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="D40" s="7" t="s">
+    </row>
+    <row r="154" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="E40" s="7" t="s">
+    </row>
+    <row r="155" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="7">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="C41" s="7" t="s">
+    <row r="156" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="D41" s="7" t="s">
+    </row>
+    <row r="157" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="E41" s="7" t="s">
+    </row>
+    <row r="158" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="7">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="5">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5">
-        <v>157</v>
-      </c>
-    </row>
     <row r="159" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5">
+      <c r="A159" s="7">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5">
+      <c r="A160" s="7">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5">
+      <c r="A161" s="7">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5">
+      <c r="A162" s="7">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5">
+      <c r="A163" s="7">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5">
+      <c r="A164" s="7">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5">
+      <c r="A165" s="7">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5">
+      <c r="A166" s="7">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5">
+      <c r="A167" s="7">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5">
+      <c r="A168" s="7">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5">
+      <c r="A169" s="7">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5">
+      <c r="A170" s="7">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="5">
+      <c r="A171" s="7">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5">
+      <c r="A172" s="7">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5">
+      <c r="A173" s="7">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5">
+      <c r="A174" s="7">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="5">
+      <c r="A175" s="7">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="5">
+      <c r="A176" s="7">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5">
+      <c r="A177" s="7">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5">
+      <c r="A178" s="7">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5">
+      <c r="A179" s="7">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5">
+      <c r="A180" s="7">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5">
+      <c r="A181" s="7">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5">
+      <c r="A182" s="7">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="5">
+      <c r="A183" s="7">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="5">
+      <c r="A184" s="7">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5">
+      <c r="A185" s="7">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5">
+      <c r="A186" s="7">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5">
+      <c r="A187" s="7">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5">
+      <c r="A188" s="7">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5">
+      <c r="A189" s="7">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="5">
+      <c r="A190" s="7">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="5">
+      <c r="A191" s="7">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="5">
+      <c r="A192" s="7">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="5">
+      <c r="A193" s="7">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5">
+      <c r="A194" s="7">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5">
+      <c r="A195" s="7">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5">
+      <c r="A196" s="7">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="5">
+      <c r="A197" s="7">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5">
+      <c r="A198" s="7">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="5">
+      <c r="A199" s="7">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="5">
+      <c r="A200" s="7">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="5">
+      <c r="A201" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="5">
+      <c r="A202" s="7">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="5">
+      <c r="A203" s="7">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="5">
+      <c r="A204" s="7">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="5">
+      <c r="A205" s="7">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="5">
+      <c r="A206" s="7">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="5">
+      <c r="A207" s="7">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="5">
+      <c r="A208" s="7">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="5">
+      <c r="A209" s="7">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="5">
+      <c r="A210" s="7">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="5">
+      <c r="A211" s="7">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="5">
+      <c r="A212" s="7">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="5">
+      <c r="A213" s="7">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="5">
+      <c r="A214" s="7">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="5">
+      <c r="A215" s="7">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="5">
+      <c r="A216" s="7">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="5">
+      <c r="A217" s="7">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="5">
+      <c r="A218" s="7">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="5">
+      <c r="A219" s="7">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="5">
+      <c r="A220" s="7">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="5">
+      <c r="A221" s="7">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="5">
+      <c r="A222" s="7">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="5">
+      <c r="A223" s="7">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="5">
+      <c r="A224" s="7">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="5">
+      <c r="A225" s="7">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="5">
+      <c r="A226" s="7">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="5">
+      <c r="A227" s="7">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="5">
+      <c r="A228" s="7">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="5">
+      <c r="A229" s="7">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="5">
+      <c r="A230" s="7">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="5">
+      <c r="A231" s="7">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="5">
+      <c r="A232" s="7">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="5">
+      <c r="A233" s="7">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="5">
+      <c r="A234" s="7">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="5">
+      <c r="A235" s="7">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="5">
+      <c r="A236" s="7">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="5">
+      <c r="A237" s="7">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="5">
+      <c r="A238" s="7">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="5">
+      <c r="A239" s="7">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="5">
+      <c r="A240" s="7">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="5">
+      <c r="A241" s="7">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="5">
+      <c r="A242" s="7">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="5">
+      <c r="A243" s="7">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="5">
+      <c r="A244" s="7">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="5">
+      <c r="A245" s="7">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="5">
+      <c r="A246" s="7">
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="5">
+      <c r="A247" s="7">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="5">
+      <c r="A248" s="7">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="5">
+      <c r="A249" s="7">
         <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="5">
+      <c r="A250" s="7">
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="5">
+      <c r="A251" s="7">
         <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="5">
+      <c r="A252" s="7">
         <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="5">
+      <c r="A253" s="7">
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="5">
+      <c r="A254" s="7">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="5">
+      <c r="A255" s="7">
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="5">
+      <c r="A256" s="7">
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="5">
+      <c r="A257" s="7">
         <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="5">
+      <c r="A258" s="7">
         <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="5">
+      <c r="A259" s="7">
         <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="5">
+      <c r="A260" s="7">
         <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="5">
+      <c r="A261" s="7">
         <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="5">
+      <c r="A262" s="7">
         <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="5">
+      <c r="A263" s="7">
         <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="5">
+      <c r="A264" s="7">
         <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="5">
+      <c r="A265" s="7">
         <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="5">
+      <c r="A266" s="7">
         <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="5">
+      <c r="A267" s="7">
         <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="5">
+      <c r="A268" s="7">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="5">
+      <c r="A269" s="7">
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="5">
+      <c r="A270" s="7">
         <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="5">
+      <c r="A271" s="7">
         <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="5">
+      <c r="A272" s="7">
         <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
+      <c r="A273" s="7">
         <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="5">
+      <c r="A274" s="7">
         <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="5">
+      <c r="A275" s="7">
         <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="5">
+      <c r="A276" s="7">
         <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="5">
+      <c r="A277" s="7">
         <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="5">
+      <c r="A278" s="7">
         <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="5">
+      <c r="A279" s="7">
         <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="5">
+      <c r="A280" s="7">
         <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="5">
+      <c r="A281" s="7">
         <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="5">
+      <c r="A282" s="7">
         <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="5">
+      <c r="A283" s="7">
         <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="5">
+      <c r="A284" s="7">
         <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="5">
+      <c r="A285" s="7">
         <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="5">
+      <c r="A286" s="7">
         <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="5">
+      <c r="A287" s="7">
         <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="5">
+      <c r="A288" s="7">
         <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="5">
+      <c r="A289" s="7">
         <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="5">
+      <c r="A290" s="7">
         <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="5">
+      <c r="A291" s="7">
         <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="5">
+      <c r="A292" s="7">
         <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="5">
+      <c r="A293" s="7">
         <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="5">
+      <c r="A294" s="7">
         <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="5">
+      <c r="A295" s="7">
         <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="5">
+      <c r="A296" s="7">
         <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="5">
+      <c r="A297" s="7">
         <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="5">
+      <c r="A298" s="7">
         <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="5">
+      <c r="A299" s="7">
         <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="5">
+      <c r="A300" s="7">
         <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="5">
+      <c r="A301" s="7">
         <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="5">
+      <c r="A302" s="7">
         <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="5">
+      <c r="A303" s="7">
         <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="5">
+      <c r="A304" s="7">
         <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="5">
+      <c r="A305" s="7">
         <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="5">
+      <c r="A306" s="7">
         <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="5">
+      <c r="A307" s="7">
         <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="5">
+      <c r="A308" s="7">
         <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="5">
+      <c r="A309" s="7">
         <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="5">
+      <c r="A310" s="7">
         <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="5">
+      <c r="A311" s="7">
         <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="5">
+      <c r="A312" s="7">
         <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="5">
+      <c r="A313" s="7">
         <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="5">
+      <c r="A314" s="7">
         <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="5">
+      <c r="A315" s="7">
         <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="5">
+      <c r="A316" s="7">
         <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="5">
+      <c r="A317" s="7">
         <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="5">
+      <c r="A318" s="7">
         <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="5">
+      <c r="A319" s="7">
         <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="5">
+      <c r="A320" s="7">
         <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="5">
+      <c r="A321" s="7">
         <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="5">
+      <c r="A322" s="7">
         <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="5">
+      <c r="A323" s="7">
         <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="5">
+      <c r="A324" s="7">
         <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="5">
+      <c r="A325" s="7">
         <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="5">
+      <c r="A326" s="7">
         <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="5">
+      <c r="A327" s="7">
         <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="5">
+      <c r="A328" s="7">
         <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="5">
+      <c r="A329" s="7">
         <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="5">
+      <c r="A330" s="7">
         <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="5">
+      <c r="A331" s="7">
         <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="5">
+      <c r="A332" s="7">
         <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="5">
+      <c r="A333" s="7">
         <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="5">
+      <c r="A334" s="7">
         <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="5">
+      <c r="A335" s="7">
         <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="5">
+      <c r="A336" s="7">
         <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="5">
+      <c r="A337" s="7">
         <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="5">
+      <c r="A338" s="7">
         <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="5">
+      <c r="A339" s="7">
         <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="5">
+      <c r="A340" s="7">
         <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="5">
+      <c r="A341" s="7">
         <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="5">
+      <c r="A342" s="7">
         <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="5">
+      <c r="A343" s="7">
         <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="5">
+      <c r="A344" s="7">
         <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="5">
+      <c r="A345" s="7">
         <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="5">
+      <c r="A346" s="7">
         <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="5">
+      <c r="A347" s="7">
         <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="5">
+      <c r="A348" s="7">
         <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="5">
+      <c r="A349" s="7">
         <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="5">
+      <c r="A350" s="7">
         <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="5">
+      <c r="A351" s="7">
         <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="5">
+      <c r="A352" s="7">
         <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="5">
+      <c r="A353" s="7">
         <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="5">
+      <c r="A354" s="7">
         <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="5">
+      <c r="A355" s="7">
         <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="5">
+      <c r="A356" s="7">
         <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="5">
+      <c r="A357" s="7">
         <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="5">
+      <c r="A358" s="7">
         <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="5">
+      <c r="A359" s="7">
         <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="5">
+      <c r="A360" s="7">
         <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="5">
+      <c r="A361" s="7">
         <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="5">
+      <c r="A362" s="7">
         <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="5">
+      <c r="A363" s="7">
         <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="5">
+      <c r="A364" s="7">
         <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="5">
+      <c r="A365" s="7">
         <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="5">
+      <c r="A366" s="7">
         <v>365</v>
       </c>
     </row>
@@ -3266,1966 +4647,1964 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="1.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="67.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="41" style="7" customWidth="1"/>
-    <col min="5" max="5" width="74.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41" style="5" customWidth="1"/>
+    <col min="4" max="4" width="74.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="7" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
-        <v>70</v>
-      </c>
-    </row>
     <row r="72" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
+      <c r="A123" s="4">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
+      <c r="A124" s="4">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
+      <c r="A125" s="4">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
+      <c r="A126" s="4">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
+      <c r="A127" s="4">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+      <c r="A128" s="4">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="A129" s="4">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
+      <c r="A130" s="4">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
+      <c r="A131" s="4">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
+      <c r="A132" s="4">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
+      <c r="A133" s="4">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5">
+      <c r="A134" s="4">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5">
+      <c r="A135" s="4">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5">
+      <c r="A136" s="4">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="5">
+      <c r="A137" s="4">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5">
+      <c r="A138" s="4">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5">
+      <c r="A139" s="4">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5">
+      <c r="A140" s="4">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="5">
+      <c r="A141" s="4">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5">
+      <c r="A142" s="4">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5">
+      <c r="A143" s="4">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5">
+      <c r="A144" s="4">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5">
+      <c r="A145" s="4">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5">
+      <c r="A146" s="4">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5">
+      <c r="A147" s="4">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5">
+      <c r="A148" s="4">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5">
+      <c r="A149" s="4">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
+      <c r="A150" s="4">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
+      <c r="A151" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5">
+      <c r="A152" s="4">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5">
+      <c r="A153" s="4">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
+      <c r="A154" s="4">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5">
+      <c r="A155" s="4">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5">
+      <c r="A156" s="4">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5">
+      <c r="A157" s="4">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5">
+      <c r="A158" s="4">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5">
+      <c r="A159" s="4">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5">
+      <c r="A160" s="4">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5">
+      <c r="A161" s="4">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5">
+      <c r="A162" s="4">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5">
+      <c r="A163" s="4">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5">
+      <c r="A164" s="4">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5">
+      <c r="A165" s="4">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5">
+      <c r="A166" s="4">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5">
+      <c r="A167" s="4">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5">
+      <c r="A168" s="4">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5">
+      <c r="A169" s="4">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5">
+      <c r="A170" s="4">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="5">
+      <c r="A171" s="4">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5">
+      <c r="A172" s="4">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5">
+      <c r="A173" s="4">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5">
+      <c r="A174" s="4">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="5">
+      <c r="A175" s="4">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="5">
+      <c r="A176" s="4">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5">
+      <c r="A177" s="4">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5">
+      <c r="A178" s="4">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5">
+      <c r="A179" s="4">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5">
+      <c r="A180" s="4">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5">
+      <c r="A181" s="4">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5">
+      <c r="A182" s="4">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="5">
+      <c r="A183" s="4">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="5">
+      <c r="A184" s="4">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5">
+      <c r="A185" s="4">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5">
+      <c r="A186" s="4">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5">
+      <c r="A187" s="4">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5">
+      <c r="A188" s="4">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5">
+      <c r="A189" s="4">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="5">
+      <c r="A190" s="4">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="5">
+      <c r="A191" s="4">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="5">
+      <c r="A192" s="4">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="5">
+      <c r="A193" s="4">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5">
+      <c r="A194" s="4">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5">
+      <c r="A195" s="4">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5">
+      <c r="A196" s="4">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="5">
+      <c r="A197" s="4">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5">
+      <c r="A198" s="4">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="5">
+      <c r="A199" s="4">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="5">
+      <c r="A200" s="4">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="5">
+      <c r="A201" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="5">
+      <c r="A202" s="4">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="5">
+      <c r="A203" s="4">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="5">
+      <c r="A204" s="4">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="5">
+      <c r="A205" s="4">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="5">
+      <c r="A206" s="4">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="5">
+      <c r="A207" s="4">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="5">
+      <c r="A208" s="4">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="5">
+      <c r="A209" s="4">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="5">
+      <c r="A210" s="4">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="5">
+      <c r="A211" s="4">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="5">
+      <c r="A212" s="4">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="5">
+      <c r="A213" s="4">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="5">
+      <c r="A214" s="4">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="5">
+      <c r="A215" s="4">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="5">
+      <c r="A216" s="4">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="5">
+      <c r="A217" s="4">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="5">
+      <c r="A218" s="4">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="5">
+      <c r="A219" s="4">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="5">
+      <c r="A220" s="4">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="5">
+      <c r="A221" s="4">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="5">
+      <c r="A222" s="4">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="5">
+      <c r="A223" s="4">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="5">
+      <c r="A224" s="4">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="5">
+      <c r="A225" s="4">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="5">
+      <c r="A226" s="4">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="5">
+      <c r="A227" s="4">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="5">
+      <c r="A228" s="4">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="5">
+      <c r="A229" s="4">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="5">
+      <c r="A230" s="4">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="5">
+      <c r="A231" s="4">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="5">
+      <c r="A232" s="4">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="5">
+      <c r="A233" s="4">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="5">
+      <c r="A234" s="4">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="5">
+      <c r="A235" s="4">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="5">
+      <c r="A236" s="4">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="5">
+      <c r="A237" s="4">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="5">
+      <c r="A238" s="4">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="5">
+      <c r="A239" s="4">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="5">
+      <c r="A240" s="4">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="5">
+      <c r="A241" s="4">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="5">
+      <c r="A242" s="4">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="5">
+      <c r="A243" s="4">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="5">
+      <c r="A244" s="4">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="5">
+      <c r="A245" s="4">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="5">
+      <c r="A246" s="4">
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="5">
+      <c r="A247" s="4">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="5">
+      <c r="A248" s="4">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="5">
+      <c r="A249" s="4">
         <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="5">
+      <c r="A250" s="4">
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="5">
+      <c r="A251" s="4">
         <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="5">
+      <c r="A252" s="4">
         <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="5">
+      <c r="A253" s="4">
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="5">
+      <c r="A254" s="4">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="5">
+      <c r="A255" s="4">
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="5">
+      <c r="A256" s="4">
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="5">
+      <c r="A257" s="4">
         <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="5">
+      <c r="A258" s="4">
         <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="5">
+      <c r="A259" s="4">
         <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="5">
+      <c r="A260" s="4">
         <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="5">
+      <c r="A261" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="5">
+      <c r="A262" s="4">
         <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="5">
+      <c r="A263" s="4">
         <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="5">
+      <c r="A264" s="4">
         <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="5">
+      <c r="A265" s="4">
         <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="5">
+      <c r="A266" s="4">
         <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="5">
+      <c r="A267" s="4">
         <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="5">
+      <c r="A268" s="4">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="5">
+      <c r="A269" s="4">
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="5">
+      <c r="A270" s="4">
         <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="5">
+      <c r="A271" s="4">
         <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="5">
+      <c r="A272" s="4">
         <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
+      <c r="A273" s="4">
         <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="5">
+      <c r="A274" s="4">
         <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="5">
+      <c r="A275" s="4">
         <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="5">
+      <c r="A276" s="4">
         <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="5">
+      <c r="A277" s="4">
         <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="5">
+      <c r="A278" s="4">
         <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="5">
+      <c r="A279" s="4">
         <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="5">
+      <c r="A280" s="4">
         <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="5">
+      <c r="A281" s="4">
         <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="5">
+      <c r="A282" s="4">
         <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="5">
+      <c r="A283" s="4">
         <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="5">
+      <c r="A284" s="4">
         <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="5">
+      <c r="A285" s="4">
         <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="5">
+      <c r="A286" s="4">
         <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="5">
+      <c r="A287" s="4">
         <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="5">
+      <c r="A288" s="4">
         <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="5">
+      <c r="A289" s="4">
         <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="5">
+      <c r="A290" s="4">
         <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="5">
+      <c r="A291" s="4">
         <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="5">
+      <c r="A292" s="4">
         <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="5">
+      <c r="A293" s="4">
         <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="5">
+      <c r="A294" s="4">
         <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="5">
+      <c r="A295" s="4">
         <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="5">
+      <c r="A296" s="4">
         <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="5">
+      <c r="A297" s="4">
         <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="5">
+      <c r="A298" s="4">
         <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="5">
+      <c r="A299" s="4">
         <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="5">
+      <c r="A300" s="4">
         <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="5">
+      <c r="A301" s="4">
         <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="5">
+      <c r="A302" s="4">
         <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="5">
+      <c r="A303" s="4">
         <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="5">
+      <c r="A304" s="4">
         <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="5">
+      <c r="A305" s="4">
         <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="5">
+      <c r="A306" s="4">
         <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="5">
+      <c r="A307" s="4">
         <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="5">
+      <c r="A308" s="4">
         <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="5">
+      <c r="A309" s="4">
         <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="5">
+      <c r="A310" s="4">
         <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="5">
+      <c r="A311" s="4">
         <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="5">
+      <c r="A312" s="4">
         <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="5">
+      <c r="A313" s="4">
         <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="5">
+      <c r="A314" s="4">
         <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="5">
+      <c r="A315" s="4">
         <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="5">
+      <c r="A316" s="4">
         <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="5">
+      <c r="A317" s="4">
         <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="5">
+      <c r="A318" s="4">
         <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="5">
+      <c r="A319" s="4">
         <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="5">
+      <c r="A320" s="4">
         <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="5">
+      <c r="A321" s="4">
         <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="5">
+      <c r="A322" s="4">
         <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="5">
+      <c r="A323" s="4">
         <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="5">
+      <c r="A324" s="4">
         <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="5">
+      <c r="A325" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="5">
+      <c r="A326" s="4">
         <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="5">
+      <c r="A327" s="4">
         <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="5">
+      <c r="A328" s="4">
         <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="5">
+      <c r="A329" s="4">
         <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="5">
+      <c r="A330" s="4">
         <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="5">
+      <c r="A331" s="4">
         <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="5">
+      <c r="A332" s="4">
         <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="5">
+      <c r="A333" s="4">
         <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="5">
+      <c r="A334" s="4">
         <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="5">
+      <c r="A335" s="4">
         <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="5">
+      <c r="A336" s="4">
         <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="5">
+      <c r="A337" s="4">
         <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="5">
+      <c r="A338" s="4">
         <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="5">
+      <c r="A339" s="4">
         <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="5">
+      <c r="A340" s="4">
         <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="5">
+      <c r="A341" s="4">
         <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="5">
+      <c r="A342" s="4">
         <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="5">
+      <c r="A343" s="4">
         <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="5">
+      <c r="A344" s="4">
         <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="5">
+      <c r="A345" s="4">
         <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="5">
+      <c r="A346" s="4">
         <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="5">
+      <c r="A347" s="4">
         <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="5">
+      <c r="A348" s="4">
         <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="5">
+      <c r="A349" s="4">
         <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="5">
+      <c r="A350" s="4">
         <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="5">
+      <c r="A351" s="4">
         <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="5">
+      <c r="A352" s="4">
         <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="5">
+      <c r="A353" s="4">
         <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="5">
+      <c r="A354" s="4">
         <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="5">
+      <c r="A355" s="4">
         <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="5">
+      <c r="A356" s="4">
         <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="5">
+      <c r="A357" s="4">
         <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="5">
+      <c r="A358" s="4">
         <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="5">
+      <c r="A359" s="4">
         <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="5">
+      <c r="A360" s="4">
         <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="5">
+      <c r="A361" s="4">
         <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="5">
+      <c r="A362" s="4">
         <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="5">
+      <c r="A363" s="4">
         <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="5">
+      <c r="A364" s="4">
         <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="5">
+      <c r="A365" s="4">
         <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="5">
+      <c r="A366" s="4">
         <v>365</v>
       </c>
     </row>

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="467">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1436,6 +1436,461 @@
   </si>
   <si>
     <t>He tends to blow hot and cold. 他可能拿不定主意.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm flattered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过奖了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm flattered, but I can't. It's very sweet of you though</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a habit of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有……的习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He had a habit of eating fingers while reading.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in a word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In a word, we must leave right now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for ages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have been knocking away for ages, but nobody has answered the door.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if possible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果可能的话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to avoid the rush hour traffic if possible.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">now and then </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I try to buy myself something now and then.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go back on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违背，背叛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He never goes back on his word.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only too</t>
+  </si>
+  <si>
+    <t>结果却</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He got to the station, only to find the bus had gone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was only too pleased to help.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give way to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让步，被……代替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Never give way to fears.永远必要屈服于恐惧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose one's balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep one's balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm trying not to lose balance between work and the rest of my life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把……变成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't change iron into gold.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have faith in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对……有信心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have faith in his ability to success.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I bag your pardon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对不起/请再说一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I beg your pardon, I didn't hear what you said.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by all means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by any means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论如何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by no means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By all means, I must visit my sick friend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a piece of cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小菜一碟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Never say die, it's a piece of cake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是认真的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I mean it/ I am serious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't want to see you again in my life and I mean it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I goffed up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄糟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't goof up. This project is too important.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm not myself today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我今天心神不宁，不在状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry , I'm not myself today. My son just had a severe fever.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take credit for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因……获得好评，赞赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't take credit for this, we both know that this wasn't me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't give me that.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要说话那种话，别瞎扯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't give me that. I know all the details.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>far from it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还早着呢，远非如此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Far from it, there are still a lot of work to be done here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where is I?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我刚讲到哪里了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's back up, where was I?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are in the same boat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们处境相同，同病相怜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We both have no jobs, we are in the same boat.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to return this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to return this, this one doesn't suit me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suit yourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随你便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you want to eat? -- Suit yourself.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back and forth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来来回回，反复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He walked back and forth, I know how to do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>major in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I major in English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not to mention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更不用说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He has two big houses in this country, not to mention his villa in France.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in a dilemma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右为难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm in a dilemma about this job offer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all the time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our knowledge of universe is growing all the time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People living in that city can use their public transportation for free.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for the purpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了，目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We clubbed together for the purpose of raising funds for the door.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make fun of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't make fun to the poor boy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go in for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加，从事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She went in for a singing competition.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep… in mind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a good idea, I'll keep it in mind.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1848,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3367,243 +3822,585 @@
       <c r="A112" s="7">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>159</v>
       </c>

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="842">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2475,6 +2475,922 @@
   </si>
   <si>
     <t>Listen to me, don't talk back.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you free tonight?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你今晚有空吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you free tonight? Liet's go to the cinema.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醒醒吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to fly. Get real.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't bitch about it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要抱怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I got a hangover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喝多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't play dumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别装傻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he has a big mouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他是个大嘴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's out of the question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是不可能的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's out of the question to leave the country without a passport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what took you so long?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么花费这么长时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm on your side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我支持你/站在你这边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have been there too</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也经历过/去过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go for it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力争取/加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>just bring yourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你人来就好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no wonder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难怪，怪不得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's better that I thought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比我想象的要好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep the change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用找了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll make it up to you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我会补偿你的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a mess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这屋子太乱了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a flat tire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我车胎爆了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's bullshit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这完全是胡说八道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please keep this seat for me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请帮我占个座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can handle it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我能应付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count me in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算我一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm in trouble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有麻烦了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm ok with it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have to work overtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm just doing my job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我只是做了我该做的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can say that again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你说的没错/我完全同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you don't say</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是吗?真的吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't beat around the bush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要拐弯抹角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you made my day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你让我度过了愉快的一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm not in the mood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我心情不好/我没心情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I caught a cold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我感冒了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I know what it's like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I had a blind date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有个相亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How could you do this to me?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么可以这样对我？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He's a jerk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他是个混蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't give me that look</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要给我脸色看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm out of luck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我运气不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can I have a to-go-box please?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请给我一个打包盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You look prettier in person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你本人更漂亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll show you around the city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我带你参过这个城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is this seat taken?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个座位有人坐吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I dumped him</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我甩了他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It depends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看情况而定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to take tomorrow off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想明天休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I locked myself out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我把自己锁在外面了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is WI-FI available?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What were you thinking?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你到底在想什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We don't accept credit cards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们不接受信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let me put it this way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样说吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will not let you down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不会让你失望的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">be nice </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友善点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>why the long face?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么闷闷不乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you deserve it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你值得拥有/你活该</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweet-take</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花言巧语/说好话/奉承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you bet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she passed out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她晕倒了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go on a diet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an early bird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个早起的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose one's appetite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去食欲/失去胃口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I lost my appetite after watching that gross movie.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold your horses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别着急，耐心点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold your horses, we'll leave soon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beats me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问住我了/我不知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beats me. Let's check the newspaper.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sick leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He asket for a three-day sick leave.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stay out of my business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别管我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please stay out of my business and I'll stay out of yours.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can I try it on?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我可以试穿吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split it out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大声说出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I tried to make him split it out, but he just won't tell me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look for a needle in a haystack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大海捞针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To find her in such a big city is like looking for a needle in a haystack.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you double check it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你再次确认了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂断电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang on/hold on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别挂电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She was angry at her boyfriend and hung up the phone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahead of time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I did my homework ahead of time, so I can play tonight.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I should have known</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我早该知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I should have known she's a bad girl.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kick back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息，放松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I really need to kick back during the holiday season.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break the ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打破僵局；打破沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What we have to do now is to break the ice.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold feet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I get cold feet whenever I have to speak in front of a crowd.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit the ceiling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勃然大怒；暴跳如雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If I'm late again, he'll hit the ceiling.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane has nothing in common with Ben. She hates everything he likes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have sth in common with sb/have nothing in common with sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和某人有共同点/和某人没有共同点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiped out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精疲力尽的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I played basketball for three hours. I fell so wiped out.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't have a cow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别大惊小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't have a cow, I'll pay for the damages.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HongKong is a good place for a shopaholic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She is a shopaholic/workaholic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她是一个购物狂/工作狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do I address you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我该怎么称呼您？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice to meet you. My name is Jack. How do I address you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get out of bed on the wrong side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't take with him. He must have got out of bed on the wrong side and is in a very irritable mood.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who's speaking?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪位？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who's speaking, please?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like a pizza for here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想要一个披萨，在这里吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two pizzas to go. 两个披萨，带走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let me take cake of the check today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天我来买单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要理发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I need a haircut/I want to have my hair cut.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to reserve a table for six.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想预定一张6人的餐桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's today's special？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天的特色菜是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I couldn't get through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我打不通电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The fish tastes a bit off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼尝起来有点变质了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry to trouble you, but I don't think the fish is fresh. It actually tastes a bit off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm very sorry for the delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于延迟我感到非常抱歉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My alarm hasn't gone off yet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的闹钟还没响呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are you talking about? My alarm hasn't gone off yet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't like doing dishes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不喜欢洗碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I feel very depressed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我非常沮丧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behave yourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老实一点，规矩点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's awful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实在太糟糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's not very clean and it's always noisy. It's awful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are you up to this weekend?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这周末打算做什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm so pissed off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我很生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People who can't keep a promise piss me off. 言而无信的人让我很生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't agree with you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不赞同你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't agree with you. Your grades suggest you don't. In fact, they say you need more work.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2887,8 +3803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5636,513 +6552,1200 @@
       <c r="A202" s="7">
         <v>201</v>
       </c>
+      <c r="B202" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="203" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
         <v>202</v>
       </c>
+      <c r="B203" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="204" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
         <v>203</v>
       </c>
+      <c r="B204" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="205" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7">
         <v>204</v>
       </c>
+      <c r="B205" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="206" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7">
         <v>205</v>
       </c>
+      <c r="B206" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="207" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
         <v>206</v>
       </c>
+      <c r="B207" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="208" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B209" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B210" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B211" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B212" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B213" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B218" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B219" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B221" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B226" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B227" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B228" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B229" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B230" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="7">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B236" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B237" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B241" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B246" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="7">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B253" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B255" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B256" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="7">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B259" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="7">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B260" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B261" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="7">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B262" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="7">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B264" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B265" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B266" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="7">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B268" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B269" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B270" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B271" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B272" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B273" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B274" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B275" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="7">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B276" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B277" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B278" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="7">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B280" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B281" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B282" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B283" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B284" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B285" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B286" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B287" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B288" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B289" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="7">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B290" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B291" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B292" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B293" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B294" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B295" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B296" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B297" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B299" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B300" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B301" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
         <v>303</v>
       </c>

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="974">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3391,6 +3391,534 @@
   </si>
   <si>
     <t>I can't agree with you. Your grades suggest you don't. In fact, they say you need more work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He's like a broken record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他好啰嗦/他好烦人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't be so fussy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别这么挑剔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He's head over heels in love with you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他彻底爱上你了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long time no see</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好久不见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the weather like?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气怎么样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd prefer to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我更宁愿做……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actually, I;m not in the mood to go out of the town. I'd perfer to go the library.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like the double cheessburger meal please</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要一份双层芝士汉堡，谢谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rome wasn't built in a day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马不是一天建成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I've been putting on weight these days.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我最近长胖了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We maed it here at last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you have any good suggestions on how to keep fit? I feel like I've been putting on weight these days. -- No, That weight looks good on you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们总算到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We maed it here at last.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I got caught cheating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我考试作弊被抓了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm seill coughting a lot at night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我晚上还是喝嗽的厉害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But I'm still coughting a lot at night.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It scared me half to death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把我吓得半死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actually, I just saw a horror movie last night, and it scared me half to death. 我昨晚看了恐怖片，把我吓得半死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you get along well with her?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和她相处得好吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a bit stuffy in here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里有点闷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the damage?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少钱？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It fits me perfectly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个正好适合我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's wonderful, and it fits me perfectly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll prescribe some medicine for you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我给你开点药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to open an account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想开账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can I help you? Yes, I'd like to open an account.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is this position still open?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个职位现在还空着吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a good eye for decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我对室内布置很有眼光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you need help setting up or anything? I don't mind. I like to do that kind of thing. It's fun and I have a good eye for decoration. 你需要帮忙布置或者别的事吗？我不介意的。我很乐意做那些事。做室内布置很有趣，而且我对此很有眼光。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't take any chances</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别心存侥幸了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't take any chances. It would be best if you told him and promised not to be late again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's settled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就这么定了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you for your hospitality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢你的殷勤款待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll pick you up at about 6:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在6:30左右接你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can reach me at 555-8929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拨打555-8929就可以找到我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good for you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你真行，干得好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wow, good for you. It sounds like it was a lot of work. I'm pround of you. Is this the right building?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't let me hold you up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别让我耽误你了.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I had the same feeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有相同的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I had the same feeling when I first came to work here. But after a period of time, I felt better. I'm sure you'll get uesd to the busy job.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is it convenient if I visit you this weekend?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这周末拜访你，方便吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't buy your story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我才不信你的鬼话呢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think they were very tasty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我觉得它们味道很不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my son has been vomiting all afternoon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我儿子下午一直在呕吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are we almost finished packing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行李整理的差不多了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the exchange rate today?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天汇率是多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My stomach is very unset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的胃很不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could you take a picture of me with the Statue of Liberty in the background?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能帮我拍张背景是自由女神像的照片吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sometimes I get a few pimples too</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时候我还会长痘痘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like a refund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you need a doggie bag?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你需要打包袋吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How much money can I save?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我能省多少钱？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go easy on the onions on the burger please.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉堡上请少放点洋葱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was a hit-and-run!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是肇事逃逸事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to visit some of the tourist attractions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想去参观一些旅游景点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How are you getting along?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近过得怎么样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The line was busy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话总占线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How are you doing today?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天过得好吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to give it a try!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我试试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No need to worry!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要担心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a complaint!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要投诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm not really a fan of fish!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不爱吃鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm not really a fan of fish. In fact, I don't really care for it at all.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think you've overcharged me ten yuan!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想你多收了我10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please take your time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请慢慢看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm glad you enjoy it!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我很高兴你能够喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Might I Interest you in anything else?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还想要其他东西吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They're on sale today!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天特价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And another thing!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一件事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you come down a little bit?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便宜点可以吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you intend to fix this little problem?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们打算怎么处理这个问题？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We can may be fit you in at 3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们或许会把您安排在3点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3803,8 +4331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="C361" sqref="C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7739,323 +8267,719 @@
       <c r="A302" s="7">
         <v>301</v>
       </c>
+      <c r="B302" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="303" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
         <v>302</v>
       </c>
+      <c r="B303" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="304" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B304" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B305" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="7">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B306" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B307" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B308" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="7">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B309" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="7">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B310" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B311" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="7">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B312" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="7">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B313" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="7">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B314" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="7">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B315" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="7">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B316" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="7">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B317" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="7">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B318" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B319" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="7">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B320" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B321" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="7">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B322" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B323" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="7">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B324" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="7">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B325" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="7">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B326" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="7">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B327" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="7">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B328" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="7">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B329" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="7">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B330" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="7">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B331" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="7">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B332" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="7">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B333" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="7">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B334" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="7">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B335" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="7">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B336" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="7">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B337" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="7">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B338" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="7">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B339" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="7">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B340" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="7">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B341" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="7">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B342" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="7">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B343" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="7">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B344" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="7">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B345" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="7">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B346" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="7">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B347" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="7">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B348" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="7">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B349" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="7">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B350" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="7">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B351" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="7">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B352" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="7">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B353" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="7">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B354" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="7">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B355" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="7">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B356" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="7">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B357" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="7">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B358" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="7">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B359" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="7">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B360" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="7">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B361" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="7">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="7">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="7">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="7">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="7">
         <v>365</v>
       </c>

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1017">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3919,6 +3919,178 @@
   </si>
   <si>
     <t>我们或许会把您安排在3点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>practice makes perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟能生巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am a little on the conservative side!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我比较保守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds kind of lame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听起来有点无聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is there a way that?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……有办法吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By the way, is there a way that I can be sure that my package will be received?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could you make out an invoice for me?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您能给我开张发票吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I see your ticket and passport, please?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silly me!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我真笨啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There's a bad connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's been a while!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经有一段时间了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have had such a good day. It is also very nice to see you again. It's been a while.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to grab a bite to eat after work?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你下班后想吃点什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You shouldn't things like that get in the way of your friendship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不应该让这样的事妨碍你们的友谊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a fever and runny nose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我发烧了，还流鼻涕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you do a perm in less that two hours?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你能在两小时内帮我烫完头吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to pay for these</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要为这些东西结账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you off work now?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你现在下班了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you have a recommendation?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有什么推荐的吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll take it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就买它了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are you up to on Thursday?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你周四要忙什么?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maybe I'm just not ready for a serious relationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也许我还没有准备好开始一段感情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you free on Saturday?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你星期六有空吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is the latest fashion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是最新的款式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4329,10 +4501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E366"/>
+  <dimension ref="A1:E732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="C361" sqref="C361"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8860,7 +9032,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="7">
         <v>352</v>
       </c>
@@ -8871,7 +9043,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="7">
         <v>353</v>
       </c>
@@ -8882,7 +9054,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="7">
         <v>354</v>
       </c>
@@ -8893,7 +9065,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="7">
         <v>355</v>
       </c>
@@ -8904,7 +9076,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="7">
         <v>356</v>
       </c>
@@ -8915,7 +9087,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="7">
         <v>357</v>
       </c>
@@ -8926,7 +9098,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="7">
         <v>358</v>
       </c>
@@ -8937,7 +9109,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="7">
         <v>359</v>
       </c>
@@ -8948,7 +9120,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="7">
         <v>360</v>
       </c>
@@ -8959,29 +9131,1988 @@
         <v>973</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="7">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B362" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="7">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B363" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="7">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B364" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="7">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B365" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="7">
         <v>365</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="7">
+        <v>366</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="7">
+        <v>367</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="7">
+        <v>368</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="7">
+        <v>369</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="7">
+        <v>370</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="7">
+        <v>371</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="7">
+        <v>372</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="7">
+        <v>373</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="7">
+        <v>374</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="7">
+        <v>375</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="7">
+        <v>376</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="7">
+        <v>377</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="7">
+        <v>378</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="7">
+        <v>379</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="7">
+        <v>380</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="7">
+        <v>381</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="7">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="7">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="7">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="7">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="7">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="7">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="7">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="7">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="7">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="7">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="7">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="7">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="7">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="7">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="7">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="7">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="7">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="7">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="7">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="7">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="7">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="7">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="7">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="7">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="7">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="7">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="7">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="7">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="7">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="7">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="7">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="7">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="7">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="7">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="7">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="7">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="7">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="7">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="7">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="7">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="7">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="7">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="7">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="7">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="7">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="7">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="7">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="7">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="7">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="7">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="7">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="7">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="7">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="7">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="7">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="7">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="7">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="7">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="7">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="7">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="7">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="7">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="7">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="7">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="7">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="7">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="7">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="7">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="7">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="7">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="7">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="7">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="7">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="7">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="7">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="7">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="7">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="7">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="7">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="7">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="7">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="7">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="7">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="7">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="7">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="7">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="7">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="7">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="7">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="7">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="7">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="7">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="7">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="7">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="7">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="7">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="7">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="7">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="7">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="7">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="7">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="7">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="7">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="7">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="7">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="7">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="7">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="7">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="7">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="7">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="7">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="7">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="7">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="7">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="7">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="7">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="7">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="7">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="7">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="7">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="7">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="7">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="7">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="7">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="7">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="7">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="7">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="7">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="7">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="7">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="7">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="7">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="7">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="7">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="7">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="7">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="7">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="7">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="7">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="7">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="7">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="7">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="7">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="7">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="7">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="7">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="7">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="7">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="7">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="7">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="7">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="7">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="7">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="7">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="7">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="7">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="7">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="7">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="7">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="7">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="7">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="7">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="7">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="7">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="7">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="7">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="7">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="7">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="7">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="7">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A580" s="7">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="7">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="7">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="7">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="7">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="7">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="7">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="7">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="7">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="7">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="7">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="7">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="7">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="7">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="7">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="7">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="7">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="7">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="7">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="7">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="7">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="7">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="7">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="7">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="7">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="7">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="7">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="7">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="7">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="7">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A611" s="7">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A612" s="7">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="7">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A614" s="7">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A615" s="7">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A616" s="7">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A617" s="7">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A618" s="7">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A619" s="7">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A620" s="7">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A621" s="7">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A622" s="7">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A623" s="7">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A624" s="7">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A625" s="7">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A626" s="7">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A627" s="7">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A628" s="7">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A629" s="7">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A630" s="7">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A631" s="7">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A632" s="7">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="7">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A634" s="7">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A635" s="7">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A636" s="7">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A637" s="7">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A638" s="7">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="7">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="7">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A641" s="7">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A642" s="7">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A643" s="7">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A644" s="7">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A645" s="7">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A646" s="7">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A647" s="7">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A648" s="7">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A649" s="7">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A650" s="7">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A651" s="7">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A652" s="7">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A653" s="7">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A654" s="7">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="7">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="7">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="7">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A658" s="7">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A659" s="7">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A660" s="7">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A661" s="7">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="7">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A663" s="7">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A664" s="7">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A665" s="7">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A666" s="7">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A667" s="7">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A668" s="7">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A669" s="7">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A670" s="7">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A671" s="7">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A672" s="7">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A673" s="7">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A674" s="7">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A675" s="7">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A676" s="7">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A677" s="7">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A678" s="7">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A679" s="7">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A680" s="7">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A681" s="7">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A682" s="7">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A683" s="7">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A684" s="7">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A685" s="7">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A686" s="7">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A687" s="7">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A688" s="7">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A689" s="7">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A690" s="7">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A691" s="7">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A692" s="7">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A693" s="7">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A694" s="7">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A695" s="7">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A696" s="7">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A697" s="7">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A698" s="7">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A699" s="7">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A700" s="7">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A701" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A702" s="7">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A703" s="7">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A704" s="7">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A705" s="7">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A706" s="7">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A707" s="7">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A708" s="7">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A709" s="7">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A710" s="7">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A711" s="7">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A712" s="7">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A713" s="7">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A714" s="7">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A715" s="7">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A716" s="7">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A717" s="7">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A718" s="7">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A719" s="7">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A720" s="7">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A721" s="7">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A722" s="7">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A723" s="7">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A724" s="7">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A725" s="7">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A726" s="7">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A727" s="7">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A728" s="7">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A729" s="7">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A730" s="7">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A731" s="7">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A732" s="7">
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\CodeRepository\TheRoadToTheFuture\英语\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\CodeRepositories\TheRoadToTheFuture\英语\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE74A651-0999-49BB-B5C0-AD2DA85C523D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Emily" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="1154">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4091,13 +4092,559 @@
   </si>
   <si>
     <t>这是最新的款式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the problem with it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它有什么问题吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I incline to be a vegetarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我倾向于做一个素食主义者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I an sympathetic over your situation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我很同情你的处境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He has been tired up all these days.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他这几天都很忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have to take off some weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我必须减肥了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How long have you been having the pains?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你这样痛多久了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What a bad connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新号真差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am sorry that the number is engaged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很抱歉，电话占线中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I wish I could play the piano.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我真希望我会弹钢琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you have anything to declare?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有什么需要申报的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll give you a blood test.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我来帮你验血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why don’t you come along?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么不一起去？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is it possible for me to get a beer?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以给我一瓶啤酒吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I have his full name?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Does that work?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你能告诉我他的全名吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有用吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could I leave a message?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我可以留言吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generally speaking!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般来说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you have a vacant seat?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们还有空位吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you like to try our daily special?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你想试试我们的每日特餐吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am awfully sorry.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我真的很抱歉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to take a day off if it's all right with you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你没有问题的话,我想请一天假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What time is convenient for you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你什么时候方便呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am thinking of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我正在考虑做……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am thinking of buying a moisturizer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are accepted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被录取了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How would you like to pay?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你想怎么支付？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the difference between them?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I bother you a moment?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我能打扰你一会儿吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两者有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count me in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也要去，算我一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you please briefly introduce yourself?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以简单介绍一下自己吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm calling for the apartment you want to rent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我打电话拉是想了解一下你要出租的公寓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is it strong?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这酒很烈吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't you think exercising in the gym is boring?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不觉得在健身房运动很无聊吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can we just postpone the meeting for a few days?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们把会议延后几天吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'd better think it over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最好再考虑一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What can we do to kill the time?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们要做点什么打发时间呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think of this dress?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你觉得这条裙子如何？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why not?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm afraid that I'll just idle away my weekend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怕这个周末要无所事事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a poor memory.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我记性很差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you tell me where the nearest post office is?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你能告诉我最近的邮局在哪里？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I need to make a list of the things we need.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you like it, you can try it on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How long is the warranty?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修多长时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a spasm of nausea and dizziness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我突然感觉想呕吐和眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I often skip his classes</t>
+  </si>
+  <si>
+    <t>但是我经常逃他的课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's fix it at seven o'clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们定在7点钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My car has broken down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的车坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have a very good taste.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的品味真不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's really a good bargain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真划算啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I get a promotion today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我今天升职了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settled then.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here is my resignation!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是我的辞呈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to think of it for some time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想要点时间考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are having an off-season promotion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们正在进行淡季促销活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How long does it take to get there?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到那里要花费多长时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What symptoms does he have?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她有什么症状?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have ample time to wait for him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有足够的时间等他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When will you have it done?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你什么时候完成？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you please pick one for me?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以帮我挑选一个吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shall we go there on foot?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You need to be hospitalized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你需要住院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I guess you should know that you need to be hospitalized.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is she out of danger now?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她现在脱离危险了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will deposit my bag right now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我马上去存包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I owe you one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owe sb one/a favour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠……一个人情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我欠你一个人情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm going to London for business next week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我下周要去伦敦出差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you asking me for a date?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你想和我约会吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My mother is always very strict with me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我妈妈对我很严格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be strict with</t>
+  </si>
+  <si>
+    <t>a strict teacher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4147,7 +4694,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4163,6 +4710,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4190,7 +4743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4219,6 +4772,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4500,11 +5056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="C382" sqref="C382"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9369,408 +9925,819 @@
       <c r="A383" s="7">
         <v>382</v>
       </c>
+      <c r="B383" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="384" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="7">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B384" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="7">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B385" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="7">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B386" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="7">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B387" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="7">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B388" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="7">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B389" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="7">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B390" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="7">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B391" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="7">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B392" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="7">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B393" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="7">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B394" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="7">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B395" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="7">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="7">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="7">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="7">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B399" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="7">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B400" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B401" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="7">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B402" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="7">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B403" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="7">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B404" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="7">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B405" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="7">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B406" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="7">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B407" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="7">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B408" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="7">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B409" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="7">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B410" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="7">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B411" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="7">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B412" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="7">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B413" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="7">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B414" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="7">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B415" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="7">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B416" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="7">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B417" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="7">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B418" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="7">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B419" s="8" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="7">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B420" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="7">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B421" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="7">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B422" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="7">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B423" s="8" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="7">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B424" s="8" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="7">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B425" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="7">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B426" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="7">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B427" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="7">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B428" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="7">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B429" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="7">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B430" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="7">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B431" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="7">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B432" s="8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="7">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B433" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D433" s="5" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="7">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B434" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="7">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B435" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="7">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B436" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="7">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B437" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="7">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B438" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="7">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B439" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="7">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B440" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="7">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B441" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="7">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B442" s="8" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="7">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B443" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D443" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="7">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B444" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="7">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B445" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="7">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B446" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="7">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B447" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="7">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B448" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="7">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B449" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="7">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B450" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D450" s="8" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B451" s="8" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="7">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="7">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="7">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="7">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="7">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="7">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="7">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="7">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="7">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="7">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="7">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="7">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="7">
         <v>463</v>
       </c>
@@ -11123,7 +12090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\CodeRepositories\TheRoadToTheFuture\英语\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE74A651-0999-49BB-B5C0-AD2DA85C523D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F172530D-2BAC-4DE7-8250-53E3500EBBE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1272">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4638,6 +4638,478 @@
   </si>
   <si>
     <t>a strict teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you have delivery service?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们有送货服务吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You must take care of your recepit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你一定要保管好收据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He really turns me off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他太令人讨厌了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am going to apply for some vocational schools.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想申请一些职业学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm afraid I'll be tied up at 3 o'clock this afternoon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怕今天下午3点我很忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The watch's battery is worn down.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手表电池没电了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like this shirt to be dry-cleaned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想把这件衬衫干洗一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm sure it will work if you can persist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我相信如果坚持的话一定会有效的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That gives me no other option but to travel by motorcycle.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那让我别无选择，只能骑摩托车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you have any carry-on luggage?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您没有随身行李吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When will you give me a raise?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你什么时候给我加薪？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The deadlines are near.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止期限要到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now the deadlines are near but I have finished neither of them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the weather forecast for tomorrow?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天天气预报怎么样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I get a lump in my throat.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我很难过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I get a lump in my throat whenever I see a tragic movie. 我一看悲剧电影就很难过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name it!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直说吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd happy to help you. Name it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could you cover for me on Tuesday?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二你能帮我带班吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playing against</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are playing against HaiYan. 我们要和海燕队对阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get over the jet lag!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒时差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First, you should have enough sleep to get over the jet lag before the departure. Most people will suffer from jet lag for a few day after a long flight.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I apologize to you for what I have done.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我为我的所作所为道歉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's been a pleasure working with you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和你工作我非常愉快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is competent for the position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他做这个工作没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's nice of you to see me off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢你一路给我送行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you arrange this summer vocation?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么安排这个假期休假呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a pity that I'm too busy to see you off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很遗憾明天太忙无法给你送行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I find that David is a TV buff.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我发现大卫是个电视迷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can I have your contacts?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以留下你联系方式吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you still mad at her?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你现在还在生她的气吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please take a shortcut.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请抄近路吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It seems like that this is a good way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个看来是个好方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you have any hobbies?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有什么爱好？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are promising!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是大有前途的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When can I be discharged?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我什么时候能出院？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excuse me, Miss, what does the doctor say about me? When can I be discharged?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop beating around the bush.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别拐弯抹角了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop beating around the bush. Will you quit or not?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have you got better now?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好点了吗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My manager jumped on me for my mistake today.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我做错了事，我经理今天大骂我一顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failure is the mother of success.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败是成功之母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failure is the mother of success. Don't lose heart. I'm sure you'll succeed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How could I lose weight?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我怎样才能减肥？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That will be beneficial to cultivate your sense of language.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这有助于培养你的语感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I suggest you read English texts aloud every day, and try to speak more. That will be beneficial to cultivate your sense of language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'd better sit down for this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要有心理准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, you'd better sit down for this. It has been terminal lung cancer. 你要有心理准备，她已经肺癌晚期了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you keep fit?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是怎么保持的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steven, you are always looking in good shape. How do you keep fit? 史蒂芬， 你看上去总是那么健康，你是怎么保持的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's exactly what I want.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这正是我想要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great! That's exactly what I want. I'll take it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll have them done by all means.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我一定会把事情办好的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I haven't done laundry for a long time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我很久没有洗衣服了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actually, most of them are dirty. I haven't done laundry for a long time. I usually wait until I can do it at my parent's house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please don't stand on ceremony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请大家不要拘束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do I look?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我看上去怎么样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I am on my way out to a New Year's banquet. How do I look? Is my make-up ok? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you care for...？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你想要……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you care for some candies or cookies? 你想要糖或者曲奇饼吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you have a minute?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有时间吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will have to get my manager's approval.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我需要获得经历的批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I see. Well, for this amount I will have to get my manager's approval. 我明白了。这个数额需要得到经理的许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are flattering me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你过奖了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm due to check out tomorrow.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我应该明天退房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm due to check out tomorrow, but I'd like to extend my stay by two days.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5059,8 +5531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="D502" sqref="D502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10681,303 +11153,660 @@
       <c r="A452" s="7">
         <v>451</v>
       </c>
+      <c r="B452" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>1155</v>
+      </c>
     </row>
     <row r="453" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="7">
         <v>452</v>
       </c>
+      <c r="B453" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="454" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="7">
         <v>453</v>
       </c>
+      <c r="B454" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>1159</v>
+      </c>
     </row>
     <row r="455" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="7">
         <v>454</v>
       </c>
+      <c r="B455" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="456" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="7">
         <v>455</v>
       </c>
+      <c r="B456" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="457" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="7">
         <v>456</v>
       </c>
+      <c r="B457" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>1165</v>
+      </c>
     </row>
     <row r="458" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="7">
         <v>457</v>
       </c>
+      <c r="B458" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>1167</v>
+      </c>
     </row>
     <row r="459" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="7">
         <v>458</v>
       </c>
+      <c r="B459" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>1169</v>
+      </c>
     </row>
     <row r="460" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="7">
         <v>459</v>
       </c>
+      <c r="B460" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>1171</v>
+      </c>
     </row>
     <row r="461" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="7">
         <v>460</v>
       </c>
+      <c r="B461" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>1173</v>
+      </c>
     </row>
     <row r="462" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="7">
         <v>461</v>
       </c>
+      <c r="B462" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>1175</v>
+      </c>
     </row>
     <row r="463" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="7">
         <v>462</v>
       </c>
+      <c r="B463" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D463" s="5" t="s">
+        <v>1178</v>
+      </c>
     </row>
     <row r="464" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="7">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B464" s="8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="7">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B465" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D465" s="5" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="7">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B466" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D466" s="5" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="7">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B467" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="7">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B468" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D468" s="5" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="7">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B469" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D469" s="5" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="7">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B470" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="7">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B471" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="7">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B472" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="7">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B473" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="7">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B474" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="7">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B475" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="7">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B476" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="7">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B477" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="7">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B478" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="7">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B479" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="7">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B480" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="7">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B481" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="7">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B482" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="7">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B483" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D483" s="5" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="7">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B484" s="8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D484" s="5" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="7">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B485" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="7">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B486" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="7">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B487" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D487" s="5" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="7">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B488" s="8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="7">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B489" s="8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="7">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B490" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D490" s="5" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="7">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B491" s="8" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D491" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E491" s="5" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="7">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B492" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="7">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B493" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="7">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B494" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D494" s="5" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="7">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B495" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="7">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B496" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D496" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="7">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B497" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="7">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B498" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="7">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B499" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="7">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B500" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B501" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D501" s="5" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="7">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="7">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="7">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="7">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="7">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="7">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="7">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="7">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="7">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="7">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="7">
         <v>511</v>
       </c>

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\CodeRepositories\TheRoadToTheFuture\英语\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\CodeRepository\TheRoadToTheFuture\英语\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F172530D-2BAC-4DE7-8250-53E3500EBBE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Emily" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1430">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5110,13 +5109,645 @@
   </si>
   <si>
     <t>I'm due to check out tomorrow, but I'd like to extend my stay by two days.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm having a great time in Shanghai.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我之前因为我妈妈放弃了很多机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I turned down quite  few offers before for her sake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I durned down quite a few offers before for her sake. But I'm a senior now. I don't want to miss the chance this time. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who is going to…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁来做……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who is going to look after the dog?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was raining cats and dogs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下着倾盆大雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nothing is impossible to a willing heart!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有志者事竟成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Originally, I'm from Argentina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在阿根廷出生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To make it worse!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更糟糕的是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Definitely. To make it worse, the bus I took broke down halfway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't miss the opportunity!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要错过这个机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't be so shy. Maybe she likes you. Don't miss the opportunity.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are not my type!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不是我喜欢的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you bet!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你说对了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm really angry with him!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我对他很生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See you around!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回头见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You always dress simply but in good taste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你穿着总是很简单，但是很有品位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It looks good on you. You always dress simply but in good taste.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What made her so special?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她有什么特殊之处？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There's still the possibility.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是还是有可能的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么样……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You should say"How do you spell?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm freezing to death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我快冻死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why this sudden change?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么会突然改变了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That was only one month ago. Why this sudden change?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speaking of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speaking of not having enough time, I really need to go home and take a shower.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I find it very difficult to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我感到很难……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I find it very difficult to do any work. I have no appetite. My wife cooks me delicious meals but I can only eat a little.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm going to a tour to the Golden Gate Bridge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我打算跟一个旅游团去金门大桥。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I would like to apply for a visa to America</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想申请一张去美国的签证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I need to book a flight ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我需要订一张机票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you prefer an aisle or window seat?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢靠过道的作为还是靠窗户的座位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will not have enough time to catch my connecting flight!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要赶不上我转乘的航班了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm afraid I will not have enough time to catch my connecting flight!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I wasn't aware of that policy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不知道那项规定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is this room service?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请问是客房服务吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am very unhappy with your service.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我对你们的服务很不满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think I can make an exception this time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想这次可以破例一回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you kindly make an exception this time? 这次能否通融一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think I will have a shot of espresso.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想还是一杯浓咖啡吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Such huge Portions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分量好大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you like to purchase our special combo?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您要购买我们的超值套餐吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We really have different taste in movies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们对电影的品味真的非常不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you thinking of…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你想……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you thinking of getting on of everything? 你是不是想每份都来一样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll take care of my attendance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我以后会注意出勤的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't think so. I'll take care of my attendance, I promise.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We would like to offer you a promotion to assistant manager.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们想提拔你为经理助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could you weight it for me?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你能帮我称一下吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonight is my treat!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚我请客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you have free wifi here?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们这里有免费的无线网吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take the edge of.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">They only take the edge off for an hour or two. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使减弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I studied my butt of.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我拼命学习.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I studied my butt off and got through it. 我拼命学习，终于几个了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We have an opening today.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们今天就有空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是感染的症状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Those are symptoms of an infection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It sounds like maybe you don't have the flu after all. Those are symptoms of an infction. 这样看起来也许你得的不是流感，这是感染的症状。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is that fine with you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你能接受吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I totally forgot about that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我都完全忘了这回事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have had it on and off for the past three years.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样断断续续有三年了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to have a few friends over for a dinner party.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想请几个朋友来家里参加晚宴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I ant to have a few friends over for a dinner party to celebrate my birthday.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I got hit by a car in an accident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在车祸中被车撞了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stay away from alcohol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远离……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are there paid holidays?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有带薪假期吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was robbed!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我被抢劫了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I need a to report a theft. I was just robbed. 我需要报一宗失窃案，我刚被抢劫了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie up loose ends!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决尚待处理的细枝末节的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, alright, but you make sure to tie up any loose ends before you leave. 嗯，那好吧，但是你要确保走之前把那些细枝末节的结尾工作都做完。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When are you off?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你什么时候动身？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Much as I'd like to.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽管我很想去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Much as I'd like to, I'm afraid I won't be free next week. I have a lot of work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was promoted to the position of sales manager.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我被升为销售经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A year later, I was promoted to the position of sales manager.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I get to meet lots of interesting people.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有机会遇到很多有趣的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I like taking to writers. I get to meet lots of interesting people.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">make sure you don't lose your temper </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证别发脾气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just take them for your good friends and have a talk with them as we do. Make sure you don't lose your temper.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's quite a ways.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But it's quite a ways.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>David is out for lunch right now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫现在出去吃午饭了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She is a girl of my dreams.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她是我的梦中情人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I must buy some furniture for my new flat.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我必须给我新买的公寓买点家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, I'm off to the department store. I must buy some furniture for my new flat.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a bomb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是个烂片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under the weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情不好，身体不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soup does the body good, sweetie. It's what you need when you're under the weather.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oops!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I bashed it against the chair in my room. 我在屋里撞到椅子上弄的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5528,11 +6159,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="D502" sqref="D502"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="C567" sqref="C567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11760,373 +12391,847 @@
       <c r="A502" s="7">
         <v>501</v>
       </c>
+      <c r="B502" s="8" t="s">
+        <v>1272</v>
+      </c>
     </row>
     <row r="503" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="7">
         <v>502</v>
       </c>
+      <c r="B503" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D503" s="5" t="s">
+        <v>1275</v>
+      </c>
     </row>
     <row r="504" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="7">
         <v>503</v>
       </c>
+      <c r="B504" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D504" s="5" t="s">
+        <v>1278</v>
+      </c>
     </row>
     <row r="505" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="7">
         <v>504</v>
       </c>
+      <c r="B505" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>1280</v>
+      </c>
     </row>
     <row r="506" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="7">
         <v>505</v>
       </c>
+      <c r="B506" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="507" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="7">
         <v>506</v>
       </c>
+      <c r="B507" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="508" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="7">
         <v>507</v>
       </c>
+      <c r="B508" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D508" s="5" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="509" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="7">
         <v>508</v>
       </c>
+      <c r="B509" s="8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>1290</v>
+      </c>
     </row>
     <row r="510" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="7">
         <v>509</v>
       </c>
+      <c r="B510" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>1292</v>
+      </c>
     </row>
     <row r="511" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="7">
         <v>510</v>
       </c>
+      <c r="B511" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="512" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="7">
         <v>511</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B512" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="7">
         <v>512</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B513" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="7">
         <v>513</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B514" s="8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D514" s="5" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="7">
         <v>514</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B515" s="8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C515" s="5" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="7">
         <v>515</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B516" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="7">
         <v>516</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B517" s="8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C517" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D517" s="5" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="7">
         <v>517</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B518" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="7">
         <v>518</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B519" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C519" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D519" s="5" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="7">
         <v>519</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B520" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D520" s="5" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="7">
         <v>520</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B521" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C521" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D521" s="5" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="7">
         <v>521</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B522" s="8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="7">
         <v>522</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B523" s="8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="7">
         <v>523</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B524" s="8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="7">
         <v>524</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B525" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C525" s="5" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="7">
         <v>525</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B526" s="8" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D526" s="5" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="7">
         <v>526</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B527" s="8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C527" s="5" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="7">
         <v>527</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B528" s="8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="7">
         <v>528</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B529" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C529" s="5" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="7">
         <v>529</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B530" s="8" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C530" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D530" s="5" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="7">
         <v>530</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B531" s="8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C531" s="5" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="7">
         <v>531</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B532" s="8" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C532" s="5" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="7">
         <v>532</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B533" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C533" s="5" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="7">
         <v>533</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B534" s="8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C534" s="5" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="7">
         <v>534</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B535" s="8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C535" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D535" s="5" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="7">
         <v>535</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B536" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C536" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D536" s="5" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="7">
         <v>536</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B537" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C537" s="5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="7">
         <v>537</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B538" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C538" s="5" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="7">
         <v>538</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B539" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C539" s="5" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="7">
         <v>539</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B540" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="7">
         <v>540</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B541" s="8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D541" s="5" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="7">
         <v>541</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B542" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D542" s="5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="7">
         <v>542</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B543" s="8" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C543" s="5" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="7">
         <v>543</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B544" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C544" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D544" s="5" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="7">
         <v>544</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B545" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C545" s="5" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="7">
         <v>545</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B546" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="7">
         <v>546</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B547" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C547" s="5" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="7">
         <v>547</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B548" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C548" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D548" s="5" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="7">
         <v>548</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B549" s="8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C549" s="5" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="7">
         <v>549</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B550" s="8" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="7">
         <v>550</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B551" s="8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C551" s="5" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="7">
         <v>551</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B552" s="8" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C552" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D552" s="5" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="7">
         <v>552</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B553" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C553" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D553" s="5" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="7">
         <v>553</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B554" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C554" s="5" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="7">
         <v>554</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B555" s="8" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C555" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D555" s="5" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="7">
         <v>555</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B556" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C556" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D556" s="5" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="7">
         <v>556</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B557" s="8" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D557" s="5" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="7">
         <v>557</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B558" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D558" s="5" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="7">
         <v>558</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B559" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C559" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D559" s="5" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="7">
         <v>559</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B560" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="7">
         <v>560</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B561" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C561" s="5" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="7">
         <v>561</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B562" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D562" s="5" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="7">
         <v>562</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B563" s="8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C563" s="5" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="7">
         <v>563</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B564" s="8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D564" s="5" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="7">
         <v>564</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B565" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C565" s="5" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="7">
         <v>565</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B566" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D566" s="5" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="7">
         <v>566</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B567" s="8" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C567" s="5" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="7">
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="7">
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="7">
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="7">
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="7">
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="7">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="7">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="7">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="7">
         <v>575</v>
       </c>
@@ -12919,7 +14024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="1528">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5741,6 +5741,398 @@
   </si>
   <si>
     <t>有点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't want to be stuck in a rut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不想停滞不前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, I don't want to be stuck in a rut. I want to move on.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……带来好的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The training really pays off. 锻炼确实很有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How's your course going? Do you like it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How's… going?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……进展怎么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把车开到路边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The police pulled me over.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better late than never</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡羊补牢为时未晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you prefer?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你更喜欢哪个？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take…as collateral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把……作为担保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok, but I'm taking your stateboard as collateral.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make a difference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A good café makes a huge difference. 好的咖啡馆有很大的差别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toast!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮酒庆祝……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's toast an enjoyable meal. 让我们庆祝一下我们的美味吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip dessert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要甜点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want do skip dessert. 不要甜点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was thinking of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想起，考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was thinking of going out to the lake on Saturday. 我想周六去湖边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll need a ride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请你来接我吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll need a ride. I'll be waiting for you at my home.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情人节那天你居然爽约了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We're through. -Why? -Why? Isn't it obvious? First, you impose way too much on me, and I'm tired of it. Second, you stood me up on Valentine's Day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You stood me up on Valentine's Day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a separation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, I don't really know, but I heard that they are having a separation for two months and have filed ofr divorce.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批评指责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He criticizes me in front of everyone all the time. 他总是在大家面前批评我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectacular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壮观的，精彩的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The view is spectacular. 风景很优美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitch in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'd like to help pitch in with dinner. 我想帮忙一起做饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm expecting an important call.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在等一个很重要的电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My feelings for you don't go beyond friendship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我对你的感觉没有超过朋友的界限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you for the lovely offer, but my feelings for you don't go beyond friendship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great minds think alike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄所见略同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We should've set the alarm for 7:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们本应该把闹钟订在7:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poke one's nose into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They usually poke their noses into the affairs of other people. 他们总是对别人的事情很感兴趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rant and rave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大声叫嚷，抱怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tired of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨厌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am tired of this sort of people.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吵架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't speak so loudly. Otherwise she can hear you. Then she will fall out with you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One kind of myold friends popped up in front of me yesterday. You cannot imagine how surprise  I was at that time. 我的一个老朋友昨天突然出现在我面前，你想象不到我那个时候多吃惊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in front of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在……前面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of touch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She stood in front of a tree.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We've been out of touch for years.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play a double game.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看头，识破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两面派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We see through your tickets.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I didn't know my assistant would play a double game. 我没想到我的助理是两面派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run with the hare and hunt with the hounds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两面讨好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm not going to run with the hare and hunt with the hounds. 我不打算两面讨好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气色不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You look off color.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spread rumors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散步谣言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I heard that Tom was spreading some rumors about me. 我听说汤姆在背后说我坏话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as proud as a peacock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十分骄傲，自大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lie down under</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆来顺受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will not lie down under such treatment. 我不会甘心受这样的待遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The boy was as proud as a peacock after winning his first swimming certificate. 男孩自从获得了他的第一个游泳证书后就非常骄傲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6162,8 +6554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="C567" sqref="C567"/>
+    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
+      <selection activeCell="D601" sqref="D601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13195,203 +13587,497 @@
       <c r="A568" s="7">
         <v>567</v>
       </c>
+      <c r="B568" s="8" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C568" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D568" s="5" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="569" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="7">
         <v>568</v>
       </c>
+      <c r="B569" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D569" s="5" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="570" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="7">
         <v>569</v>
       </c>
+      <c r="B570" s="8" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D570" s="5" t="s">
+        <v>1436</v>
+      </c>
     </row>
     <row r="571" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="7">
         <v>570</v>
       </c>
+      <c r="B571" s="8" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C571" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D571" s="5" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="572" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="7">
         <v>571</v>
       </c>
+      <c r="B572" s="8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>1443</v>
+      </c>
     </row>
     <row r="573" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="7">
         <v>572</v>
       </c>
+      <c r="B573" s="8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C573" s="5" t="s">
+        <v>1445</v>
+      </c>
     </row>
     <row r="574" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="7">
         <v>573</v>
       </c>
+      <c r="B574" s="8" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C574" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D574" s="5" t="s">
+        <v>1448</v>
+      </c>
     </row>
     <row r="575" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="7">
         <v>574</v>
       </c>
+      <c r="B575" s="8" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C575" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D575" s="5" t="s">
+        <v>1451</v>
+      </c>
     </row>
     <row r="576" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="7">
         <v>575</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B576" s="8" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C576" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D576" s="5" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="7">
         <v>576</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B577" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C577" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D577" s="5" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="7">
         <v>577</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B578" s="8" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D578" s="5" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="7">
         <v>578</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B579" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D579" s="5" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="7">
         <v>579</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B580" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D580" s="5" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="7">
         <v>580</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B581" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C581" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D581" s="5" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="7">
         <v>581</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B582" s="8" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C582" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D582" s="5" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="7">
         <v>582</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B583" s="8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C583" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D583" s="5" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="7">
         <v>583</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B584" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C584" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D584" s="5" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="7">
         <v>584</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B585" s="8" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C585" s="5" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="7">
         <v>585</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B586" s="8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C586" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D586" s="5" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="7">
         <v>586</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B587" s="8" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C587" s="5" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="7">
         <v>587</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B588" s="8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C588" s="5" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="7">
         <v>588</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B589" s="8" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D589" s="5" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="7">
         <v>589</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B590" s="8" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C590" s="5" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="7">
         <v>590</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B591" s="8" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C591" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D591" s="5" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="7">
         <v>591</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B592" s="8" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D592" s="5" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="7">
         <v>592</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B593" s="8" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C593" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D593" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="7">
         <v>593</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B594" s="8" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D594" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="7">
         <v>594</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B595" s="8" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C595" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D595" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="7">
         <v>595</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B596" s="8" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C596" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D596" s="5" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="7">
         <v>596</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B597" s="8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C597" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D597" s="5" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="7">
         <v>597</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B598" s="8" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D598" s="5" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="7">
         <v>598</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B599" s="8" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C599" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D599" s="5" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="7">
         <v>599</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B600" s="8" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C600" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D600" s="5" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B601" s="8" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C601" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D601" s="5" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="7">
         <v>601</v>
       </c>
-    </row>
-    <row r="603" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B602" s="8" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C602" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D602" s="5" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="7">
         <v>602</v>
       </c>
     </row>
-    <row r="604" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="7">
         <v>603</v>
       </c>
     </row>
-    <row r="605" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="7">
         <v>604</v>
       </c>
     </row>
-    <row r="606" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="7">
         <v>605</v>
       </c>
     </row>
-    <row r="607" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="7">
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="7">
         <v>607</v>
       </c>

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1628">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6470,6 +6470,70 @@
   </si>
   <si>
     <t>I need to lay off three workers. 我要解雇3名员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put one's finger on sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说到要害，说道点子上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Something is wrong with this room, but I can't put my finger on what it is. 这间房间有点不对劲，但是我不清楚到底什么不对劲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spend time on…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花时间做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'd better spend your time on some worthwhile reading. 你最好吧时间花在一些有价值的书上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not… until</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直到……才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was not until next day that I learned the truth. 直到第二天，我才知道事情的真相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of the world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your suggestion is out of the world. 你的提议太棒了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无可比拟的，精彩绝伦的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People living in that city can use their public transportation for free.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit the nail on the head</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6892,7 +6956,7 @@
   <dimension ref="A1:E732"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="D619" sqref="D619"/>
+      <selection activeCell="C625" sqref="C625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14613,103 +14677,151 @@
       <c r="A620" s="7">
         <v>619</v>
       </c>
+      <c r="B620" s="8" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D620" s="5" t="s">
+        <v>1614</v>
+      </c>
     </row>
     <row r="621" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="7">
         <v>620</v>
       </c>
+      <c r="B621" s="8" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C621" s="5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D621" s="5" t="s">
+        <v>1617</v>
+      </c>
     </row>
     <row r="622" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="7">
         <v>621</v>
       </c>
+      <c r="B622" s="8" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C622" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D622" s="5" t="s">
+        <v>1620</v>
+      </c>
     </row>
     <row r="623" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="7">
         <v>622</v>
       </c>
+      <c r="B623" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C623" s="5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D623" s="5" t="s">
+        <v>1622</v>
+      </c>
     </row>
     <row r="624" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="7">
         <v>623</v>
       </c>
-    </row>
-    <row r="625" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B624" s="8" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C624" s="5" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D624" s="5" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="7">
         <v>624</v>
       </c>
-    </row>
-    <row r="626" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B625" s="8" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="7">
         <v>625</v>
       </c>
     </row>
-    <row r="627" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="7">
         <v>626</v>
       </c>
     </row>
-    <row r="628" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="7">
         <v>627</v>
       </c>
     </row>
-    <row r="629" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="7">
         <v>628</v>
       </c>
     </row>
-    <row r="630" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="7">
         <v>629</v>
       </c>
     </row>
-    <row r="631" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="7">
         <v>630</v>
       </c>
     </row>
-    <row r="632" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="7">
         <v>631</v>
       </c>
     </row>
-    <row r="633" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="7">
         <v>632</v>
       </c>
     </row>
-    <row r="634" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="7">
         <v>633</v>
       </c>
     </row>
-    <row r="635" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="7">
         <v>634</v>
       </c>
     </row>
-    <row r="636" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="7">
         <v>635</v>
       </c>
     </row>
-    <row r="637" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="7">
         <v>636</v>
       </c>
     </row>
-    <row r="638" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="7">
         <v>637</v>
       </c>
     </row>
-    <row r="639" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="7">
         <v>638</v>
       </c>
     </row>
-    <row r="640" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="7">
         <v>639</v>
       </c>

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1659">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6534,6 +6534,130 @@
   </si>
   <si>
     <t>hit the nail on the head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-employed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体经营的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雕像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridegroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a happy couple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一对欢乐的夫妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You'd better get up, or you'll be late.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>having bad credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用评级不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have you checked your credit report recently? Maybe you have a bad credit rating. 你最近有没有查看信用记录？或许你的信用评级不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a dispute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一场辩论；一场争吵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaining about the food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>being tidy and messy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱怨食物不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干净和邋遢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To start the ball rolling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始进行……活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you give discount?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你给折扣吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you give discount for a week or more?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you hold for a moment?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你能稍等一会吗？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6955,8 +7079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="C625" sqref="C625"/>
+    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
+      <selection activeCell="B636" sqref="B636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14743,7 +14867,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="7">
         <v>624</v>
       </c>
@@ -14751,77 +14875,140 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="626" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="7">
         <v>625</v>
       </c>
-    </row>
-    <row r="627" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B626" s="8" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="7">
         <v>626</v>
       </c>
-    </row>
-    <row r="628" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B627" s="8" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C627" s="5" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="7">
         <v>627</v>
       </c>
-    </row>
-    <row r="629" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B628" s="8" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D628" s="5" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="7">
         <v>628</v>
       </c>
-    </row>
-    <row r="630" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B629" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C629" s="5" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D629" s="5" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="7">
         <v>629</v>
       </c>
-    </row>
-    <row r="631" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B630" s="8" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="7">
         <v>630</v>
       </c>
-    </row>
-    <row r="632" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B631" s="8" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C631" s="5" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="7">
         <v>631</v>
       </c>
-    </row>
-    <row r="633" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B632" s="8" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C632" s="5" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="7">
         <v>632</v>
       </c>
-    </row>
-    <row r="634" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B633" s="8" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C633" s="5" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="7">
         <v>633</v>
       </c>
-    </row>
-    <row r="635" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B634" s="8" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C634" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D634" s="5" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="7">
         <v>634</v>
       </c>
-    </row>
-    <row r="636" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B635" s="8" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C635" s="5" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="7">
         <v>635</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="7">
         <v>636</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="7">
         <v>637</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="7">
         <v>638</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="7">
         <v>639</v>
       </c>
@@ -17267,8 +17454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E706"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17530,31 +17717,56 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1629</v>
+      </c>
     </row>
     <row r="25" spans="1:3" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1631</v>
+      </c>
     </row>
     <row r="26" spans="1:3" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1633</v>
+      </c>
     </row>
     <row r="27" spans="1:3" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="28" spans="1:3" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1637</v>
+      </c>
     </row>
     <row r="29" spans="1:3" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Emily" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1714">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6865,6 +6865,18 @@
   </si>
   <si>
     <t>我的招待/娱乐预算是多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check back in a jiffy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速检查一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pick your poison</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7289,8 +7301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
-      <selection activeCell="C659" sqref="C659"/>
+    <sheetView topLeftCell="A649" workbookViewId="0">
+      <selection activeCell="B661" sqref="B661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15850,8 +15862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16088,10 +16100,19 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
+      <c r="B22" s="8" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1731">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6877,6 +6877,74 @@
   </si>
   <si>
     <t>pick your poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm looking for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Those poor/helpless children </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… is pathetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your spelling is pathetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可悲的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What purpose does it serve?/What is it used for?/What is it function?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它的作用是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I couldn't help it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I coundn't control myself.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to look away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把目光移开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't look away from me when I'm talking to you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to push it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't push your luck.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you done yet?/Are you finish yet?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你完成了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knock on wood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6982,7 +7050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7018,6 +7086,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7302,7 +7373,7 @@
   <dimension ref="A1:E732"/>
   <sheetViews>
     <sheetView topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="B661" sqref="B661"/>
+      <selection activeCell="B662" sqref="B662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15490,6 +15561,9 @@
       <c r="A660" s="7">
         <v>659</v>
       </c>
+      <c r="B660" s="8" t="s">
+        <v>1714</v>
+      </c>
     </row>
     <row r="661" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="7">
@@ -15863,12 +15937,12 @@
   <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.875" style="8" customWidth="1"/>
     <col min="3" max="3" width="41" style="5" customWidth="1"/>
     <col min="4" max="4" width="74.75" style="5" customWidth="1"/>
@@ -15877,7 +15951,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -15892,7 +15966,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -15906,7 +15980,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -15917,7 +15991,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -15928,7 +16002,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -15936,7 +16010,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -15947,7 +16021,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -15958,7 +16032,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -15969,7 +16043,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -15980,7 +16054,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -15991,7 +16065,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -16002,7 +16076,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -16013,7 +16087,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -16021,7 +16095,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -16032,7 +16106,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -16040,23 +16114,23 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -16066,8 +16140,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -16077,16 +16151,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -16096,8 +16170,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -16107,1726 +16181,1774 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="B24" s="8" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="B25" s="8" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="B26" s="8" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="B27" s="8" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="B28" s="8" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="B29" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="B30" s="8" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="B31" s="8" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="A93" s="7">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+      <c r="A95" s="7">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="A99" s="7">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+      <c r="A101" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+      <c r="A105" s="7">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="A111" s="7">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+      <c r="A114" s="7">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+      <c r="A115" s="7">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+      <c r="A116" s="7">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+      <c r="A117" s="7">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="A118" s="7">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+      <c r="A120" s="7">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+      <c r="A121" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
+      <c r="A125" s="7">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
+      <c r="A129" s="7">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+      <c r="A137" s="7">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+      <c r="A141" s="7">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
+      <c r="A143" s="7">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+      <c r="A144" s="7">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+      <c r="A153" s="7">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+      <c r="A155" s="7">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
+      <c r="A156" s="7">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
+      <c r="A157" s="7">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
+      <c r="A158" s="7">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
+      <c r="A159" s="7">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
+      <c r="A160" s="7">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
+      <c r="A161" s="7">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
+      <c r="A162" s="7">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
+      <c r="A163" s="7">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
+      <c r="A164" s="7">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
+      <c r="A165" s="7">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
+      <c r="A166" s="7">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
+      <c r="A167" s="7">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
+      <c r="A168" s="7">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
+      <c r="A169" s="7">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
+      <c r="A170" s="7">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
+      <c r="A171" s="7">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
+      <c r="A172" s="7">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
+      <c r="A173" s="7">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
+      <c r="A174" s="7">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
+      <c r="A175" s="7">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
+      <c r="A176" s="7">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
+      <c r="A177" s="7">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
+      <c r="A178" s="7">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
+      <c r="A179" s="7">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
+      <c r="A180" s="7">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
+      <c r="A181" s="7">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
+      <c r="A182" s="7">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
+      <c r="A183" s="7">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="4">
+      <c r="A184" s="7">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="4">
+      <c r="A185" s="7">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="4">
+      <c r="A186" s="7">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="4">
+      <c r="A187" s="7">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
+      <c r="A188" s="7">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
+      <c r="A189" s="7">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
+      <c r="A190" s="7">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
+      <c r="A191" s="7">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="4">
+      <c r="A192" s="7">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="4">
+      <c r="A193" s="7">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="4">
+      <c r="A194" s="7">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="4">
+      <c r="A195" s="7">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="4">
+      <c r="A196" s="7">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="4">
+      <c r="A197" s="7">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="4">
+      <c r="A198" s="7">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
+      <c r="A199" s="7">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="4">
+      <c r="A200" s="7">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="4">
+      <c r="A201" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="4">
+      <c r="A202" s="7">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="4">
+      <c r="A203" s="7">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="4">
+      <c r="A204" s="7">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="4">
+      <c r="A205" s="7">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
+      <c r="A206" s="7">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
+      <c r="A207" s="7">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
+      <c r="A208" s="7">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
+      <c r="A209" s="7">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="4">
+      <c r="A210" s="7">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="4">
+      <c r="A211" s="7">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="4">
+      <c r="A212" s="7">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="4">
+      <c r="A213" s="7">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="4">
+      <c r="A214" s="7">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
+      <c r="A215" s="7">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="4">
+      <c r="A216" s="7">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="4">
+      <c r="A217" s="7">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="4">
+      <c r="A218" s="7">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="4">
+      <c r="A219" s="7">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
+      <c r="A220" s="7">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="4">
+      <c r="A221" s="7">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="4">
+      <c r="A222" s="7">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="4">
+      <c r="A223" s="7">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="4">
+      <c r="A224" s="7">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="4">
+      <c r="A225" s="7">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="4">
+      <c r="A226" s="7">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="4">
+      <c r="A227" s="7">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="4">
+      <c r="A228" s="7">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="4">
+      <c r="A229" s="7">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="4">
+      <c r="A230" s="7">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="4">
+      <c r="A231" s="7">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
+      <c r="A232" s="7">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="4">
+      <c r="A233" s="7">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="4">
+      <c r="A234" s="7">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="4">
+      <c r="A235" s="7">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="4">
+      <c r="A236" s="7">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="4">
+      <c r="A237" s="7">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="4">
+      <c r="A238" s="7">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
+      <c r="A239" s="7">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
+      <c r="A240" s="7">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
+      <c r="A241" s="7">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
+      <c r="A242" s="7">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
+      <c r="A243" s="7">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="4">
+      <c r="A244" s="7">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="4">
+      <c r="A245" s="7">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
+      <c r="A246" s="7">
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
+      <c r="A247" s="7">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
+      <c r="A248" s="7">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
+      <c r="A249" s="7">
         <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
+      <c r="A250" s="7">
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="4">
+      <c r="A251" s="7">
         <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="4">
+      <c r="A252" s="7">
         <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="4">
+      <c r="A253" s="7">
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="4">
+      <c r="A254" s="7">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="4">
+      <c r="A255" s="7">
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="4">
+      <c r="A256" s="7">
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="4">
+      <c r="A257" s="7">
         <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="4">
+      <c r="A258" s="7">
         <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="4">
+      <c r="A259" s="7">
         <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="4">
+      <c r="A260" s="7">
         <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="4">
+      <c r="A261" s="7">
         <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="4">
+      <c r="A262" s="7">
         <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="4">
+      <c r="A263" s="7">
         <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="4">
+      <c r="A264" s="7">
         <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="4">
+      <c r="A265" s="7">
         <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="4">
+      <c r="A266" s="7">
         <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="4">
+      <c r="A267" s="7">
         <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="4">
+      <c r="A268" s="7">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="4">
+      <c r="A269" s="7">
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="4">
+      <c r="A270" s="7">
         <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="4">
+      <c r="A271" s="7">
         <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="4">
+      <c r="A272" s="7">
         <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="4">
+      <c r="A273" s="7">
         <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="4">
+      <c r="A274" s="7">
         <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="4">
+      <c r="A275" s="7">
         <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="4">
+      <c r="A276" s="7">
         <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="4">
+      <c r="A277" s="7">
         <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="4">
+      <c r="A278" s="7">
         <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="4">
+      <c r="A279" s="7">
         <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="4">
+      <c r="A280" s="7">
         <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="4">
+      <c r="A281" s="7">
         <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="4">
+      <c r="A282" s="7">
         <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="4">
+      <c r="A283" s="7">
         <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="4">
+      <c r="A284" s="7">
         <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="4">
+      <c r="A285" s="7">
         <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="4">
+      <c r="A286" s="7">
         <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="4">
+      <c r="A287" s="7">
         <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="4">
+      <c r="A288" s="7">
         <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="4">
+      <c r="A289" s="7">
         <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="4">
+      <c r="A290" s="7">
         <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="4">
+      <c r="A291" s="7">
         <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="4">
+      <c r="A292" s="7">
         <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="4">
+      <c r="A293" s="7">
         <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="4">
+      <c r="A294" s="7">
         <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="4">
+      <c r="A295" s="7">
         <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="4">
+      <c r="A296" s="7">
         <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="4">
+      <c r="A297" s="7">
         <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="4">
+      <c r="A298" s="7">
         <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="4">
+      <c r="A299" s="7">
         <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="4">
+      <c r="A300" s="7">
         <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="4">
+      <c r="A301" s="7">
         <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="4">
+      <c r="A302" s="7">
         <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="4">
+      <c r="A303" s="7">
         <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="4">
+      <c r="A304" s="7">
         <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="4">
+      <c r="A305" s="7">
         <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="4">
+      <c r="A306" s="7">
         <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="4">
+      <c r="A307" s="7">
         <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="4">
+      <c r="A308" s="7">
         <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="4">
+      <c r="A309" s="7">
         <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="4">
+      <c r="A310" s="7">
         <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="4">
+      <c r="A311" s="7">
         <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="4">
+      <c r="A312" s="7">
         <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="4">
+      <c r="A313" s="7">
         <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="4">
+      <c r="A314" s="7">
         <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="4">
+      <c r="A315" s="7">
         <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="4">
+      <c r="A316" s="7">
         <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="4">
+      <c r="A317" s="7">
         <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="4">
+      <c r="A318" s="7">
         <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="4">
+      <c r="A319" s="7">
         <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="4">
+      <c r="A320" s="7">
         <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="4">
+      <c r="A321" s="7">
         <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="4">
+      <c r="A322" s="7">
         <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="4">
+      <c r="A323" s="7">
         <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="4">
+      <c r="A324" s="7">
         <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="4">
+      <c r="A325" s="7">
         <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="4">
+      <c r="A326" s="7">
         <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="4">
+      <c r="A327" s="7">
         <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="4">
+      <c r="A328" s="7">
         <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="4">
+      <c r="A329" s="7">
         <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="4">
+      <c r="A330" s="7">
         <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="4">
+      <c r="A331" s="7">
         <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="4">
+      <c r="A332" s="7">
         <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="4">
+      <c r="A333" s="7">
         <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="4">
+      <c r="A334" s="7">
         <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="4">
+      <c r="A335" s="7">
         <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="4">
+      <c r="A336" s="7">
         <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="4">
+      <c r="A337" s="7">
         <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="4">
+      <c r="A338" s="7">
         <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="4">
+      <c r="A339" s="7">
         <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="4">
+      <c r="A340" s="7">
         <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="4">
+      <c r="A341" s="7">
         <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="4">
+      <c r="A342" s="7">
         <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="4">
+      <c r="A343" s="7">
         <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="4">
+      <c r="A344" s="7">
         <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="4">
+      <c r="A345" s="7">
         <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="4">
+      <c r="A346" s="7">
         <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="4">
+      <c r="A347" s="7">
         <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="4">
+      <c r="A348" s="7">
         <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="4">
+      <c r="A349" s="7">
         <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="4">
+      <c r="A350" s="7">
         <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="4">
+      <c r="A351" s="7">
         <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="4">
+      <c r="A352" s="7">
         <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="4">
+      <c r="A353" s="7">
         <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="4">
+      <c r="A354" s="7">
         <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="4">
+      <c r="A355" s="7">
         <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="4">
+      <c r="A356" s="7">
         <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="4">
+      <c r="A357" s="7">
         <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="4">
+      <c r="A358" s="7">
         <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="4">
+      <c r="A359" s="7">
         <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="4">
+      <c r="A360" s="7">
         <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="4">
+      <c r="A361" s="7">
         <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="4">
+      <c r="A362" s="7">
         <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="4">
+      <c r="A363" s="7">
         <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="4">
+      <c r="A364" s="7">
         <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="4">
+      <c r="A365" s="7">
         <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="4">
+      <c r="A366" s="7">
         <v>365</v>
       </c>
     </row>

--- a/英语/英语单词短语列表.xlsx
+++ b/英语/英语单词短语列表.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\CodeRepository\TheRoadToTheFuture\英语\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\CodeRepositories\TheRoadToTheFuture\英语\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3EC4BF-0C38-42FF-9D6B-F0C85BCBAF5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="9555" yWindow="1980" windowWidth="15030" windowHeight="11100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Emily" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Easy English" sheetId="3" r:id="rId2"/>
     <sheet name="TED" sheetId="4" r:id="rId3"/>
+    <sheet name="高考短语" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="1995">
   <si>
     <t>序号\单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6945,14 +6947,1153 @@
   </si>
   <si>
     <t>knock on wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bring out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产，出版 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸收，赚取 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bring up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">抚养，培育 </t>
+  </si>
+  <si>
+    <r>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>破坏，打破</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>break out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>break up with sb/sth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>解散，分手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">break through </t>
+  </si>
+  <si>
+    <t xml:space="preserve">break in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">break off </t>
+  </si>
+  <si>
+    <t xml:space="preserve">break into burst into </t>
+  </si>
+  <si>
+    <t xml:space="preserve">break away from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">call </t>
+  </si>
+  <si>
+    <t xml:space="preserve">call for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">需要，去取 </t>
+  </si>
+  <si>
+    <t>The trouble calls for quick action by the govermnent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">召集，请来，顺便拜访 </t>
+  </si>
+  <si>
+    <t>We'll call in the army if necessary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>突然发生，爆发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有进行时态，被动语态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bring in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号召</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">继续 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carry on/come on/go on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carry out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One person should carry on where the other had left off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carry through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺利完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶然碰到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I came across this book in an old bookstore.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come across sb/sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">come about </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生，造成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被提出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版，没有被动语态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sth come up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come up with sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏醒过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油，快点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍伐，削减，降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut down a tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切断，隔绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切碎，伤心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut throuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开辟通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐赠，泄露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give in to sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投降，屈服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发，发表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep away from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep up with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与…并驾齐驱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打通电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进展，与某人相处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get along with sb/sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get away from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下车，脱下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get across</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hold </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻止，隐瞒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold sth back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别挂断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look up to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊敬，指望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look back upon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥补，化妆，编造，构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>break down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">call in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲得通，有意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make full use of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充分利用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说吧，开始吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熄灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go against</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go back to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯，追溯到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传播开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pick up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pick </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pick out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取，中途接人，收拾房间，天气好转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扑灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张贴，搭起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接通电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放下，几下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put… into effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动身，触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set out to do sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始着手做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set about doing sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呈现，承担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收，欺骗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">照顾 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take care of/look after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand out/give out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传下来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就…达成共识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree to do sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意做…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把…增加到…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add… up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把…加起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add up to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加起来总和为…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turo out to be/to do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果是，生产，出动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开/关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn up/down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调高/调低；出现，发生/拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn on/off; switch on/off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn down sb/ turn sb down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">turn in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻越，移交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成，进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take turns to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮流做…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被用完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb run out of sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use up/has been used up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追赶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碾压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为…付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偿还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see sb off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给…送行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看透，识破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch up with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch sight of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be caught in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被困住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be trapped in/be stuck in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deal with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及物动词和补给物动词的误用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serve sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact sb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7000,8 +8141,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7026,8 +8196,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -7044,13 +8232,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7089,6 +8305,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7369,7 +8618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E732"/>
   <sheetViews>
     <sheetView topLeftCell="A649" workbookViewId="0">
@@ -15933,10 +17182,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -17960,7 +19209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E706"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -21953,4 +23202,6314 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2C3A70-7697-4DE1-8023-5B8818A3D09E}">
+  <dimension ref="A1:E706"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B135" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7">
+        <v>104</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
+        <v>106</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7">
+        <v>108</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
+        <v>110</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
+        <v>112</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="7">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="7">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="7">
+        <v>122</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="1:5" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="7">
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="7">
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="7">
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="7">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="7">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D131" s="5"/>
+    </row>
+    <row r="132" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D132" s="5"/>
+    </row>
+    <row r="133" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D133" s="5"/>
+    </row>
+    <row r="134" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="7">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="7">
+        <v>135</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="7">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="7">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="7">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+    </row>
+    <row r="141" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="7">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D141" s="5"/>
+    </row>
+    <row r="142" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="7">
+        <v>141</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="7">
+        <v>142</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D143" s="5"/>
+    </row>
+    <row r="144" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="7">
+        <v>144</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="7">
+        <v>145</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="7">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7">
+        <v>147</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D148" s="5"/>
+    </row>
+    <row r="149" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="7">
+        <v>148</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D149" s="5"/>
+    </row>
+    <row r="150" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="7">
+        <v>149</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+    </row>
+    <row r="151" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="7">
+        <v>150</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="7">
+        <v>151</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+    </row>
+    <row r="153" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="7">
+        <v>152</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+    </row>
+    <row r="154" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="7">
+        <v>153</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="7">
+        <v>154</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="7">
+        <v>155</v>
+      </c>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="7">
+        <v>156</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+    </row>
+    <row r="158" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="7">
+        <v>157</v>
+      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+    </row>
+    <row r="159" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="7">
+        <v>158</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="7">
+        <v>159</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+    </row>
+    <row r="161" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="7">
+        <v>160</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="7">
+        <v>161</v>
+      </c>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="7">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="7">
+        <v>163</v>
+      </c>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="7">
+        <v>164</v>
+      </c>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="7">
+        <v>165</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="7">
+        <v>166</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="7">
+        <v>167</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+    </row>
+    <row r="169" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="7">
+        <v>168</v>
+      </c>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="7">
+        <v>169</v>
+      </c>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+    </row>
+    <row r="171" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="7">
+        <v>170</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="7">
+        <v>171</v>
+      </c>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+    </row>
+    <row r="173" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="7">
+        <v>172</v>
+      </c>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="7">
+        <v>173</v>
+      </c>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="7">
+        <v>174</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="7">
+        <v>175</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="7">
+        <v>176</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="7">
+        <v>177</v>
+      </c>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="7">
+        <v>178</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+    </row>
+    <row r="180" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="7">
+        <v>179</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="7">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="7">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+    </row>
+    <row r="183" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="7">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="7">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="7">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="7">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="7">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="7">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="7">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+    </row>
+    <row r="190" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="7">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+    </row>
+    <row r="191" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="7">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+    </row>
+    <row r="192" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="7">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+    </row>
+    <row r="193" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="7">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="7">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="7">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+    </row>
+    <row r="196" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="7">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+    </row>
+    <row r="197" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="7">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="7">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="7">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="7">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+    </row>
+    <row r="201" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="7">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="7">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+    </row>
+    <row r="203" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="7">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="7">
+        <v>203</v>
+      </c>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="7">
+        <v>204</v>
+      </c>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="7">
+        <v>205</v>
+      </c>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="7">
+        <v>206</v>
+      </c>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="7">
+        <v>207</v>
+      </c>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="7">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+    </row>
+    <row r="210" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="7">
+        <v>209</v>
+      </c>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+    </row>
+    <row r="211" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="7">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+    </row>
+    <row r="212" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="7">
+        <v>211</v>
+      </c>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+    </row>
+    <row r="213" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="7">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+    </row>
+    <row r="214" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="7">
+        <v>213</v>
+      </c>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+    </row>
+    <row r="215" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="7">
+        <v>214</v>
+      </c>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+    </row>
+    <row r="216" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="7">
+        <v>215</v>
+      </c>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+    </row>
+    <row r="217" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="7">
+        <v>216</v>
+      </c>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+    </row>
+    <row r="218" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="7">
+        <v>217</v>
+      </c>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+    </row>
+    <row r="219" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="7">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+    </row>
+    <row r="220" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="7">
+        <v>219</v>
+      </c>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+    </row>
+    <row r="221" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="7">
+        <v>220</v>
+      </c>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+    </row>
+    <row r="222" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="7">
+        <v>221</v>
+      </c>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+    </row>
+    <row r="223" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="7">
+        <v>222</v>
+      </c>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+    </row>
+    <row r="224" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="7">
+        <v>223</v>
+      </c>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+    </row>
+    <row r="225" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="7">
+        <v>224</v>
+      </c>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+    </row>
+    <row r="226" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="7">
+        <v>225</v>
+      </c>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+    </row>
+    <row r="227" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="7">
+        <v>226</v>
+      </c>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+    </row>
+    <row r="228" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="7">
+        <v>227</v>
+      </c>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+    </row>
+    <row r="229" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="7">
+        <v>228</v>
+      </c>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+    </row>
+    <row r="230" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="7">
+        <v>229</v>
+      </c>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+    </row>
+    <row r="231" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="7">
+        <v>230</v>
+      </c>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+    </row>
+    <row r="232" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="7">
+        <v>231</v>
+      </c>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+    </row>
+    <row r="233" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="7">
+        <v>232</v>
+      </c>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+    </row>
+    <row r="234" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="7">
+        <v>233</v>
+      </c>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+    </row>
+    <row r="235" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="7">
+        <v>234</v>
+      </c>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+    </row>
+    <row r="236" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="7">
+        <v>235</v>
+      </c>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+    </row>
+    <row r="237" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="7">
+        <v>236</v>
+      </c>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+    </row>
+    <row r="238" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="7">
+        <v>237</v>
+      </c>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+    </row>
+    <row r="239" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="7">
+        <v>238</v>
+      </c>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+    </row>
+    <row r="240" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="7">
+        <v>239</v>
+      </c>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+    </row>
+    <row r="241" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="7">
+        <v>240</v>
+      </c>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+    </row>
+    <row r="242" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="7">
+        <v>241</v>
+      </c>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+    </row>
+    <row r="243" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="7">
+        <v>242</v>
+      </c>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+    </row>
+    <row r="244" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="7">
+        <v>243</v>
+      </c>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+    </row>
+    <row r="245" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="7">
+        <v>244</v>
+      </c>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+    </row>
+    <row r="246" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="7">
+        <v>245</v>
+      </c>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+    </row>
+    <row r="247" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="7">
+        <v>246</v>
+      </c>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+    </row>
+    <row r="248" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="7">
+        <v>247</v>
+      </c>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+    </row>
+    <row r="249" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="7">
+        <v>248</v>
+      </c>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+    </row>
+    <row r="250" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="7">
+        <v>249</v>
+      </c>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+    </row>
+    <row r="251" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="7">
+        <v>250</v>
+      </c>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+    </row>
+    <row r="252" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="7">
+        <v>251</v>
+      </c>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+    </row>
+    <row r="253" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="7">
+        <v>252</v>
+      </c>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+    </row>
+    <row r="254" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="7">
+        <v>253</v>
+      </c>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+    </row>
+    <row r="255" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="7">
+        <v>254</v>
+      </c>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+    </row>
+    <row r="256" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="7">
+        <v>255</v>
+      </c>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+    </row>
+    <row r="257" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="7">
+        <v>256</v>
+      </c>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+    </row>
+    <row r="258" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="7">
+        <v>257</v>
+      </c>
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+    </row>
+    <row r="259" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="7">
+        <v>258</v>
+      </c>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+    </row>
+    <row r="260" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="7">
+        <v>259</v>
+      </c>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+    </row>
+    <row r="261" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="7">
+        <v>260</v>
+      </c>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+    </row>
+    <row r="262" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="7">
+        <v>261</v>
+      </c>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+    </row>
+    <row r="263" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="7">
+        <v>262</v>
+      </c>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+    </row>
+    <row r="264" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="7">
+        <v>263</v>
+      </c>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+    </row>
+    <row r="265" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="7">
+        <v>264</v>
+      </c>
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+    </row>
+    <row r="266" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="7">
+        <v>265</v>
+      </c>
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+    </row>
+    <row r="267" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="7">
+        <v>266</v>
+      </c>
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+    </row>
+    <row r="268" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="7">
+        <v>267</v>
+      </c>
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+    </row>
+    <row r="269" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="7">
+        <v>268</v>
+      </c>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+    </row>
+    <row r="270" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="7">
+        <v>269</v>
+      </c>
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+    </row>
+    <row r="271" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="7">
+        <v>270</v>
+      </c>
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+    </row>
+    <row r="272" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="7">
+        <v>271</v>
+      </c>
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+    </row>
+    <row r="273" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="7">
+        <v>272</v>
+      </c>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+    </row>
+    <row r="274" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="7">
+        <v>273</v>
+      </c>
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+    </row>
+    <row r="275" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="7">
+        <v>274</v>
+      </c>
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+    </row>
+    <row r="276" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="7">
+        <v>275</v>
+      </c>
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+    </row>
+    <row r="277" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="7">
+        <v>276</v>
+      </c>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+    </row>
+    <row r="278" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="7">
+        <v>277</v>
+      </c>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+    </row>
+    <row r="279" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="7">
+        <v>278</v>
+      </c>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+    </row>
+    <row r="280" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="7">
+        <v>279</v>
+      </c>
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+    </row>
+    <row r="281" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="7">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+    </row>
+    <row r="282" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="7">
+        <v>281</v>
+      </c>
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+    </row>
+    <row r="283" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="7">
+        <v>282</v>
+      </c>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+    </row>
+    <row r="284" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="7">
+        <v>283</v>
+      </c>
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+    </row>
+    <row r="285" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="7">
+        <v>284</v>
+      </c>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+    </row>
+    <row r="286" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="7">
+        <v>285</v>
+      </c>
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+    </row>
+    <row r="287" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="7">
+        <v>286</v>
+      </c>
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+    </row>
+    <row r="288" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="7">
+        <v>287</v>
+      </c>
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+    </row>
+    <row r="289" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="7">
+        <v>288</v>
+      </c>
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+    </row>
+    <row r="290" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="7">
+        <v>289</v>
+      </c>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+    </row>
+    <row r="291" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="7">
+        <v>290</v>
+      </c>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+    </row>
+    <row r="292" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="7">
+        <v>291</v>
+      </c>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+    </row>
+    <row r="293" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="7">
+        <v>292</v>
+      </c>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+    </row>
+    <row r="294" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="7">
+        <v>293</v>
+      </c>
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+    </row>
+    <row r="295" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="7">
+        <v>294</v>
+      </c>
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+    </row>
+    <row r="296" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="7">
+        <v>295</v>
+      </c>
+      <c r="B296" s="5"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+    </row>
+    <row r="297" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="7">
+        <v>296</v>
+      </c>
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+    </row>
+    <row r="298" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="7">
+        <v>297</v>
+      </c>
+      <c r="B298" s="5"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+    </row>
+    <row r="299" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="7">
+        <v>298</v>
+      </c>
+      <c r="B299" s="5"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+    </row>
+    <row r="300" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="7">
+        <v>299</v>
+      </c>
+      <c r="B300" s="5"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+    </row>
+    <row r="301" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="7">
+        <v>300</v>
+      </c>
+      <c r="B301" s="5"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+    </row>
+    <row r="302" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="7">
+        <v>301</v>
+      </c>
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+    </row>
+    <row r="303" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="7">
+        <v>302</v>
+      </c>
+      <c r="B303" s="5"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+    </row>
+    <row r="304" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="7">
+        <v>303</v>
+      </c>
+      <c r="B304" s="5"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
+    </row>
+    <row r="305" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="7">
+        <v>304</v>
+      </c>
+      <c r="B305" s="5"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+    </row>
+    <row r="306" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="7">
+        <v>305</v>
+      </c>
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+    </row>
+    <row r="307" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="7">
+        <v>306</v>
+      </c>
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+    </row>
+    <row r="308" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="7">
+        <v>307</v>
+      </c>
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+    </row>
+    <row r="309" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="7">
+        <v>308</v>
+      </c>
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+    </row>
+    <row r="310" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="7">
+        <v>309</v>
+      </c>
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+    </row>
+    <row r="311" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="7">
+        <v>310</v>
+      </c>
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+    </row>
+    <row r="312" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="7">
+        <v>311</v>
+      </c>
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+    </row>
+    <row r="313" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="7">
+        <v>312</v>
+      </c>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+    </row>
+    <row r="314" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="7">
+        <v>313</v>
+      </c>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+    </row>
+    <row r="315" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="7">
+        <v>314</v>
+      </c>
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+    </row>
+    <row r="316" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="7">
+        <v>315</v>
+      </c>
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
+    </row>
+    <row r="317" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="7">
+        <v>316</v>
+      </c>
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+    </row>
+    <row r="318" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="7">
+        <v>317</v>
+      </c>
+      <c r="B318" s="5"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5"/>
+    </row>
+    <row r="319" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="7">
+        <v>318</v>
+      </c>
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+    </row>
+    <row r="320" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="7">
+        <v>319</v>
+      </c>
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+    </row>
+    <row r="321" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="7">
+        <v>320</v>
+      </c>
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+    </row>
+    <row r="322" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="7">
+        <v>321</v>
+      </c>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+    </row>
+    <row r="323" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="7">
+        <v>322</v>
+      </c>
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+    </row>
+    <row r="324" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="7">
+        <v>323</v>
+      </c>
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+    </row>
+    <row r="325" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="7">
+        <v>324</v>
+      </c>
+      <c r="B325" s="5"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5"/>
+    </row>
+    <row r="326" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="7">
+        <v>325</v>
+      </c>
+      <c r="B326" s="5"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
+    </row>
+    <row r="327" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="7">
+        <v>326</v>
+      </c>
+      <c r="B327" s="5"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="5"/>
+    </row>
+    <row r="328" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="7">
+        <v>327</v>
+      </c>
+      <c r="B328" s="5"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="5"/>
+    </row>
+    <row r="329" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="7">
+        <v>328</v>
+      </c>
+      <c r="B329" s="5"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
+    </row>
+    <row r="330" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="7">
+        <v>329</v>
+      </c>
+      <c r="B330" s="5"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
+    </row>
+    <row r="331" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="7">
+        <v>330</v>
+      </c>
+      <c r="B331" s="5"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5"/>
+    </row>
+    <row r="332" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="7">
+        <v>331</v>
+      </c>
+      <c r="B332" s="5"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+    </row>
+    <row r="333" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="7">
+        <v>332</v>
+      </c>
+      <c r="B333" s="5"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
+    </row>
+    <row r="334" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="7">
+        <v>333</v>
+      </c>
+      <c r="B334" s="5"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
+    </row>
+    <row r="335" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="7">
+        <v>334</v>
+      </c>
+      <c r="B335" s="5"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
+    </row>
+    <row r="336" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="7">
+        <v>335</v>
+      </c>
+      <c r="B336" s="5"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5"/>
+    </row>
+    <row r="337" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="7">
+        <v>336</v>
+      </c>
+      <c r="B337" s="5"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+    </row>
+    <row r="338" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="7">
+        <v>337</v>
+      </c>
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+    </row>
+    <row r="339" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="7">
+        <v>338</v>
+      </c>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
+    </row>
+    <row r="340" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="7">
+        <v>339</v>
+      </c>
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5"/>
+    </row>
+    <row r="341" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="7">
+        <v>340</v>
+      </c>
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
+    </row>
+    <row r="342" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="7">
+        <v>341</v>
+      </c>
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
+    </row>
+    <row r="343" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="7">
+        <v>342</v>
+      </c>
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
+    </row>
+    <row r="344" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="7">
+        <v>343</v>
+      </c>
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
+    </row>
+    <row r="345" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="7">
+        <v>344</v>
+      </c>
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
+    </row>
+    <row r="346" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="7">
+        <v>345</v>
+      </c>
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+    </row>
+    <row r="347" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="7">
+        <v>346</v>
+      </c>
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
+    </row>
+    <row r="348" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="7">
+        <v>347</v>
+      </c>
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+    </row>
+    <row r="349" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="7">
+        <v>348</v>
+      </c>
+      <c r="B349" s="5"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
+    </row>
+    <row r="350" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="7">
+        <v>349</v>
+      </c>
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+    </row>
+    <row r="351" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="7">
+        <v>350</v>
+      </c>
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+    </row>
+    <row r="352" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="7">
+        <v>351</v>
+      </c>
+      <c r="B352" s="5"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5"/>
+    </row>
+    <row r="353" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="7">
+        <v>352</v>
+      </c>
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
+    </row>
+    <row r="354" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="7">
+        <v>353</v>
+      </c>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5"/>
+    </row>
+    <row r="355" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="7">
+        <v>354</v>
+      </c>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5"/>
+    </row>
+    <row r="356" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="7">
+        <v>355</v>
+      </c>
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
+      <c r="D356" s="5"/>
+    </row>
+    <row r="357" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="7">
+        <v>356</v>
+      </c>
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5"/>
+    </row>
+    <row r="358" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="7">
+        <v>357</v>
+      </c>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5"/>
+    </row>
+    <row r="359" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="7">
+        <v>358</v>
+      </c>
+      <c r="B359" s="5"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5"/>
+    </row>
+    <row r="360" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="7">
+        <v>359</v>
+      </c>
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5"/>
+    </row>
+    <row r="361" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="7">
+        <v>360</v>
+      </c>
+      <c r="B361" s="5"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5"/>
+    </row>
+    <row r="362" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="7">
+        <v>361</v>
+      </c>
+      <c r="B362" s="5"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="5"/>
+    </row>
+    <row r="363" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="7">
+        <v>362</v>
+      </c>
+      <c r="B363" s="5"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
+    </row>
+    <row r="364" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="7">
+        <v>363</v>
+      </c>
+      <c r="B364" s="5"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5"/>
+    </row>
+    <row r="365" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="7">
+        <v>364</v>
+      </c>
+      <c r="B365" s="5"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5"/>
+    </row>
+    <row r="366" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="7">
+        <v>365</v>
+      </c>
+      <c r="B366" s="5"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5"/>
+    </row>
+    <row r="367" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="7">
+        <v>366</v>
+      </c>
+      <c r="B367" s="5"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="5"/>
+    </row>
+    <row r="368" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="7">
+        <v>367</v>
+      </c>
+      <c r="B368" s="5"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="5"/>
+    </row>
+    <row r="369" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="7">
+        <v>368</v>
+      </c>
+      <c r="B369" s="5"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
+    </row>
+    <row r="370" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="7">
+        <v>369</v>
+      </c>
+      <c r="B370" s="5"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5"/>
+    </row>
+    <row r="371" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="7">
+        <v>370</v>
+      </c>
+      <c r="B371" s="5"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="5"/>
+    </row>
+    <row r="372" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="7">
+        <v>371</v>
+      </c>
+      <c r="B372" s="5"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="5"/>
+    </row>
+    <row r="373" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="7">
+        <v>372</v>
+      </c>
+      <c r="B373" s="5"/>
+      <c r="C373" s="5"/>
+      <c r="D373" s="5"/>
+    </row>
+    <row r="374" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="7">
+        <v>373</v>
+      </c>
+      <c r="B374" s="5"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="5"/>
+    </row>
+    <row r="375" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="7">
+        <v>374</v>
+      </c>
+      <c r="B375" s="5"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+    </row>
+    <row r="376" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="7">
+        <v>375</v>
+      </c>
+      <c r="B376" s="5"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+    </row>
+    <row r="377" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="7">
+        <v>376</v>
+      </c>
+      <c r="B377" s="5"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="5"/>
+    </row>
+    <row r="378" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="7">
+        <v>377</v>
+      </c>
+      <c r="B378" s="5"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
+    </row>
+    <row r="379" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="7">
+        <v>378</v>
+      </c>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
+    </row>
+    <row r="380" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="7">
+        <v>379</v>
+      </c>
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
+    </row>
+    <row r="381" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="7">
+        <v>380</v>
+      </c>
+      <c r="B381" s="5"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
+    </row>
+    <row r="382" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="7">
+        <v>381</v>
+      </c>
+      <c r="B382" s="5"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
+    </row>
+    <row r="383" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="7">
+        <v>382</v>
+      </c>
+      <c r="B383" s="5"/>
+      <c r="C383" s="5"/>
+      <c r="D383" s="5"/>
+    </row>
+    <row r="384" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="7">
+        <v>383</v>
+      </c>
+      <c r="B384" s="5"/>
+      <c r="C384" s="5"/>
+      <c r="D384" s="5"/>
+    </row>
+    <row r="385" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="7">
+        <v>384</v>
+      </c>
+      <c r="B385" s="5"/>
+      <c r="C385" s="5"/>
+      <c r="D385" s="5"/>
+    </row>
+    <row r="386" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="7">
+        <v>385</v>
+      </c>
+      <c r="B386" s="5"/>
+      <c r="C386" s="5"/>
+      <c r="D386" s="5"/>
+    </row>
+    <row r="387" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="7">
+        <v>386</v>
+      </c>
+      <c r="B387" s="5"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="5"/>
+    </row>
+    <row r="388" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="7">
+        <v>387</v>
+      </c>
+      <c r="B388" s="5"/>
+      <c r="C388" s="5"/>
+      <c r="D388" s="5"/>
+    </row>
+    <row r="389" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="7">
+        <v>388</v>
+      </c>
+      <c r="B389" s="5"/>
+      <c r="C389" s="5"/>
+      <c r="D389" s="5"/>
+    </row>
+    <row r="390" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="7">
+        <v>389</v>
+      </c>
+      <c r="B390" s="5"/>
+      <c r="C390" s="5"/>
+      <c r="D390" s="5"/>
+    </row>
+    <row r="391" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="7">
+        <v>390</v>
+      </c>
+      <c r="B391" s="5"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="5"/>
+    </row>
+    <row r="392" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="7">
+        <v>391</v>
+      </c>
+      <c r="B392" s="5"/>
+      <c r="C392" s="5"/>
+      <c r="D392" s="5"/>
+    </row>
+    <row r="393" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="7">
+        <v>392</v>
+      </c>
+      <c r="B393" s="5"/>
+      <c r="C393" s="5"/>
+      <c r="D393" s="5"/>
+    </row>
+    <row r="394" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="7">
+        <v>393</v>
+      </c>
+      <c r="B394" s="5"/>
+      <c r="C394" s="5"/>
+      <c r="D394" s="5"/>
+    </row>
+    <row r="395" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="7">
+        <v>394</v>
+      </c>
+      <c r="B395" s="5"/>
+      <c r="C395" s="5"/>
+      <c r="D395" s="5"/>
+    </row>
+    <row r="396" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="7">
+        <v>395</v>
+      </c>
+      <c r="B396" s="5"/>
+      <c r="C396" s="5"/>
+      <c r="D396" s="5"/>
+    </row>
+    <row r="397" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="7">
+        <v>396</v>
+      </c>
+      <c r="B397" s="5"/>
+      <c r="C397" s="5"/>
+      <c r="D397" s="5"/>
+    </row>
+    <row r="398" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="7">
+        <v>397</v>
+      </c>
+      <c r="B398" s="5"/>
+      <c r="C398" s="5"/>
+      <c r="D398" s="5"/>
+    </row>
+    <row r="399" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="7">
+        <v>398</v>
+      </c>
+      <c r="B399" s="5"/>
+      <c r="C399" s="5"/>
+      <c r="D399" s="5"/>
+    </row>
+    <row r="400" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="7">
+        <v>399</v>
+      </c>
+      <c r="B400" s="5"/>
+      <c r="C400" s="5"/>
+      <c r="D400" s="5"/>
+    </row>
+    <row r="401" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="7">
+        <v>400</v>
+      </c>
+      <c r="B401" s="5"/>
+      <c r="C401" s="5"/>
+      <c r="D401" s="5"/>
+    </row>
+    <row r="402" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="7">
+        <v>401</v>
+      </c>
+      <c r="B402" s="5"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="5"/>
+    </row>
+    <row r="403" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="7">
+        <v>402</v>
+      </c>
+      <c r="B403" s="5"/>
+      <c r="C403" s="5"/>
+      <c r="D403" s="5"/>
+    </row>
+    <row r="404" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="7">
+        <v>403</v>
+      </c>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
+    </row>
+    <row r="405" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="7">
+        <v>404</v>
+      </c>
+      <c r="B405" s="5"/>
+      <c r="C405" s="5"/>
+      <c r="D405" s="5"/>
+    </row>
+    <row r="406" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="7">
+        <v>405</v>
+      </c>
+      <c r="B406" s="5"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
+    </row>
+    <row r="407" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="7">
+        <v>406</v>
+      </c>
+      <c r="B407" s="5"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
+    </row>
+    <row r="408" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="7">
+        <v>407</v>
+      </c>
+      <c r="B408" s="5"/>
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
+    </row>
+    <row r="409" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="7">
+        <v>408</v>
+      </c>
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+    </row>
+    <row r="410" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="7">
+        <v>409</v>
+      </c>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+    </row>
+    <row r="411" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="7">
+        <v>410</v>
+      </c>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+    </row>
+    <row r="412" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="7">
+        <v>411</v>
+      </c>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+    </row>
+    <row r="413" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="7">
+        <v>412</v>
+      </c>
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+    </row>
+    <row r="414" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="7">
+        <v>413</v>
+      </c>
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+    </row>
+    <row r="415" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="7">
+        <v>414</v>
+      </c>
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+    </row>
+    <row r="416" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="7">
+        <v>415</v>
+      </c>
+      <c r="B416" s="5"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+    </row>
+    <row r="417" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="7">
+        <v>416</v>
+      </c>
+      <c r="B417" s="5"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+    </row>
+    <row r="418" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="7">
+        <v>417</v>
+      </c>
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+    </row>
+    <row r="419" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="7">
+        <v>418</v>
+      </c>
+      <c r="B419" s="5"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
+    </row>
+    <row r="420" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="7">
+        <v>419</v>
+      </c>
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+    </row>
+    <row r="421" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="7">
+        <v>420</v>
+      </c>
+      <c r="B421" s="5"/>
+      <c r="C421" s="5"/>
+      <c r="D421" s="5"/>
+    </row>
+    <row r="422" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="7">
+        <v>421</v>
+      </c>
+      <c r="B422" s="5"/>
+      <c r="C422" s="5"/>
+      <c r="D422" s="5"/>
+    </row>
+    <row r="423" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="7">
+        <v>422</v>
+      </c>
+      <c r="B423" s="5"/>
+      <c r="C423" s="5"/>
+      <c r="D423" s="5"/>
+    </row>
+    <row r="424" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="7">
+        <v>423</v>
+      </c>
+      <c r="B424" s="5"/>
+      <c r="C424" s="5"/>
+      <c r="D424" s="5"/>
+    </row>
+    <row r="425" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="7">
+        <v>424</v>
+      </c>
+      <c r="B425" s="5"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="5"/>
+    </row>
+    <row r="426" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="7">
+        <v>425</v>
+      </c>
+      <c r="B426" s="5"/>
+      <c r="C426" s="5"/>
+      <c r="D426" s="5"/>
+    </row>
+    <row r="427" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="7">
+        <v>426</v>
+      </c>
+      <c r="B427" s="5"/>
+      <c r="C427" s="5"/>
+      <c r="D427" s="5"/>
+    </row>
+    <row r="428" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="7">
+        <v>427</v>
+      </c>
+      <c r="B428" s="5"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="5"/>
+    </row>
+    <row r="429" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="7">
+        <v>428</v>
+      </c>
+      <c r="B429" s="5"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="5"/>
+    </row>
+    <row r="430" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="7">
+        <v>429</v>
+      </c>
+      <c r="B430" s="5"/>
+      <c r="C430" s="5"/>
+      <c r="D430" s="5"/>
+    </row>
+    <row r="431" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="7">
+        <v>430</v>
+      </c>
+      <c r="B431" s="5"/>
+      <c r="C431" s="5"/>
+      <c r="D431" s="5"/>
+    </row>
+    <row r="432" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="7">
+        <v>431</v>
+      </c>
+      <c r="B432" s="5"/>
+      <c r="C432" s="5"/>
+      <c r="D432" s="5"/>
+    </row>
+    <row r="433" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="7">
+        <v>432</v>
+      </c>
+      <c r="B433" s="5"/>
+      <c r="C433" s="5"/>
+      <c r="D433" s="5"/>
+    </row>
+    <row r="434" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="7">
+        <v>433</v>
+      </c>
+      <c r="B434" s="5"/>
+      <c r="C434" s="5"/>
+      <c r="D434" s="5"/>
+    </row>
+    <row r="435" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="7">
+        <v>434</v>
+      </c>
+      <c r="B435" s="5"/>
+      <c r="C435" s="5"/>
+      <c r="D435" s="5"/>
+    </row>
+    <row r="436" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="7">
+        <v>435</v>
+      </c>
+      <c r="B436" s="5"/>
+      <c r="C436" s="5"/>
+      <c r="D436" s="5"/>
+    </row>
+    <row r="437" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="7">
+        <v>436</v>
+      </c>
+      <c r="B437" s="5"/>
+      <c r="C437" s="5"/>
+      <c r="D437" s="5"/>
+    </row>
+    <row r="438" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="7">
+        <v>437</v>
+      </c>
+      <c r="B438" s="5"/>
+      <c r="C438" s="5"/>
+      <c r="D438" s="5"/>
+    </row>
+    <row r="439" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="7">
+        <v>438</v>
+      </c>
+      <c r="B439" s="5"/>
+      <c r="C439" s="5"/>
+      <c r="D439" s="5"/>
+    </row>
+    <row r="440" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="7">
+        <v>439</v>
+      </c>
+      <c r="B440" s="5"/>
+      <c r="C440" s="5"/>
+      <c r="D440" s="5"/>
+    </row>
+    <row r="441" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="7">
+        <v>440</v>
+      </c>
+      <c r="B441" s="5"/>
+      <c r="C441" s="5"/>
+      <c r="D441" s="5"/>
+    </row>
+    <row r="442" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="7">
+        <v>441</v>
+      </c>
+      <c r="B442" s="5"/>
+      <c r="C442" s="5"/>
+      <c r="D442" s="5"/>
+    </row>
+    <row r="443" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="7">
+        <v>442</v>
+      </c>
+      <c r="B443" s="5"/>
+      <c r="C443" s="5"/>
+      <c r="D443" s="5"/>
+    </row>
+    <row r="444" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="7">
+        <v>443</v>
+      </c>
+      <c r="B444" s="5"/>
+      <c r="C444" s="5"/>
+      <c r="D444" s="5"/>
+    </row>
+    <row r="445" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="7">
+        <v>444</v>
+      </c>
+      <c r="B445" s="5"/>
+      <c r="C445" s="5"/>
+      <c r="D445" s="5"/>
+    </row>
+    <row r="446" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="7">
+        <v>445</v>
+      </c>
+      <c r="B446" s="5"/>
+      <c r="C446" s="5"/>
+      <c r="D446" s="5"/>
+    </row>
+    <row r="447" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="7">
+        <v>446</v>
+      </c>
+      <c r="B447" s="5"/>
+      <c r="C447" s="5"/>
+      <c r="D447" s="5"/>
+    </row>
+    <row r="448" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="7">
+        <v>447</v>
+      </c>
+      <c r="B448" s="5"/>
+      <c r="C448" s="5"/>
+      <c r="D448" s="5"/>
+    </row>
+    <row r="449" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="7">
+        <v>448</v>
+      </c>
+      <c r="B449" s="5"/>
+      <c r="C449" s="5"/>
+      <c r="D449" s="5"/>
+    </row>
+    <row r="450" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="7">
+        <v>449</v>
+      </c>
+      <c r="B450" s="5"/>
+      <c r="C450" s="5"/>
+      <c r="D450" s="5"/>
+    </row>
+    <row r="451" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="7">
+        <v>450</v>
+      </c>
+      <c r="B451" s="5"/>
+      <c r="C451" s="5"/>
+      <c r="D451" s="5"/>
+    </row>
+    <row r="452" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="7">
+        <v>451</v>
+      </c>
+      <c r="B452" s="5"/>
+      <c r="C452" s="5"/>
+      <c r="D452" s="5"/>
+    </row>
+    <row r="453" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="7">
+        <v>452</v>
+      </c>
+      <c r="B453" s="5"/>
+      <c r="C453" s="5"/>
+      <c r="D453" s="5"/>
+    </row>
+    <row r="454" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="7">
+        <v>453</v>
+      </c>
+      <c r="B454" s="5"/>
+      <c r="C454" s="5"/>
+      <c r="D454" s="5"/>
+    </row>
+    <row r="455" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="7">
+        <v>454</v>
+      </c>
+      <c r="B455" s="5"/>
+      <c r="C455" s="5"/>
+      <c r="D455" s="5"/>
+    </row>
+    <row r="456" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="7">
+        <v>455</v>
+      </c>
+      <c r="B456" s="5"/>
+      <c r="C456" s="5"/>
+      <c r="D456" s="5"/>
+    </row>
+    <row r="457" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="7">
+        <v>456</v>
+      </c>
+      <c r="B457" s="5"/>
+      <c r="C457" s="5"/>
+      <c r="D457" s="5"/>
+    </row>
+    <row r="458" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="7">
+        <v>457</v>
+      </c>
+      <c r="B458" s="5"/>
+      <c r="C458" s="5"/>
+      <c r="D458" s="5"/>
+    </row>
+    <row r="459" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="7">
+        <v>458</v>
+      </c>
+      <c r="B459" s="5"/>
+      <c r="C459" s="5"/>
+      <c r="D459" s="5"/>
+    </row>
+    <row r="460" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="7">
+        <v>459</v>
+      </c>
+      <c r="B460" s="5"/>
+      <c r="C460" s="5"/>
+      <c r="D460" s="5"/>
+    </row>
+    <row r="461" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="7">
+        <v>460</v>
+      </c>
+      <c r="B461" s="5"/>
+      <c r="C461" s="5"/>
+      <c r="D461" s="5"/>
+    </row>
+    <row r="462" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="7">
+        <v>461</v>
+      </c>
+      <c r="B462" s="5"/>
+      <c r="C462" s="5"/>
+      <c r="D462" s="5"/>
+    </row>
+    <row r="463" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="7">
+        <v>462</v>
+      </c>
+      <c r="B463" s="5"/>
+      <c r="C463" s="5"/>
+      <c r="D463" s="5"/>
+    </row>
+    <row r="464" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="7">
+        <v>463</v>
+      </c>
+      <c r="B464" s="5"/>
+      <c r="C464" s="5"/>
+      <c r="D464" s="5"/>
+    </row>
+    <row r="465" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="7">
+        <v>464</v>
+      </c>
+      <c r="B465" s="5"/>
+      <c r="C465" s="5"/>
+      <c r="D465" s="5"/>
+    </row>
+    <row r="466" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="7">
+        <v>465</v>
+      </c>
+      <c r="B466" s="5"/>
+      <c r="C466" s="5"/>
+      <c r="D466" s="5"/>
+    </row>
+    <row r="467" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="7">
+        <v>466</v>
+      </c>
+      <c r="B467" s="5"/>
+      <c r="C467" s="5"/>
+      <c r="D467" s="5"/>
+    </row>
+    <row r="468" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="7">
+        <v>467</v>
+      </c>
+      <c r="B468" s="5"/>
+      <c r="C468" s="5"/>
+      <c r="D468" s="5"/>
+    </row>
+    <row r="469" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="7">
+        <v>468</v>
+      </c>
+      <c r="B469" s="5"/>
+      <c r="C469" s="5"/>
+      <c r="D469" s="5"/>
+    </row>
+    <row r="470" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="7">
+        <v>469</v>
+      </c>
+      <c r="B470" s="5"/>
+      <c r="C470" s="5"/>
+      <c r="D470" s="5"/>
+    </row>
+    <row r="471" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="7">
+        <v>470</v>
+      </c>
+      <c r="B471" s="5"/>
+      <c r="C471" s="5"/>
+      <c r="D471" s="5"/>
+    </row>
+    <row r="472" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="7">
+        <v>471</v>
+      </c>
+      <c r="B472" s="5"/>
+      <c r="C472" s="5"/>
+      <c r="D472" s="5"/>
+    </row>
+    <row r="473" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="7">
+        <v>472</v>
+      </c>
+      <c r="B473" s="5"/>
+      <c r="C473" s="5"/>
+      <c r="D473" s="5"/>
+    </row>
+    <row r="474" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="7">
+        <v>473</v>
+      </c>
+      <c r="B474" s="5"/>
+      <c r="C474" s="5"/>
+      <c r="D474" s="5"/>
+    </row>
+    <row r="475" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="7">
+        <v>474</v>
+      </c>
+      <c r="B475" s="5"/>
+      <c r="C475" s="5"/>
+      <c r="D475" s="5"/>
+    </row>
+    <row r="476" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="7">
+        <v>475</v>
+      </c>
+      <c r="B476" s="5"/>
+      <c r="C476" s="5"/>
+      <c r="D476" s="5"/>
+    </row>
+    <row r="477" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="7">
+        <v>476</v>
+      </c>
+      <c r="B477" s="5"/>
+      <c r="C477" s="5"/>
+      <c r="D477" s="5"/>
+    </row>
+    <row r="478" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="7">
+        <v>477</v>
+      </c>
+      <c r="B478" s="5"/>
+      <c r="C478" s="5"/>
+      <c r="D478" s="5"/>
+    </row>
+    <row r="479" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="7">
+        <v>478</v>
+      </c>
+      <c r="B479" s="5"/>
+      <c r="C479" s="5"/>
+      <c r="D479" s="5"/>
+    </row>
+    <row r="480" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="7">
+        <v>479</v>
+      </c>
+      <c r="B480" s="5"/>
+      <c r="C480" s="5"/>
+      <c r="D480" s="5"/>
+    </row>
+    <row r="481" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="7">
+        <v>480</v>
+      </c>
+      <c r="B481" s="5"/>
+      <c r="C481" s="5"/>
+      <c r="D481" s="5"/>
+    </row>
+    <row r="482" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="7">
+        <v>481</v>
+      </c>
+      <c r="B482" s="5"/>
+      <c r="C482" s="5"/>
+      <c r="D482" s="5"/>
+    </row>
+    <row r="483" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="7">
+        <v>482</v>
+      </c>
+      <c r="B483" s="5"/>
+      <c r="C483" s="5"/>
+      <c r="D483" s="5"/>
+    </row>
+    <row r="484" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="7">
+        <v>483</v>
+      </c>
+      <c r="B484" s="5"/>
+      <c r="C484" s="5"/>
+      <c r="D484" s="5"/>
+    </row>
+    <row r="485" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="7">
+        <v>484</v>
+      </c>
+      <c r="B485" s="5"/>
+      <c r="C485" s="5"/>
+      <c r="D485" s="5"/>
+    </row>
+    <row r="486" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="7">
+        <v>485</v>
+      </c>
+      <c r="B486" s="5"/>
+      <c r="C486" s="5"/>
+      <c r="D486" s="5"/>
+    </row>
+    <row r="487" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="7">
+        <v>486</v>
+      </c>
+      <c r="B487" s="5"/>
+      <c r="C487" s="5"/>
+      <c r="D487" s="5"/>
+    </row>
+    <row r="488" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="7">
+        <v>487</v>
+      </c>
+      <c r="B488" s="5"/>
+      <c r="C488" s="5"/>
+      <c r="D488" s="5"/>
+    </row>
+    <row r="489" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="7">
+        <v>488</v>
+      </c>
+      <c r="B489" s="5"/>
+      <c r="C489" s="5"/>
+      <c r="D489" s="5"/>
+    </row>
+    <row r="490" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="7">
+        <v>489</v>
+      </c>
+      <c r="B490" s="5"/>
+      <c r="C490" s="5"/>
+      <c r="D490" s="5"/>
+    </row>
+    <row r="491" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="7">
+        <v>490</v>
+      </c>
+      <c r="B491" s="5"/>
+      <c r="C491" s="5"/>
+      <c r="D491" s="5"/>
+    </row>
+    <row r="492" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="7">
+        <v>491</v>
+      </c>
+      <c r="B492" s="5"/>
+      <c r="C492" s="5"/>
+      <c r="D492" s="5"/>
+    </row>
+    <row r="493" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="7">
+        <v>492</v>
+      </c>
+      <c r="B493" s="5"/>
+      <c r="C493" s="5"/>
+      <c r="D493" s="5"/>
+    </row>
+    <row r="494" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="7">
+        <v>493</v>
+      </c>
+      <c r="B494" s="5"/>
+      <c r="C494" s="5"/>
+      <c r="D494" s="5"/>
+    </row>
+    <row r="495" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="7">
+        <v>494</v>
+      </c>
+      <c r="B495" s="5"/>
+      <c r="C495" s="5"/>
+      <c r="D495" s="5"/>
+    </row>
+    <row r="496" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="7">
+        <v>495</v>
+      </c>
+      <c r="B496" s="5"/>
+      <c r="C496" s="5"/>
+      <c r="D496" s="5"/>
+    </row>
+    <row r="497" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="7">
+        <v>496</v>
+      </c>
+      <c r="B497" s="5"/>
+      <c r="C497" s="5"/>
+      <c r="D497" s="5"/>
+    </row>
+    <row r="498" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="7">
+        <v>497</v>
+      </c>
+      <c r="B498" s="5"/>
+      <c r="C498" s="5"/>
+      <c r="D498" s="5"/>
+    </row>
+    <row r="499" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="7">
+        <v>498</v>
+      </c>
+      <c r="B499" s="5"/>
+      <c r="C499" s="5"/>
+      <c r="D499" s="5"/>
+    </row>
+    <row r="500" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="7">
+        <v>499</v>
+      </c>
+      <c r="B500" s="5"/>
+      <c r="C500" s="5"/>
+      <c r="D500" s="5"/>
+    </row>
+    <row r="501" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="7">
+        <v>500</v>
+      </c>
+      <c r="B501" s="5"/>
+      <c r="C501" s="5"/>
+      <c r="D501" s="5"/>
+    </row>
+    <row r="502" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="7">
+        <v>501</v>
+      </c>
+      <c r="B502" s="5"/>
+      <c r="C502" s="5"/>
+      <c r="D502" s="5"/>
+    </row>
+    <row r="503" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="7">
+        <v>502</v>
+      </c>
+      <c r="B503" s="5"/>
+      <c r="C503" s="5"/>
+      <c r="D503" s="5"/>
+    </row>
+    <row r="504" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="7">
+        <v>503</v>
+      </c>
+      <c r="B504" s="5"/>
+      <c r="C504" s="5"/>
+      <c r="D504" s="5"/>
+    </row>
+    <row r="505" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="7">
+        <v>504</v>
+      </c>
+      <c r="B505" s="5"/>
+      <c r="C505" s="5"/>
+      <c r="D505" s="5"/>
+    </row>
+    <row r="506" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="7">
+        <v>505</v>
+      </c>
+      <c r="B506" s="5"/>
+      <c r="C506" s="5"/>
+      <c r="D506" s="5"/>
+    </row>
+    <row r="507" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="7">
+        <v>506</v>
+      </c>
+      <c r="B507" s="5"/>
+      <c r="C507" s="5"/>
+      <c r="D507" s="5"/>
+    </row>
+    <row r="508" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="7">
+        <v>507</v>
+      </c>
+      <c r="B508" s="5"/>
+      <c r="C508" s="5"/>
+      <c r="D508" s="5"/>
+    </row>
+    <row r="509" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="7">
+        <v>508</v>
+      </c>
+      <c r="B509" s="5"/>
+      <c r="C509" s="5"/>
+      <c r="D509" s="5"/>
+    </row>
+    <row r="510" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="7">
+        <v>509</v>
+      </c>
+      <c r="B510" s="5"/>
+      <c r="C510" s="5"/>
+      <c r="D510" s="5"/>
+    </row>
+    <row r="511" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="7">
+        <v>510</v>
+      </c>
+      <c r="B511" s="5"/>
+      <c r="C511" s="5"/>
+      <c r="D511" s="5"/>
+    </row>
+    <row r="512" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="7">
+        <v>511</v>
+      </c>
+      <c r="B512" s="5"/>
+      <c r="C512" s="5"/>
+      <c r="D512" s="5"/>
+    </row>
+    <row r="513" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="7">
+        <v>512</v>
+      </c>
+      <c r="B513" s="5"/>
+      <c r="C513" s="5"/>
+      <c r="D513" s="5"/>
+    </row>
+    <row r="514" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="7">
+        <v>513</v>
+      </c>
+      <c r="B514" s="5"/>
+      <c r="C514" s="5"/>
+      <c r="D514" s="5"/>
+    </row>
+    <row r="515" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="7">
+        <v>514</v>
+      </c>
+      <c r="B515" s="5"/>
+      <c r="C515" s="5"/>
+      <c r="D515" s="5"/>
+    </row>
+    <row r="516" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="7">
+        <v>515</v>
+      </c>
+      <c r="B516" s="5"/>
+      <c r="C516" s="5"/>
+      <c r="D516" s="5"/>
+    </row>
+    <row r="517" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="7">
+        <v>516</v>
+      </c>
+      <c r="B517" s="5"/>
+      <c r="C517" s="5"/>
+      <c r="D517" s="5"/>
+    </row>
+    <row r="518" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="7">
+        <v>517</v>
+      </c>
+      <c r="B518" s="5"/>
+      <c r="C518" s="5"/>
+      <c r="D518" s="5"/>
+    </row>
+    <row r="519" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="7">
+        <v>518</v>
+      </c>
+      <c r="B519" s="5"/>
+      <c r="C519" s="5"/>
+      <c r="D519" s="5"/>
+    </row>
+    <row r="520" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="7">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5"/>
+      <c r="C520" s="5"/>
+      <c r="D520" s="5"/>
+    </row>
+    <row r="521" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="7">
+        <v>520</v>
+      </c>
+      <c r="B521" s="5"/>
+      <c r="C521" s="5"/>
+      <c r="D521" s="5"/>
+    </row>
+    <row r="522" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="7">
+        <v>521</v>
+      </c>
+      <c r="B522" s="5"/>
+      <c r="C522" s="5"/>
+      <c r="D522" s="5"/>
+    </row>
+    <row r="523" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="7">
+        <v>522</v>
+      </c>
+      <c r="B523" s="5"/>
+      <c r="C523" s="5"/>
+      <c r="D523" s="5"/>
+    </row>
+    <row r="524" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="7">
+        <v>523</v>
+      </c>
+      <c r="B524" s="5"/>
+      <c r="C524" s="5"/>
+      <c r="D524" s="5"/>
+    </row>
+    <row r="525" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="7">
+        <v>524</v>
+      </c>
+      <c r="B525" s="5"/>
+      <c r="C525" s="5"/>
+      <c r="D525" s="5"/>
+    </row>
+    <row r="526" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="7">
+        <v>525</v>
+      </c>
+      <c r="B526" s="5"/>
+      <c r="C526" s="5"/>
+      <c r="D526" s="5"/>
+    </row>
+    <row r="527" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="7">
+        <v>526</v>
+      </c>
+      <c r="B527" s="5"/>
+      <c r="C527" s="5"/>
+      <c r="D527" s="5"/>
+    </row>
+    <row r="528" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="7">
+        <v>527</v>
+      </c>
+      <c r="B528" s="5"/>
+      <c r="C528" s="5"/>
+      <c r="D528" s="5"/>
+    </row>
+    <row r="529" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="7">
+        <v>528</v>
+      </c>
+      <c r="B529" s="5"/>
+      <c r="C529" s="5"/>
+      <c r="D529" s="5"/>
+    </row>
+    <row r="530" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="7">
+        <v>529</v>
+      </c>
+      <c r="B530" s="5"/>
+      <c r="C530" s="5"/>
+      <c r="D530" s="5"/>
+    </row>
+    <row r="531" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="7">
+        <v>530</v>
+      </c>
+      <c r="B531" s="5"/>
+      <c r="C531" s="5"/>
+      <c r="D531" s="5"/>
+    </row>
+    <row r="532" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="7">
+        <v>531</v>
+      </c>
+      <c r="B532" s="5"/>
+      <c r="C532" s="5"/>
+      <c r="D532" s="5"/>
+    </row>
+    <row r="533" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="7">
+        <v>532</v>
+      </c>
+      <c r="B533" s="5"/>
+      <c r="C533" s="5"/>
+      <c r="D533" s="5"/>
+    </row>
+    <row r="534" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="7">
+        <v>533</v>
+      </c>
+      <c r="B534" s="5"/>
+      <c r="C534" s="5"/>
+      <c r="D534" s="5"/>
+    </row>
+    <row r="535" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="7">
+        <v>534</v>
+      </c>
+      <c r="B535" s="5"/>
+      <c r="C535" s="5"/>
+      <c r="D535" s="5"/>
+    </row>
+    <row r="536" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="7">
+        <v>535</v>
+      </c>
+      <c r="B536" s="5"/>
+      <c r="C536" s="5"/>
+      <c r="D536" s="5"/>
+    </row>
+    <row r="537" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="7">
+        <v>536</v>
+      </c>
+      <c r="B537" s="5"/>
+      <c r="C537" s="5"/>
+      <c r="D537" s="5"/>
+    </row>
+    <row r="538" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="7">
+        <v>537</v>
+      </c>
+      <c r="B538" s="5"/>
+      <c r="C538" s="5"/>
+      <c r="D538" s="5"/>
+    </row>
+    <row r="539" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="7">
+        <v>538</v>
+      </c>
+      <c r="B539" s="5"/>
+      <c r="C539" s="5"/>
+      <c r="D539" s="5"/>
+    </row>
+    <row r="540" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="7">
+        <v>539</v>
+      </c>
+      <c r="B540" s="5"/>
+      <c r="C540" s="5"/>
+      <c r="D540" s="5"/>
+    </row>
+    <row r="541" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="7">
+        <v>540</v>
+      </c>
+      <c r="B541" s="5"/>
+      <c r="C541" s="5"/>
+      <c r="D541" s="5"/>
+    </row>
+    <row r="542" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="7">
+        <v>541</v>
+      </c>
+      <c r="B542" s="5"/>
+      <c r="C542" s="5"/>
+      <c r="D542" s="5"/>
+    </row>
+    <row r="543" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="7">
+        <v>542</v>
+      </c>
+      <c r="B543" s="5"/>
+      <c r="C543" s="5"/>
+      <c r="D543" s="5"/>
+    </row>
+    <row r="544" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="7">
+        <v>543</v>
+      </c>
+      <c r="B544" s="5"/>
+      <c r="C544" s="5"/>
+      <c r="D544" s="5"/>
+    </row>
+    <row r="545" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="7">
+        <v>544</v>
+      </c>
+      <c r="B545" s="5"/>
+      <c r="C545" s="5"/>
+      <c r="D545" s="5"/>
+    </row>
+    <row r="546" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="7">
+        <v>545</v>
+      </c>
+      <c r="B546" s="5"/>
+      <c r="C546" s="5"/>
+      <c r="D546" s="5"/>
+    </row>
+    <row r="547" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="7">
+        <v>546</v>
+      </c>
+      <c r="B547" s="5"/>
+      <c r="C547" s="5"/>
+      <c r="D547" s="5"/>
+    </row>
+    <row r="548" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="7">
+        <v>547</v>
+      </c>
+      <c r="B548" s="5"/>
+      <c r="C548" s="5"/>
+      <c r="D548" s="5"/>
+    </row>
+    <row r="549" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="7">
+        <v>548</v>
+      </c>
+      <c r="B549" s="5"/>
+      <c r="C549" s="5"/>
+      <c r="D549" s="5"/>
+    </row>
+    <row r="550" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="7">
+        <v>549</v>
+      </c>
+      <c r="B550" s="5"/>
+      <c r="C550" s="5"/>
+      <c r="D550" s="5"/>
+    </row>
+    <row r="551" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="7">
+        <v>550</v>
+      </c>
+      <c r="B551" s="5"/>
+      <c r="C551" s="5"/>
+      <c r="D551" s="5"/>
+    </row>
+    <row r="552" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="7">
+        <v>551</v>
+      </c>
+      <c r="B552" s="5"/>
+      <c r="C552" s="5"/>
+      <c r="D552" s="5"/>
+    </row>
+    <row r="553" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="7">
+        <v>552</v>
+      </c>
+      <c r="B553" s="5"/>
+      <c r="C553" s="5"/>
+      <c r="D553" s="5"/>
+    </row>
+    <row r="554" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="7">
+        <v>553</v>
+      </c>
+      <c r="B554" s="5"/>
+      <c r="C554" s="5"/>
+      <c r="D554" s="5"/>
+    </row>
+    <row r="555" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="7">
+        <v>554</v>
+      </c>
+      <c r="B555" s="5"/>
+      <c r="C555" s="5"/>
+      <c r="D555" s="5"/>
+    </row>
+    <row r="556" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="7">
+        <v>555</v>
+      </c>
+      <c r="B556" s="5"/>
+      <c r="C556" s="5"/>
+      <c r="D556" s="5"/>
+    </row>
+    <row r="557" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="7">
+        <v>556</v>
+      </c>
+      <c r="B557" s="5"/>
+      <c r="C557" s="5"/>
+      <c r="D557" s="5"/>
+    </row>
+    <row r="558" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="7">
+        <v>557</v>
+      </c>
+      <c r="B558" s="5"/>
+      <c r="C558" s="5"/>
+      <c r="D558" s="5"/>
+    </row>
+    <row r="559" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="7">
+        <v>558</v>
+      </c>
+      <c r="B559" s="5"/>
+      <c r="C559" s="5"/>
+      <c r="D559" s="5"/>
+    </row>
+    <row r="560" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="7">
+        <v>559</v>
+      </c>
+      <c r="B560" s="5"/>
+      <c r="C560" s="5"/>
+      <c r="D560" s="5"/>
+    </row>
+    <row r="561" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="7">
+        <v>560</v>
+      </c>
+      <c r="B561" s="5"/>
+      <c r="C561" s="5"/>
+      <c r="D561" s="5"/>
+    </row>
+    <row r="562" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="7">
+        <v>561</v>
+      </c>
+      <c r="B562" s="5"/>
+      <c r="C562" s="5"/>
+      <c r="D562" s="5"/>
+    </row>
+    <row r="563" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="7">
+        <v>562</v>
+      </c>
+      <c r="B563" s="5"/>
+      <c r="C563" s="5"/>
+      <c r="D563" s="5"/>
+    </row>
+    <row r="564" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="7">
+        <v>563</v>
+      </c>
+      <c r="B564" s="5"/>
+      <c r="C564" s="5"/>
+      <c r="D564" s="5"/>
+    </row>
+    <row r="565" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="7">
+        <v>564</v>
+      </c>
+      <c r="B565" s="5"/>
+      <c r="C565" s="5"/>
+      <c r="D565" s="5"/>
+    </row>
+    <row r="566" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="7">
+        <v>565</v>
+      </c>
+      <c r="B566" s="5"/>
+      <c r="C566" s="5"/>
+      <c r="D566" s="5"/>
+    </row>
+    <row r="567" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="7">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5"/>
+      <c r="C567" s="5"/>
+      <c r="D567" s="5"/>
+    </row>
+    <row r="568" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="7">
+        <v>567</v>
+      </c>
+      <c r="B568" s="5"/>
+      <c r="C568" s="5"/>
+      <c r="D568" s="5"/>
+    </row>
+    <row r="569" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="7">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5"/>
+      <c r="C569" s="5"/>
+      <c r="D569" s="5"/>
+    </row>
+    <row r="570" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="7">
+        <v>569</v>
+      </c>
+      <c r="B570" s="5"/>
+      <c r="C570" s="5"/>
+      <c r="D570" s="5"/>
+    </row>
+    <row r="571" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="7">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5"/>
+      <c r="C571" s="5"/>
+      <c r="D571" s="5"/>
+    </row>
+    <row r="572" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="7">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5"/>
+      <c r="C572" s="5"/>
+      <c r="D572" s="5"/>
+    </row>
+    <row r="573" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="7">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5"/>
+      <c r="C573" s="5"/>
+      <c r="D573" s="5"/>
+    </row>
+    <row r="574" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="7">
+        <v>573</v>
+      </c>
+      <c r="B574" s="5"/>
+      <c r="C574" s="5"/>
+      <c r="D574" s="5"/>
+    </row>
+    <row r="575" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="7">
+        <v>574</v>
+      </c>
+      <c r="B575" s="5"/>
+      <c r="C575" s="5"/>
+      <c r="D575" s="5"/>
+    </row>
+    <row r="576" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="7">
+        <v>575</v>
+      </c>
+      <c r="B576" s="5"/>
+      <c r="C576" s="5"/>
+      <c r="D576" s="5"/>
+    </row>
+    <row r="577" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="7">
+        <v>576</v>
+      </c>
+      <c r="B577" s="5"/>
+      <c r="C577" s="5"/>
+      <c r="D577" s="5"/>
+    </row>
+    <row r="578" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="7">
+        <v>577</v>
+      </c>
+      <c r="B578" s="5"/>
+      <c r="C578" s="5"/>
+      <c r="D578" s="5"/>
+    </row>
+    <row r="579" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="7">
+        <v>578</v>
+      </c>
+      <c r="B579" s="5"/>
+      <c r="C579" s="5"/>
+      <c r="D579" s="5"/>
+    </row>
+    <row r="580" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A580" s="7">
+        <v>579</v>
+      </c>
+      <c r="B580" s="5"/>
+      <c r="C580" s="5"/>
+      <c r="D580" s="5"/>
+    </row>
+    <row r="581" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="7">
+        <v>580</v>
+      </c>
+      <c r="B581" s="5"/>
+      <c r="C581" s="5"/>
+      <c r="D581" s="5"/>
+    </row>
+    <row r="582" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="7">
+        <v>581</v>
+      </c>
+      <c r="B582" s="5"/>
+      <c r="C582" s="5"/>
+      <c r="D582" s="5"/>
+    </row>
+    <row r="583" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="7">
+        <v>582</v>
+      </c>
+      <c r="B583" s="5"/>
+      <c r="C583" s="5"/>
+      <c r="D583" s="5"/>
+    </row>
+    <row r="584" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="7">
+        <v>583</v>
+      </c>
+      <c r="B584" s="5"/>
+      <c r="C584" s="5"/>
+      <c r="D584" s="5"/>
+    </row>
+    <row r="585" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="7">
+        <v>584</v>
+      </c>
+      <c r="B585" s="5"/>
+      <c r="C585" s="5"/>
+      <c r="D585" s="5"/>
+    </row>
+    <row r="586" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="7">
+        <v>585</v>
+      </c>
+      <c r="B586" s="5"/>
+      <c r="C586" s="5"/>
+      <c r="D586" s="5"/>
+    </row>
+    <row r="587" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="7">
+        <v>586</v>
+      </c>
+      <c r="B587" s="5"/>
+      <c r="C587" s="5"/>
+      <c r="D587" s="5"/>
+    </row>
+    <row r="588" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="7">
+        <v>587</v>
+      </c>
+      <c r="B588" s="5"/>
+      <c r="C588" s="5"/>
+      <c r="D588" s="5"/>
+    </row>
+    <row r="589" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="7">
+        <v>588</v>
+      </c>
+      <c r="B589" s="5"/>
+      <c r="C589" s="5"/>
+      <c r="D589" s="5"/>
+    </row>
+    <row r="590" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="7">
+        <v>589</v>
+      </c>
+      <c r="B590" s="5"/>
+      <c r="C590" s="5"/>
+      <c r="D590" s="5"/>
+    </row>
+    <row r="591" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="7">
+        <v>590</v>
+      </c>
+      <c r="B591" s="5"/>
+      <c r="C591" s="5"/>
+      <c r="D591" s="5"/>
+    </row>
+    <row r="592" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="7">
+        <v>591</v>
+      </c>
+      <c r="B592" s="5"/>
+      <c r="C592" s="5"/>
+      <c r="D592" s="5"/>
+    </row>
+    <row r="593" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="7">
+        <v>592</v>
+      </c>
+      <c r="B593" s="5"/>
+      <c r="C593" s="5"/>
+      <c r="D593" s="5"/>
+    </row>
+    <row r="594" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="7">
+        <v>593</v>
+      </c>
+      <c r="B594" s="5"/>
+      <c r="C594" s="5"/>
+      <c r="D594" s="5"/>
+    </row>
+    <row r="595" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="7">
+        <v>594</v>
+      </c>
+      <c r="B595" s="5"/>
+      <c r="C595" s="5"/>
+      <c r="D595" s="5"/>
+    </row>
+    <row r="596" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="7">
+        <v>595</v>
+      </c>
+      <c r="B596" s="5"/>
+      <c r="C596" s="5"/>
+      <c r="D596" s="5"/>
+    </row>
+    <row r="597" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="7">
+        <v>596</v>
+      </c>
+      <c r="B597" s="5"/>
+      <c r="C597" s="5"/>
+      <c r="D597" s="5"/>
+    </row>
+    <row r="598" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="7">
+        <v>597</v>
+      </c>
+      <c r="B598" s="5"/>
+      <c r="C598" s="5"/>
+      <c r="D598" s="5"/>
+    </row>
+    <row r="599" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="7">
+        <v>598</v>
+      </c>
+      <c r="B599" s="5"/>
+      <c r="C599" s="5"/>
+      <c r="D599" s="5"/>
+    </row>
+    <row r="600" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="7">
+        <v>599</v>
+      </c>
+      <c r="B600" s="5"/>
+      <c r="C600" s="5"/>
+      <c r="D600" s="5"/>
+    </row>
+    <row r="601" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="7">
+        <v>600</v>
+      </c>
+      <c r="B601" s="5"/>
+      <c r="C601" s="5"/>
+      <c r="D601" s="5"/>
+    </row>
+    <row r="602" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="7">
+        <v>601</v>
+      </c>
+      <c r="B602" s="5"/>
+      <c r="C602" s="5"/>
+      <c r="D602" s="5"/>
+    </row>
+    <row r="603" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="7">
+        <v>602</v>
+      </c>
+      <c r="B603" s="5"/>
+      <c r="C603" s="5"/>
+      <c r="D603" s="5"/>
+    </row>
+    <row r="604" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="7">
+        <v>603</v>
+      </c>
+      <c r="B604" s="5"/>
+      <c r="C604" s="5"/>
+      <c r="D604" s="5"/>
+    </row>
+    <row r="605" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="7">
+        <v>604</v>
+      </c>
+      <c r="B605" s="5"/>
+      <c r="C605" s="5"/>
+      <c r="D605" s="5"/>
+    </row>
+    <row r="606" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="7">
+        <v>605</v>
+      </c>
+      <c r="B606" s="5"/>
+      <c r="C606" s="5"/>
+      <c r="D606" s="5"/>
+    </row>
+    <row r="607" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="7">
+        <v>606</v>
+      </c>
+      <c r="B607" s="5"/>
+      <c r="C607" s="5"/>
+      <c r="D607" s="5"/>
+    </row>
+    <row r="608" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="7">
+        <v>607</v>
+      </c>
+      <c r="B608" s="5"/>
+      <c r="C608" s="5"/>
+      <c r="D608" s="5"/>
+    </row>
+    <row r="609" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="7">
+        <v>608</v>
+      </c>
+      <c r="B609" s="5"/>
+      <c r="C609" s="5"/>
+      <c r="D609" s="5"/>
+    </row>
+    <row r="610" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="7">
+        <v>609</v>
+      </c>
+      <c r="B610" s="5"/>
+      <c r="C610" s="5"/>
+      <c r="D610" s="5"/>
+    </row>
+    <row r="611" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A611" s="7">
+        <v>610</v>
+      </c>
+      <c r="B611" s="5"/>
+      <c r="C611" s="5"/>
+      <c r="D611" s="5"/>
+    </row>
+    <row r="612" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A612" s="7">
+        <v>611</v>
+      </c>
+      <c r="B612" s="5"/>
+      <c r="C612" s="5"/>
+      <c r="D612" s="5"/>
+    </row>
+    <row r="613" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="7">
+        <v>612</v>
+      </c>
+      <c r="B613" s="5"/>
+      <c r="C613" s="5"/>
+      <c r="D613" s="5"/>
+    </row>
+    <row r="614" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A614" s="7">
+        <v>613</v>
+      </c>
+      <c r="B614" s="5"/>
+      <c r="C614" s="5"/>
+      <c r="D614" s="5"/>
+    </row>
+    <row r="615" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A615" s="7">
+        <v>614</v>
+      </c>
+      <c r="B615" s="5"/>
+      <c r="C615" s="5"/>
+      <c r="D615" s="5"/>
+    </row>
+    <row r="616" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A616" s="7">
+        <v>615</v>
+      </c>
+      <c r="B616" s="5"/>
+      <c r="C616" s="5"/>
+      <c r="D616" s="5"/>
+    </row>
+    <row r="617" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A617" s="7">
+        <v>616</v>
+      </c>
+      <c r="B617" s="5"/>
+      <c r="C617" s="5"/>
+      <c r="D617" s="5"/>
+    </row>
+    <row r="618" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A618" s="7">
+        <v>617</v>
+      </c>
+      <c r="B618" s="5"/>
+      <c r="C618" s="5"/>
+      <c r="D618" s="5"/>
+    </row>
+    <row r="619" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A619" s="7">
+        <v>618</v>
+      </c>
+      <c r="B619" s="5"/>
+      <c r="C619" s="5"/>
+      <c r="D619" s="5"/>
+    </row>
+    <row r="620" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A620" s="7">
+        <v>619</v>
+      </c>
+      <c r="B620" s="5"/>
+      <c r="C620" s="5"/>
+      <c r="D620" s="5"/>
+    </row>
+    <row r="621" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A621" s="7">
+        <v>620</v>
+      </c>
+      <c r="B621" s="5"/>
+      <c r="C621" s="5"/>
+      <c r="D621" s="5"/>
+    </row>
+    <row r="622" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A622" s="7">
+        <v>621</v>
+      </c>
+      <c r="B622" s="5"/>
+      <c r="C622" s="5"/>
+      <c r="D622" s="5"/>
+    </row>
+    <row r="623" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A623" s="7">
+        <v>622</v>
+      </c>
+      <c r="B623" s="5"/>
+      <c r="C623" s="5"/>
+      <c r="D623" s="5"/>
+    </row>
+    <row r="624" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A624" s="7">
+        <v>623</v>
+      </c>
+      <c r="B624" s="5"/>
+      <c r="C624" s="5"/>
+      <c r="D624" s="5"/>
+    </row>
+    <row r="625" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A625" s="7">
+        <v>624</v>
+      </c>
+      <c r="B625" s="5"/>
+      <c r="C625" s="5"/>
+      <c r="D625" s="5"/>
+    </row>
+    <row r="626" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A626" s="7">
+        <v>625</v>
+      </c>
+      <c r="B626" s="5"/>
+      <c r="C626" s="5"/>
+      <c r="D626" s="5"/>
+    </row>
+    <row r="627" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A627" s="7">
+        <v>626</v>
+      </c>
+      <c r="B627" s="5"/>
+      <c r="C627" s="5"/>
+      <c r="D627" s="5"/>
+    </row>
+    <row r="628" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A628" s="7">
+        <v>627</v>
+      </c>
+      <c r="B628" s="5"/>
+      <c r="C628" s="5"/>
+      <c r="D628" s="5"/>
+    </row>
+    <row r="629" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A629" s="7">
+        <v>628</v>
+      </c>
+      <c r="B629" s="5"/>
+      <c r="C629" s="5"/>
+      <c r="D629" s="5"/>
+    </row>
+    <row r="630" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A630" s="7">
+        <v>629</v>
+      </c>
+      <c r="B630" s="5"/>
+      <c r="C630" s="5"/>
+      <c r="D630" s="5"/>
+    </row>
+    <row r="631" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A631" s="7">
+        <v>630</v>
+      </c>
+      <c r="B631" s="5"/>
+      <c r="C631" s="5"/>
+      <c r="D631" s="5"/>
+    </row>
+    <row r="632" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A632" s="7">
+        <v>631</v>
+      </c>
+      <c r="B632" s="5"/>
+      <c r="C632" s="5"/>
+      <c r="D632" s="5"/>
+    </row>
+    <row r="633" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="7">
+        <v>632</v>
+      </c>
+      <c r="B633" s="5"/>
+      <c r="C633" s="5"/>
+      <c r="D633" s="5"/>
+    </row>
+    <row r="634" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A634" s="7">
+        <v>633</v>
+      </c>
+      <c r="B634" s="5"/>
+      <c r="C634" s="5"/>
+      <c r="D634" s="5"/>
+    </row>
+    <row r="635" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A635" s="7">
+        <v>634</v>
+      </c>
+      <c r="B635" s="5"/>
+      <c r="C635" s="5"/>
+      <c r="D635" s="5"/>
+    </row>
+    <row r="636" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A636" s="7">
+        <v>635</v>
+      </c>
+      <c r="B636" s="5"/>
+      <c r="C636" s="5"/>
+      <c r="D636" s="5"/>
+    </row>
+    <row r="637" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A637" s="7">
+        <v>636</v>
+      </c>
+      <c r="B637" s="5"/>
+      <c r="C637" s="5"/>
+      <c r="D637" s="5"/>
+    </row>
+    <row r="638" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A638" s="7">
+        <v>637</v>
+      </c>
+      <c r="B638" s="5"/>
+      <c r="C638" s="5"/>
+      <c r="D638" s="5"/>
+    </row>
+    <row r="639" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="7">
+        <v>638</v>
+      </c>
+      <c r="B639" s="5"/>
+      <c r="C639" s="5"/>
+      <c r="D639" s="5"/>
+    </row>
+    <row r="640" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="7">
+        <v>639</v>
+      </c>
+      <c r="B640" s="5"/>
+      <c r="C640" s="5"/>
+      <c r="D640" s="5"/>
+    </row>
+    <row r="641" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A641" s="7">
+        <v>640</v>
+      </c>
+      <c r="B641" s="5"/>
+      <c r="C641" s="5"/>
+      <c r="D641" s="5"/>
+    </row>
+    <row r="642" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A642" s="7">
+        <v>641</v>
+      </c>
+      <c r="B642" s="5"/>
+      <c r="C642" s="5"/>
+      <c r="D642" s="5"/>
+    </row>
+    <row r="643" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A643" s="7">
+        <v>642</v>
+      </c>
+      <c r="B643" s="5"/>
+      <c r="C643" s="5"/>
+      <c r="D643" s="5"/>
+    </row>
+    <row r="644" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A644" s="7">
+        <v>643</v>
+      </c>
+      <c r="B644" s="5"/>
+      <c r="C644" s="5"/>
+      <c r="D644" s="5"/>
+    </row>
+    <row r="645" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A645" s="7">
+        <v>644</v>
+      </c>
+      <c r="B645" s="5"/>
+      <c r="C645" s="5"/>
+      <c r="D645" s="5"/>
+    </row>
+    <row r="646" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A646" s="7">
+        <v>645</v>
+      </c>
+      <c r="B646" s="5"/>
+      <c r="C646" s="5"/>
+      <c r="D646" s="5"/>
+    </row>
+    <row r="647" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A647" s="7">
+        <v>646</v>
+      </c>
+      <c r="B647" s="5"/>
+      <c r="C647" s="5"/>
+      <c r="D647" s="5"/>
+    </row>
+    <row r="648" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A648" s="7">
+        <v>647</v>
+      </c>
+      <c r="B648" s="5"/>
+      <c r="C648" s="5"/>
+      <c r="D648" s="5"/>
+    </row>
+    <row r="649" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A649" s="7">
+        <v>648</v>
+      </c>
+      <c r="B649" s="5"/>
+      <c r="C649" s="5"/>
+      <c r="D649" s="5"/>
+    </row>
+    <row r="650" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A650" s="7">
+        <v>649</v>
+      </c>
+      <c r="B650" s="5"/>
+      <c r="C650" s="5"/>
+      <c r="D650" s="5"/>
+    </row>
+    <row r="651" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A651" s="7">
+        <v>650</v>
+      </c>
+      <c r="B651" s="5"/>
+      <c r="C651" s="5"/>
+      <c r="D651" s="5"/>
+    </row>
+    <row r="652" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A652" s="7">
+        <v>651</v>
+      </c>
+      <c r="B652" s="5"/>
+      <c r="C652" s="5"/>
+      <c r="D652" s="5"/>
+    </row>
+    <row r="653" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A653" s="7">
+        <v>652</v>
+      </c>
+      <c r="B653" s="5"/>
+      <c r="C653" s="5"/>
+      <c r="D653" s="5"/>
+    </row>
+    <row r="654" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A654" s="7">
+        <v>653</v>
+      </c>
+      <c r="B654" s="5"/>
+      <c r="C654" s="5"/>
+      <c r="D654" s="5"/>
+    </row>
+    <row r="655" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="7">
+        <v>654</v>
+      </c>
+      <c r="B655" s="5"/>
+      <c r="C655" s="5"/>
+      <c r="D655" s="5"/>
+    </row>
+    <row r="656" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="7">
+        <v>655</v>
+      </c>
+      <c r="B656" s="5"/>
+      <c r="C656" s="5"/>
+      <c r="D656" s="5"/>
+    </row>
+    <row r="657" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="7">
+        <v>656</v>
+      </c>
+      <c r="B657" s="5"/>
+      <c r="C657" s="5"/>
+      <c r="D657" s="5"/>
+    </row>
+    <row r="658" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A658" s="7">
+        <v>657</v>
+      </c>
+      <c r="B658" s="5"/>
+      <c r="C658" s="5"/>
+      <c r="D658" s="5"/>
+    </row>
+    <row r="659" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A659" s="7">
+        <v>658</v>
+      </c>
+      <c r="B659" s="5"/>
+      <c r="C659" s="5"/>
+      <c r="D659" s="5"/>
+    </row>
+    <row r="660" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A660" s="7">
+        <v>659</v>
+      </c>
+      <c r="B660" s="5"/>
+      <c r="C660" s="5"/>
+      <c r="D660" s="5"/>
+    </row>
+    <row r="661" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A661" s="7">
+        <v>660</v>
+      </c>
+      <c r="B661" s="5"/>
+      <c r="C661" s="5"/>
+      <c r="D661" s="5"/>
+    </row>
+    <row r="662" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="7">
+        <v>661</v>
+      </c>
+      <c r="B662" s="5"/>
+      <c r="C662" s="5"/>
+      <c r="D662" s="5"/>
+    </row>
+    <row r="663" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A663" s="7">
+        <v>662</v>
+      </c>
+      <c r="B663" s="5"/>
+      <c r="C663" s="5"/>
+      <c r="D663" s="5"/>
+    </row>
+    <row r="664" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A664" s="7">
+        <v>663</v>
+      </c>
+      <c r="B664" s="5"/>
+      <c r="C664" s="5"/>
+      <c r="D664" s="5"/>
+    </row>
+    <row r="665" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A665" s="7">
+        <v>664</v>
+      </c>
+      <c r="B665" s="5"/>
+      <c r="C665" s="5"/>
+      <c r="D665" s="5"/>
+    </row>
+    <row r="666" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A666" s="7">
+        <v>665</v>
+      </c>
+      <c r="B666" s="5"/>
+      <c r="C666" s="5"/>
+      <c r="D666" s="5"/>
+    </row>
+    <row r="667" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A667" s="7">
+        <v>666</v>
+      </c>
+      <c r="B667" s="5"/>
+      <c r="C667" s="5"/>
+      <c r="D667" s="5"/>
+    </row>
+    <row r="668" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A668" s="7">
+        <v>667</v>
+      </c>
+      <c r="B668" s="5"/>
+      <c r="C668" s="5"/>
+      <c r="D668" s="5"/>
+    </row>
+    <row r="669" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A669" s="7">
+        <v>668</v>
+      </c>
+      <c r="B669" s="5"/>
+      <c r="C669" s="5"/>
+      <c r="D669" s="5"/>
+    </row>
+    <row r="670" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A670" s="7">
+        <v>669</v>
+      </c>
+      <c r="B670" s="5"/>
+      <c r="C670" s="5"/>
+      <c r="D670" s="5"/>
+    </row>
+    <row r="671" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A671" s="7">
+        <v>670</v>
+      </c>
+      <c r="B671" s="5"/>
+      <c r="C671" s="5"/>
+      <c r="D671" s="5"/>
+    </row>
+    <row r="672" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A672" s="7">
+        <v>671</v>
+      </c>
+      <c r="B672" s="5"/>
+      <c r="C672" s="5"/>
+      <c r="D672" s="5"/>
+    </row>
+    <row r="673" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A673" s="7">
+        <v>672</v>
+      </c>
+      <c r="B673" s="5"/>
+      <c r="C673" s="5"/>
+      <c r="D673" s="5"/>
+    </row>
+    <row r="674" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A674" s="7">
+        <v>673</v>
+      </c>
+      <c r="B674" s="5"/>
+      <c r="C674" s="5"/>
+      <c r="D674" s="5"/>
+    </row>
+    <row r="675" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A675" s="7">
+        <v>674</v>
+      </c>
+      <c r="B675" s="5"/>
+      <c r="C675" s="5"/>
+      <c r="D675" s="5"/>
+    </row>
+    <row r="676" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A676" s="7">
+        <v>675</v>
+      </c>
+      <c r="B676" s="5"/>
+      <c r="C676" s="5"/>
+      <c r="D676" s="5"/>
+    </row>
+    <row r="677" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A677" s="7">
+        <v>676</v>
+      </c>
+      <c r="B677" s="5"/>
+      <c r="C677" s="5"/>
+      <c r="D677" s="5"/>
+    </row>
+    <row r="678" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A678" s="7">
+        <v>677</v>
+      </c>
+      <c r="B678" s="5"/>
+      <c r="C678" s="5"/>
+      <c r="D678" s="5"/>
+    </row>
+    <row r="679" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A679" s="7">
+        <v>678</v>
+      </c>
+      <c r="B679" s="5"/>
+      <c r="C679" s="5"/>
+      <c r="D679" s="5"/>
+    </row>
+    <row r="680" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A680" s="7">
+        <v>679</v>
+      </c>
+      <c r="B680" s="5"/>
+      <c r="C680" s="5"/>
+      <c r="D680" s="5"/>
+    </row>
+    <row r="681" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A681" s="7">
+        <v>680</v>
+      </c>
+      <c r="B681" s="5"/>
+      <c r="C681" s="5"/>
+      <c r="D681" s="5"/>
+    </row>
+    <row r="682" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A682" s="7">
+        <v>681</v>
+      </c>
+      <c r="B682" s="5"/>
+      <c r="C682" s="5"/>
+      <c r="D682" s="5"/>
+    </row>
+    <row r="683" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A683" s="7">
+        <v>682</v>
+      </c>
+      <c r="B683" s="5"/>
+      <c r="C683" s="5"/>
+      <c r="D683" s="5"/>
+    </row>
+    <row r="684" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A684" s="7">
+        <v>683</v>
+      </c>
+      <c r="B684" s="5"/>
+      <c r="C684" s="5"/>
+      <c r="D684" s="5"/>
+    </row>
+    <row r="685" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A685" s="7">
+        <v>684</v>
+      </c>
+      <c r="B685" s="5"/>
+      <c r="C685" s="5"/>
+      <c r="D685" s="5"/>
+    </row>
+    <row r="686" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A686" s="7">
+        <v>685</v>
+      </c>
+      <c r="B686" s="5"/>
+      <c r="C686" s="5"/>
+      <c r="D686" s="5"/>
+    </row>
+    <row r="687" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A687" s="7">
+        <v>686</v>
+      </c>
+      <c r="B687" s="5"/>
+      <c r="C687" s="5"/>
+      <c r="D687" s="5"/>
+    </row>
+    <row r="688" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A688" s="7">
+        <v>687</v>
+      </c>
+      <c r="B688" s="5"/>
+      <c r="C688" s="5"/>
+      <c r="D688" s="5"/>
+    </row>
+    <row r="689" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A689" s="7">
+        <v>688</v>
+      </c>
+      <c r="B689" s="5"/>
+      <c r="C689" s="5"/>
+      <c r="D689" s="5"/>
+    </row>
+    <row r="690" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A690" s="7">
+        <v>689</v>
+      </c>
+      <c r="B690" s="5"/>
+      <c r="C690" s="5"/>
+      <c r="D690" s="5"/>
+    </row>
+    <row r="691" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A691" s="7">
+        <v>690</v>
+      </c>
+      <c r="B691" s="5"/>
+      <c r="C691" s="5"/>
+      <c r="D691" s="5"/>
+    </row>
+    <row r="692" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A692" s="7">
+        <v>691</v>
+      </c>
+      <c r="B692" s="5"/>
+      <c r="C692" s="5"/>
+      <c r="D692" s="5"/>
+    </row>
+    <row r="693" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A693" s="7">
+        <v>692</v>
+      </c>
+      <c r="B693" s="5"/>
+      <c r="C693" s="5"/>
+      <c r="D693" s="5"/>
+    </row>
+    <row r="694" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A694" s="7">
+        <v>693</v>
+      </c>
+      <c r="B694" s="5"/>
+      <c r="C694" s="5"/>
+      <c r="D694" s="5"/>
+    </row>
+    <row r="695" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A695" s="7">
+        <v>694</v>
+      </c>
+      <c r="B695" s="5"/>
+      <c r="C695" s="5"/>
+      <c r="D695" s="5"/>
+    </row>
+    <row r="696" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A696" s="7">
+        <v>695</v>
+      </c>
+      <c r="B696" s="5"/>
+      <c r="C696" s="5"/>
+      <c r="D696" s="5"/>
+    </row>
+    <row r="697" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A697" s="7">
+        <v>696</v>
+      </c>
+      <c r="B697" s="5"/>
+      <c r="C697" s="5"/>
+      <c r="D697" s="5"/>
+    </row>
+    <row r="698" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A698" s="7">
+        <v>697</v>
+      </c>
+      <c r="B698" s="5"/>
+      <c r="C698" s="5"/>
+      <c r="D698" s="5"/>
+    </row>
+    <row r="699" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A699" s="7">
+        <v>698</v>
+      </c>
+      <c r="B699" s="5"/>
+      <c r="C699" s="5"/>
+      <c r="D699" s="5"/>
+    </row>
+    <row r="700" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A700" s="7">
+        <v>699</v>
+      </c>
+      <c r="B700" s="5"/>
+      <c r="C700" s="5"/>
+      <c r="D700" s="5"/>
+    </row>
+    <row r="701" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A701" s="7">
+        <v>700</v>
+      </c>
+      <c r="B701" s="5"/>
+      <c r="C701" s="5"/>
+      <c r="D701" s="5"/>
+    </row>
+    <row r="702" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A702" s="7">
+        <v>701</v>
+      </c>
+      <c r="B702" s="5"/>
+      <c r="C702" s="5"/>
+      <c r="D702" s="5"/>
+    </row>
+    <row r="703" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A703" s="7">
+        <v>702</v>
+      </c>
+      <c r="B703" s="5"/>
+      <c r="C703" s="5"/>
+      <c r="D703" s="5"/>
+    </row>
+    <row r="704" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A704" s="7">
+        <v>703</v>
+      </c>
+      <c r="B704" s="5"/>
+      <c r="C704" s="5"/>
+      <c r="D704" s="5"/>
+    </row>
+    <row r="705" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A705" s="7">
+        <v>704</v>
+      </c>
+      <c r="B705" s="5"/>
+      <c r="C705" s="5"/>
+      <c r="D705" s="5"/>
+    </row>
+    <row r="706" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A706" s="7">
+        <v>705</v>
+      </c>
+      <c r="B706" s="5"/>
+      <c r="C706" s="5"/>
+      <c r="D706" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>